--- a/new_data/double_hit/20260204_204708_phrase05/20260204_204708_phrase05_keypoints.xlsx
+++ b/new_data/double_hit/20260204_204708_phrase05/20260204_204708_phrase05_keypoints.xlsx
@@ -491,1751 +491,1751 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.199969083335305</v>
+        <v>3.071680690863849</v>
       </c>
       <c r="B2" t="n">
-        <v>4.181707351788284</v>
+        <v>3.058323085562902</v>
       </c>
       <c r="C2" t="n">
-        <v>4.182441472435583</v>
+        <v>3.05886455787038</v>
       </c>
       <c r="D2" t="n">
-        <v>4.042014474139844</v>
+        <v>2.956140479561397</v>
       </c>
       <c r="E2" t="n">
-        <v>4.111423467382018</v>
+        <v>3.006897974196086</v>
       </c>
       <c r="F2" t="n">
-        <v>3.985411273916724</v>
+        <v>2.914725754026981</v>
       </c>
       <c r="G2" t="n">
-        <v>4.024030440062809</v>
+        <v>2.942961198203373</v>
       </c>
       <c r="H2" t="n">
-        <v>4.091450869588248</v>
+        <v>2.992311602730799</v>
       </c>
       <c r="I2" t="n">
-        <v>4.106815995518405</v>
+        <v>3.003536699638442</v>
       </c>
       <c r="J2" t="n">
-        <v>4.278832762584157</v>
+        <v>3.129411969331444</v>
       </c>
       <c r="K2" t="n">
-        <v>4.303471446586417</v>
+        <v>3.147428836668182</v>
       </c>
       <c r="L2" t="n">
-        <v>4.0197799391684</v>
+        <v>2.939938475604362</v>
       </c>
       <c r="M2" t="n">
-        <v>4.075466449473294</v>
+        <v>2.980657474228457</v>
       </c>
       <c r="N2" t="n">
-        <v>4.197959860464228</v>
+        <v>3.070276587463018</v>
       </c>
       <c r="O2" t="n">
-        <v>4.442080439300102</v>
+        <v>3.248783949299077</v>
       </c>
       <c r="P2" t="n">
-        <v>3.907459960577049</v>
+        <v>2.857816873960198</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.608356363686156</v>
+        <v>3.370350982806497</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4.261232123976066</v>
+        <v>3.116505883767751</v>
       </c>
       <c r="B3" t="n">
-        <v>4.23631526205837</v>
+        <v>3.098290488297513</v>
       </c>
       <c r="C3" t="n">
-        <v>4.236579026610312</v>
+        <v>3.098479529245873</v>
       </c>
       <c r="D3" t="n">
-        <v>4.093541768185792</v>
+        <v>2.993883664446343</v>
       </c>
       <c r="E3" t="n">
-        <v>4.151221646661919</v>
+        <v>3.036083718084077</v>
       </c>
       <c r="F3" t="n">
-        <v>4.062137451359402</v>
+        <v>2.970909567184951</v>
       </c>
       <c r="G3" t="n">
-        <v>4.074998015159736</v>
+        <v>2.980344045741585</v>
       </c>
       <c r="H3" t="n">
-        <v>4.134424793291348</v>
+        <v>3.02371242866054</v>
       </c>
       <c r="I3" t="n">
-        <v>4.16621106425033</v>
+        <v>3.046980628661296</v>
       </c>
       <c r="J3" t="n">
-        <v>4.410757798200179</v>
+        <v>3.225835853952515</v>
       </c>
       <c r="K3" t="n">
-        <v>4.411965157615535</v>
+        <v>3.226657725287486</v>
       </c>
       <c r="L3" t="n">
-        <v>4.077557348070838</v>
+        <v>2.982114635590631</v>
       </c>
       <c r="M3" t="n">
-        <v>4.12150417380979</v>
+        <v>3.014292356570231</v>
       </c>
       <c r="N3" t="n">
-        <v>4.169816326905654</v>
+        <v>3.049608930322511</v>
       </c>
       <c r="O3" t="n">
-        <v>4.456524551302986</v>
+        <v>3.259434544439864</v>
       </c>
       <c r="P3" t="n">
-        <v>3.893396841815858</v>
+        <v>2.847440177368197</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.716123160749721</v>
+        <v>3.449214439109269</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.29169380682994</v>
+        <v>3.138713627296108</v>
       </c>
       <c r="B4" t="n">
-        <v>4.26827929783378</v>
+        <v>3.121600853565561</v>
       </c>
       <c r="C4" t="n">
-        <v>4.268860636828041</v>
+        <v>3.122018641088981</v>
       </c>
       <c r="D4" t="n">
-        <v>4.111221680293101</v>
+        <v>3.006767613244708</v>
       </c>
       <c r="E4" t="n">
-        <v>4.189890298689333</v>
+        <v>3.064279280945156</v>
       </c>
       <c r="F4" t="n">
-        <v>4.068646045867887</v>
+        <v>2.975677756161246</v>
       </c>
       <c r="G4" t="n">
-        <v>4.111791969042017</v>
+        <v>3.007168534661211</v>
       </c>
       <c r="H4" t="n">
-        <v>4.177440996194031</v>
+        <v>3.055135391355611</v>
       </c>
       <c r="I4" t="n">
-        <v>4.181117364775925</v>
+        <v>3.057967140431511</v>
       </c>
       <c r="J4" t="n">
-        <v>4.439929965466782</v>
+        <v>3.247210130697395</v>
       </c>
       <c r="K4" t="n">
-        <v>4.463995958492876</v>
+        <v>3.264739286442452</v>
       </c>
       <c r="L4" t="n">
-        <v>4.091681483404153</v>
+        <v>2.992530510743491</v>
       </c>
       <c r="M4" t="n">
-        <v>4.161498374833211</v>
+        <v>3.043570512669038</v>
       </c>
       <c r="N4" t="n">
-        <v>4.151947119291122</v>
+        <v>3.036494478062949</v>
       </c>
       <c r="O4" t="n">
-        <v>4.494285641875721</v>
+        <v>3.286985681465826</v>
       </c>
       <c r="P4" t="n">
-        <v>3.896146431125082</v>
+        <v>2.849509262171949</v>
       </c>
       <c r="Q4" t="n">
-        <v>4.719743317213988</v>
+        <v>3.451900366635784</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.324726833731162</v>
+        <v>3.162896110842649</v>
       </c>
       <c r="B5" t="n">
-        <v>4.298937963322074</v>
+        <v>3.144039100555115</v>
       </c>
       <c r="C5" t="n">
-        <v>4.300637779323478</v>
+        <v>3.145291408993693</v>
       </c>
       <c r="D5" t="n">
-        <v>4.126720370058303</v>
+        <v>3.01810936739186</v>
       </c>
       <c r="E5" t="n">
-        <v>4.227457769745797</v>
+        <v>3.091756980130584</v>
       </c>
       <c r="F5" t="n">
-        <v>4.09593774964396</v>
+        <v>2.995576951305353</v>
       </c>
       <c r="G5" t="n">
-        <v>4.156653082471944</v>
+        <v>3.039979086027423</v>
       </c>
       <c r="H5" t="n">
-        <v>4.214508323537251</v>
+        <v>3.082317230915539</v>
       </c>
       <c r="I5" t="n">
-        <v>4.21846527226183</v>
+        <v>3.085157764422124</v>
       </c>
       <c r="J5" t="n">
-        <v>4.47509568971968</v>
+        <v>3.272912672129821</v>
       </c>
       <c r="K5" t="n">
-        <v>4.481433726093485</v>
+        <v>3.277487603631027</v>
       </c>
       <c r="L5" t="n">
-        <v>4.110211303512164</v>
+        <v>3.005992826458213</v>
       </c>
       <c r="M5" t="n">
-        <v>4.199910468990429</v>
+        <v>3.071578088713439</v>
       </c>
       <c r="N5" t="n">
-        <v>4.164422846286163</v>
+        <v>3.045698804535613</v>
       </c>
       <c r="O5" t="n">
-        <v>4.574069374160947</v>
+        <v>3.345209590806285</v>
       </c>
       <c r="P5" t="n">
-        <v>3.921614123750977</v>
+        <v>2.868110469837911</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.725937700398301</v>
+        <v>3.45625182222034</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.347714226722448</v>
+        <v>3.17971513321106</v>
       </c>
       <c r="B6" t="n">
-        <v>4.318281658022052</v>
+        <v>3.158183088091061</v>
       </c>
       <c r="C6" t="n">
-        <v>4.32800443258972</v>
+        <v>3.165290395270392</v>
       </c>
       <c r="D6" t="n">
-        <v>4.159267186164324</v>
+        <v>3.041881090959529</v>
       </c>
       <c r="E6" t="n">
-        <v>4.237801279834612</v>
+        <v>3.099299643694707</v>
       </c>
       <c r="F6" t="n">
-        <v>4.11132209339211</v>
+        <v>3.006814697793184</v>
       </c>
       <c r="G6" t="n">
-        <v>4.174139375062984</v>
+        <v>3.052747080340734</v>
       </c>
       <c r="H6" t="n">
-        <v>4.254146994927817</v>
+        <v>3.111253496972051</v>
       </c>
       <c r="I6" t="n">
-        <v>4.255620521122363</v>
+        <v>3.112337847095915</v>
       </c>
       <c r="J6" t="n">
-        <v>4.502114020034815</v>
+        <v>3.292657612671084</v>
       </c>
       <c r="K6" t="n">
-        <v>4.504270739658982</v>
+        <v>3.294120044691669</v>
       </c>
       <c r="L6" t="n">
-        <v>4.104027970573196</v>
+        <v>3.001493441060906</v>
       </c>
       <c r="M6" t="n">
-        <v>4.197624029094816</v>
+        <v>3.069951914904868</v>
       </c>
       <c r="N6" t="n">
-        <v>4.179320498793661</v>
+        <v>3.056609418824701</v>
       </c>
       <c r="O6" t="n">
-        <v>4.627405064879954</v>
+        <v>3.38432701202773</v>
       </c>
       <c r="P6" t="n">
-        <v>3.952879351619648</v>
+        <v>2.890952449261787</v>
       </c>
       <c r="Q6" t="n">
-        <v>4.766833697531003</v>
+        <v>3.486390852526363</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.373284974897325</v>
+        <v>3.198458297276905</v>
       </c>
       <c r="B7" t="n">
-        <v>4.347688282668159</v>
+        <v>3.1797425406348</v>
       </c>
       <c r="C7" t="n">
-        <v>4.349217060089432</v>
+        <v>3.180858514709134</v>
       </c>
       <c r="D7" t="n">
-        <v>4.200561472574913</v>
+        <v>3.072147319821883</v>
       </c>
       <c r="E7" t="n">
-        <v>4.272444759883574</v>
+        <v>3.124707028256088</v>
       </c>
       <c r="F7" t="n">
-        <v>4.149263831453971</v>
+        <v>3.034572796006106</v>
       </c>
       <c r="G7" t="n">
-        <v>4.186005416782224</v>
+        <v>3.061486183364273</v>
       </c>
       <c r="H7" t="n">
-        <v>4.281640485792808</v>
+        <v>3.131333651388287</v>
       </c>
       <c r="I7" t="n">
-        <v>4.282301578731737</v>
+        <v>3.131795712442364</v>
       </c>
       <c r="J7" t="n">
-        <v>4.550184028623979</v>
+        <v>3.327742980207711</v>
       </c>
       <c r="K7" t="n">
-        <v>4.572135100780039</v>
+        <v>3.343769998305483</v>
       </c>
       <c r="L7" t="n">
-        <v>4.16767690331768</v>
+        <v>3.047996108848583</v>
       </c>
       <c r="M7" t="n">
-        <v>4.226629481790336</v>
+        <v>3.091133285551887</v>
       </c>
       <c r="N7" t="n">
-        <v>4.316347865086594</v>
+        <v>3.156947997136627</v>
       </c>
       <c r="O7" t="n">
-        <v>4.640474142005502</v>
+        <v>3.39386198447141</v>
       </c>
       <c r="P7" t="n">
-        <v>4.003509413788088</v>
+        <v>2.92812411908631</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.823844795941005</v>
+        <v>3.527942615179479</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4.417890491347958</v>
+        <v>3.231048535121515</v>
       </c>
       <c r="B8" t="n">
-        <v>4.385671819484153</v>
+        <v>3.207510126032862</v>
       </c>
       <c r="C8" t="n">
-        <v>4.393926833202673</v>
+        <v>3.213527812429917</v>
       </c>
       <c r="D8" t="n">
-        <v>4.234036509289953</v>
+        <v>3.096618635449377</v>
       </c>
       <c r="E8" t="n">
-        <v>4.287966991475817</v>
+        <v>3.136101137610127</v>
       </c>
       <c r="F8" t="n">
-        <v>4.163699295438759</v>
+        <v>3.045166819413275</v>
       </c>
       <c r="G8" t="n">
-        <v>4.216737590424338</v>
+        <v>3.083995759930997</v>
       </c>
       <c r="H8" t="n">
-        <v>4.313495940896562</v>
+        <v>3.154783864792854</v>
       </c>
       <c r="I8" t="n">
-        <v>4.358810114385654</v>
+        <v>3.18789378955684</v>
       </c>
       <c r="J8" t="n">
-        <v>4.596485037066967</v>
+        <v>3.361717995705643</v>
       </c>
       <c r="K8" t="n">
-        <v>4.657130705304731</v>
+        <v>3.406016825522847</v>
       </c>
       <c r="L8" t="n">
-        <v>4.239145085757711</v>
+        <v>3.100301771547352</v>
       </c>
       <c r="M8" t="n">
-        <v>4.306236890595485</v>
+        <v>3.149408847344779</v>
       </c>
       <c r="N8" t="n">
-        <v>4.377744950007849</v>
+        <v>3.201713807289092</v>
       </c>
       <c r="O8" t="n">
-        <v>4.704419990037963</v>
+        <v>3.440672107333093</v>
       </c>
       <c r="P8" t="n">
-        <v>4.044964889647085</v>
+        <v>2.958312342204174</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.822705179334071</v>
+        <v>3.527263051621619</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4.449756035806158</v>
+        <v>3.254350818713332</v>
       </c>
       <c r="B9" t="n">
-        <v>4.421032124144221</v>
+        <v>3.233353921110718</v>
       </c>
       <c r="C9" t="n">
-        <v>4.427352864481833</v>
+        <v>3.237966098598031</v>
       </c>
       <c r="D9" t="n">
-        <v>4.243510413114623</v>
+        <v>3.103527414495207</v>
       </c>
       <c r="E9" t="n">
-        <v>4.334780635213745</v>
+        <v>3.170279951899971</v>
       </c>
       <c r="F9" t="n">
-        <v>4.173432639806323</v>
+        <v>3.05225444946787</v>
       </c>
       <c r="G9" t="n">
-        <v>4.266806252084683</v>
+        <v>3.120569210025811</v>
       </c>
       <c r="H9" t="n">
-        <v>4.341480927456701</v>
+        <v>3.175131768656396</v>
       </c>
       <c r="I9" t="n">
-        <v>4.395912514246709</v>
+        <v>3.214971972834675</v>
       </c>
       <c r="J9" t="n">
-        <v>4.611256812866618</v>
+        <v>3.372446947968148</v>
       </c>
       <c r="K9" t="n">
-        <v>4.669935537432886</v>
+        <v>3.415337809235019</v>
       </c>
       <c r="L9" t="n">
-        <v>4.244503493859367</v>
+        <v>3.104236142362943</v>
       </c>
       <c r="M9" t="n">
-        <v>4.339154130143304</v>
+        <v>3.173483809459725</v>
       </c>
       <c r="N9" t="n">
-        <v>4.407207786771584</v>
+        <v>3.223293288334794</v>
       </c>
       <c r="O9" t="n">
-        <v>4.760853593017302</v>
+        <v>3.481903765332016</v>
       </c>
       <c r="P9" t="n">
-        <v>4.142960867598002</v>
+        <v>3.030043192167239</v>
       </c>
       <c r="Q9" t="n">
-        <v>4.833632911089846</v>
+        <v>3.535273749652685</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4.476688366385778</v>
+        <v>3.274062729795217</v>
       </c>
       <c r="B10" t="n">
-        <v>4.444138667607058</v>
+        <v>3.25025621988203</v>
       </c>
       <c r="C10" t="n">
-        <v>4.452053525947117</v>
+        <v>3.256041294554523</v>
       </c>
       <c r="D10" t="n">
-        <v>4.264898403203514</v>
+        <v>3.119163701116071</v>
       </c>
       <c r="E10" t="n">
-        <v>4.350534921958243</v>
+        <v>3.18177701478165</v>
       </c>
       <c r="F10" t="n">
-        <v>4.203797272679338</v>
+        <v>3.074428109405165</v>
       </c>
       <c r="G10" t="n">
-        <v>4.300185680155213</v>
+        <v>3.144970601585045</v>
       </c>
       <c r="H10" t="n">
-        <v>4.393312343472374</v>
+        <v>3.212991962158078</v>
       </c>
       <c r="I10" t="n">
-        <v>4.458640913509369</v>
+        <v>3.26087905622185</v>
       </c>
       <c r="J10" t="n">
-        <v>4.679141352696566</v>
+        <v>3.42213414756807</v>
       </c>
       <c r="K10" t="n">
-        <v>4.717423246136888</v>
+        <v>3.450183888879763</v>
       </c>
       <c r="L10" t="n">
-        <v>4.258244233723739</v>
+        <v>3.114254609871574</v>
       </c>
       <c r="M10" t="n">
-        <v>4.355073209677085</v>
+        <v>3.185106665388825</v>
       </c>
       <c r="N10" t="n">
-        <v>4.456506774821343</v>
+        <v>3.259281343968702</v>
       </c>
       <c r="O10" t="n">
-        <v>4.822662900134489</v>
+        <v>3.527098607079179</v>
       </c>
       <c r="P10" t="n">
-        <v>4.150977099927969</v>
+        <v>3.035843024683284</v>
       </c>
       <c r="Q10" t="n">
-        <v>4.862375079678875</v>
+        <v>3.556216886539503</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4.501522111240658</v>
+        <v>3.292257042631809</v>
       </c>
       <c r="B11" t="n">
-        <v>4.468233967805591</v>
+        <v>3.267923818254697</v>
       </c>
       <c r="C11" t="n">
-        <v>4.473038422303623</v>
+        <v>3.271453402504283</v>
       </c>
       <c r="D11" t="n">
-        <v>4.310849647359046</v>
+        <v>3.1528966177043</v>
       </c>
       <c r="E11" t="n">
-        <v>4.370714591740878</v>
+        <v>3.19663148707147</v>
       </c>
       <c r="F11" t="n">
-        <v>4.259850843307881</v>
+        <v>3.115598627766514</v>
       </c>
       <c r="G11" t="n">
-        <v>4.329022016052403</v>
+        <v>3.166153377740973</v>
       </c>
       <c r="H11" t="n">
-        <v>4.462533002098225</v>
+        <v>3.263743834757129</v>
       </c>
       <c r="I11" t="n">
-        <v>4.501450524868638</v>
+        <v>3.292179036887318</v>
       </c>
       <c r="J11" t="n">
-        <v>4.732593311214425</v>
+        <v>3.461216782443999</v>
       </c>
       <c r="K11" t="n">
-        <v>4.767898845093216</v>
+        <v>3.4870022489021</v>
       </c>
       <c r="L11" t="n">
-        <v>4.294911350007273</v>
+        <v>3.141168348606969</v>
       </c>
       <c r="M11" t="n">
-        <v>4.37764405646339</v>
+        <v>3.201648802502017</v>
       </c>
       <c r="N11" t="n">
-        <v>4.478678851884313</v>
+        <v>3.275593328997924</v>
       </c>
       <c r="O11" t="n">
-        <v>4.832232893049119</v>
+        <v>3.534076256061586</v>
       </c>
       <c r="P11" t="n">
-        <v>4.148758402840778</v>
+        <v>3.034299424523161</v>
       </c>
       <c r="Q11" t="n">
-        <v>4.941312267081547</v>
+        <v>3.613821317827993</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4.536276093743075</v>
+        <v>3.317636317014994</v>
       </c>
       <c r="B12" t="n">
-        <v>4.505599651773138</v>
+        <v>3.295206503078899</v>
       </c>
       <c r="C12" t="n">
-        <v>4.511208371954141</v>
+        <v>3.299310589095342</v>
       </c>
       <c r="D12" t="n">
-        <v>4.31689317067212</v>
+        <v>3.157199583231471</v>
       </c>
       <c r="E12" t="n">
-        <v>4.434997232033652</v>
+        <v>3.243603594835001</v>
       </c>
       <c r="F12" t="n">
-        <v>4.26937519390478</v>
+        <v>3.122503893040069</v>
       </c>
       <c r="G12" t="n">
-        <v>4.3734699463955</v>
+        <v>3.19861114637084</v>
       </c>
       <c r="H12" t="n">
-        <v>4.497628581315452</v>
+        <v>3.289345530925281</v>
       </c>
       <c r="I12" t="n">
-        <v>4.551069009142517</v>
+        <v>3.328473493463549</v>
       </c>
       <c r="J12" t="n">
-        <v>4.761522853528878</v>
+        <v>3.482385503510829</v>
       </c>
       <c r="K12" t="n">
-        <v>4.795265017914009</v>
+        <v>3.506979449790698</v>
       </c>
       <c r="L12" t="n">
-        <v>4.296218642076187</v>
+        <v>3.142100903768582</v>
       </c>
       <c r="M12" t="n">
-        <v>4.406256985226422</v>
+        <v>3.222561369570047</v>
       </c>
       <c r="N12" t="n">
-        <v>4.471663867871736</v>
+        <v>3.270376079924967</v>
       </c>
       <c r="O12" t="n">
-        <v>4.852867064227269</v>
+        <v>3.54921393839672</v>
       </c>
       <c r="P12" t="n">
-        <v>4.144855264006576</v>
+        <v>3.031215035220736</v>
       </c>
       <c r="Q12" t="n">
-        <v>4.965416695743626</v>
+        <v>3.63147380697988</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4.593859402683792</v>
+        <v>3.359727092334996</v>
       </c>
       <c r="B13" t="n">
-        <v>4.55865572324036</v>
+        <v>3.333988710425371</v>
       </c>
       <c r="C13" t="n">
-        <v>4.568457771307245</v>
+        <v>3.341138534249222</v>
       </c>
       <c r="D13" t="n">
-        <v>4.355006427759561</v>
+        <v>3.185072933174991</v>
       </c>
       <c r="E13" t="n">
-        <v>4.518774426897642</v>
+        <v>3.304797344501742</v>
       </c>
       <c r="F13" t="n">
-        <v>4.3047340572285</v>
+        <v>3.148299900814993</v>
       </c>
       <c r="G13" t="n">
-        <v>4.460556929963185</v>
+        <v>3.262252238426666</v>
       </c>
       <c r="H13" t="n">
-        <v>4.527443584593892</v>
+        <v>3.311187842137104</v>
       </c>
       <c r="I13" t="n">
-        <v>4.624367208300848</v>
+        <v>3.382116849267163</v>
       </c>
       <c r="J13" t="n">
-        <v>4.825064646938055</v>
+        <v>3.528841789504485</v>
       </c>
       <c r="K13" t="n">
-        <v>4.890363429357163</v>
+        <v>3.576585170282236</v>
       </c>
       <c r="L13" t="n">
-        <v>4.303410910459742</v>
+        <v>3.147336775834594</v>
       </c>
       <c r="M13" t="n">
-        <v>4.449735376651817</v>
+        <v>3.254322005780682</v>
       </c>
       <c r="N13" t="n">
-        <v>4.482728526580704</v>
+        <v>3.278594793274675</v>
       </c>
       <c r="O13" t="n">
-        <v>4.915947630004635</v>
+        <v>3.595243652436269</v>
       </c>
       <c r="P13" t="n">
-        <v>4.13605446425708</v>
+        <v>3.025100368708909</v>
       </c>
       <c r="Q13" t="n">
-        <v>4.96022884577665</v>
+        <v>3.627556653648433</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4.642227287451834</v>
+        <v>3.395144159974322</v>
       </c>
       <c r="B14" t="n">
-        <v>4.606483587322822</v>
+        <v>3.369000991498691</v>
       </c>
       <c r="C14" t="n">
-        <v>4.61339911912729</v>
+        <v>3.374047471239115</v>
       </c>
       <c r="D14" t="n">
-        <v>4.405466652461496</v>
+        <v>3.222012518340793</v>
       </c>
       <c r="E14" t="n">
-        <v>4.555414157790537</v>
+        <v>3.331638699528285</v>
       </c>
       <c r="F14" t="n">
-        <v>4.370375397253317</v>
+        <v>3.196312085171732</v>
       </c>
       <c r="G14" t="n">
-        <v>4.527383528912667</v>
+        <v>3.311159731958909</v>
       </c>
       <c r="H14" t="n">
-        <v>4.562735185554639</v>
+        <v>3.336932197459595</v>
       </c>
       <c r="I14" t="n">
-        <v>4.676492656931801</v>
+        <v>3.420227926109234</v>
       </c>
       <c r="J14" t="n">
-        <v>4.858179830011193</v>
+        <v>3.552905858925381</v>
       </c>
       <c r="K14" t="n">
-        <v>4.940806358022905</v>
+        <v>3.613460804792645</v>
       </c>
       <c r="L14" t="n">
-        <v>4.345361004909312</v>
+        <v>3.178043983117378</v>
       </c>
       <c r="M14" t="n">
-        <v>4.505291686239814</v>
+        <v>3.295025895183997</v>
       </c>
       <c r="N14" t="n">
-        <v>4.494418725265317</v>
+        <v>3.287042604576671</v>
       </c>
       <c r="O14" t="n">
-        <v>4.956177729743909</v>
+        <v>3.624827155345717</v>
       </c>
       <c r="P14" t="n">
-        <v>4.135806554404982</v>
+        <v>3.024814347645777</v>
       </c>
       <c r="Q14" t="n">
-        <v>4.990057781973134</v>
+        <v>3.649683580414479</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4.714493009338538</v>
+        <v>3.447922073666763</v>
       </c>
       <c r="B15" t="n">
-        <v>4.669751046380162</v>
+        <v>3.415206042774731</v>
       </c>
       <c r="C15" t="n">
-        <v>4.680265595049105</v>
+        <v>3.422903663696153</v>
       </c>
       <c r="D15" t="n">
-        <v>4.454720478638975</v>
+        <v>3.257959111461864</v>
       </c>
       <c r="E15" t="n">
-        <v>4.58426971150572</v>
+        <v>3.352727657964488</v>
       </c>
       <c r="F15" t="n">
-        <v>4.435750570498944</v>
+        <v>3.244117659718738</v>
       </c>
       <c r="G15" t="n">
-        <v>4.557896619429671</v>
+        <v>3.333465158356493</v>
       </c>
       <c r="H15" t="n">
-        <v>4.674347467998429</v>
+        <v>3.418581372421473</v>
       </c>
       <c r="I15" t="n">
-        <v>4.724030331962583</v>
+        <v>3.454900425403625</v>
       </c>
       <c r="J15" t="n">
-        <v>4.960651637772477</v>
+        <v>3.627971630154034</v>
       </c>
       <c r="K15" t="n">
-        <v>5.020375331192068</v>
+        <v>3.671695958204382</v>
       </c>
       <c r="L15" t="n">
-        <v>4.406339621843789</v>
+        <v>3.222613373399707</v>
       </c>
       <c r="M15" t="n">
-        <v>4.544860693040159</v>
+        <v>3.323956187827643</v>
       </c>
       <c r="N15" t="n">
-        <v>4.499517692824079</v>
+        <v>3.29082799144783</v>
       </c>
       <c r="O15" t="n">
-        <v>5.031328526556682</v>
+        <v>3.679855288802653</v>
       </c>
       <c r="P15" t="n">
-        <v>4.120327082457772</v>
+        <v>3.013459943918438</v>
       </c>
       <c r="Q15" t="n">
-        <v>4.993003873471328</v>
+        <v>3.651798871323639</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4.766176928601122</v>
+        <v>3.485791051599131</v>
       </c>
       <c r="B16" t="n">
-        <v>4.716664142326199</v>
+        <v>3.449587250347578</v>
       </c>
       <c r="C16" t="n">
-        <v>4.729999386230938</v>
+        <v>3.459348509725726</v>
       </c>
       <c r="D16" t="n">
-        <v>4.533869542485011</v>
+        <v>3.315930380575796</v>
       </c>
       <c r="E16" t="n">
-        <v>4.620300718013714</v>
+        <v>3.379122412534961</v>
       </c>
       <c r="F16" t="n">
-        <v>4.489657510857767</v>
+        <v>3.283604378406218</v>
       </c>
       <c r="G16" t="n">
-        <v>4.600050903195407</v>
+        <v>3.364299212818382</v>
       </c>
       <c r="H16" t="n">
-        <v>4.731809704685796</v>
+        <v>3.460738206660233</v>
       </c>
       <c r="I16" t="n">
-        <v>4.775003672404907</v>
+        <v>3.492294692701728</v>
       </c>
       <c r="J16" t="n">
-        <v>5.020082259467688</v>
+        <v>3.67156875964805</v>
       </c>
       <c r="K16" t="n">
-        <v>5.081999186365631</v>
+        <v>3.716791711573408</v>
       </c>
       <c r="L16" t="n">
-        <v>4.429718577876664</v>
+        <v>3.239746878386673</v>
       </c>
       <c r="M16" t="n">
-        <v>4.556469215998305</v>
+        <v>3.332433514816743</v>
       </c>
       <c r="N16" t="n">
-        <v>4.531218924938446</v>
+        <v>3.313954235048701</v>
       </c>
       <c r="O16" t="n">
-        <v>5.065214824576755</v>
+        <v>3.704541295916109</v>
       </c>
       <c r="P16" t="n">
-        <v>4.104088506699872</v>
+        <v>3.001480440103491</v>
       </c>
       <c r="Q16" t="n">
-        <v>4.987586370579346</v>
+        <v>3.6477025156062</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4.832104614114022</v>
+        <v>3.533972599779493</v>
       </c>
       <c r="B17" t="n">
-        <v>4.789991168211519</v>
+        <v>3.503192306033402</v>
       </c>
       <c r="C17" t="n">
-        <v>4.80080647573204</v>
+        <v>3.51108213029823</v>
       </c>
       <c r="D17" t="n">
-        <v>4.600083093040544</v>
+        <v>3.364297807309472</v>
       </c>
       <c r="E17" t="n">
-        <v>4.704783206798015</v>
+        <v>3.440901908039836</v>
       </c>
       <c r="F17" t="n">
-        <v>4.548701854411336</v>
+        <v>3.32669236229768</v>
       </c>
       <c r="G17" t="n">
-        <v>4.674212943272485</v>
+        <v>3.418518124520535</v>
       </c>
       <c r="H17" t="n">
-        <v>4.790496116379262</v>
+        <v>3.503553873200433</v>
       </c>
       <c r="I17" t="n">
-        <v>4.86387695215496</v>
+        <v>3.557250286965389</v>
       </c>
       <c r="J17" t="n">
-        <v>5.077428708801652</v>
+        <v>3.713462412343461</v>
       </c>
       <c r="K17" t="n">
-        <v>5.162053889884545</v>
+        <v>3.775302344731454</v>
       </c>
       <c r="L17" t="n">
-        <v>4.452644473850375</v>
+        <v>3.256438350821524</v>
       </c>
       <c r="M17" t="n">
-        <v>4.58883682595155</v>
+        <v>3.356040442464746</v>
       </c>
       <c r="N17" t="n">
-        <v>4.569970694028676</v>
+        <v>3.342416844602631</v>
       </c>
       <c r="O17" t="n">
-        <v>5.107742894902437</v>
+        <v>3.735557715159037</v>
       </c>
       <c r="P17" t="n">
-        <v>4.126845766320702</v>
+        <v>3.018324058877822</v>
       </c>
       <c r="Q17" t="n">
-        <v>4.98965468824075</v>
+        <v>3.649183219242611</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4.905931303267137</v>
+        <v>3.587917788621474</v>
       </c>
       <c r="B18" t="n">
-        <v>4.8735463972777</v>
+        <v>3.564229341456706</v>
       </c>
       <c r="C18" t="n">
-        <v>4.881952270867457</v>
+        <v>3.570404093474424</v>
       </c>
       <c r="D18" t="n">
-        <v>4.664916804264242</v>
+        <v>3.411696135649882</v>
       </c>
       <c r="E18" t="n">
-        <v>4.784296928740451</v>
+        <v>3.498966994873494</v>
       </c>
       <c r="F18" t="n">
-        <v>4.588114716440495</v>
+        <v>3.355566785962163</v>
       </c>
       <c r="G18" t="n">
-        <v>4.742538532025352</v>
+        <v>3.468481857998448</v>
       </c>
       <c r="H18" t="n">
-        <v>4.834867655895841</v>
+        <v>3.536067159432234</v>
       </c>
       <c r="I18" t="n">
-        <v>4.935106833651889</v>
+        <v>3.609348637099971</v>
       </c>
       <c r="J18" t="n">
-        <v>5.147930715442129</v>
+        <v>3.76499117999237</v>
       </c>
       <c r="K18" t="n">
-        <v>5.250189685869151</v>
+        <v>3.83970381710745</v>
       </c>
       <c r="L18" t="n">
-        <v>4.496136798193813</v>
+        <v>3.288293156129113</v>
       </c>
       <c r="M18" t="n">
-        <v>4.657783150225563</v>
+        <v>3.406503131605617</v>
       </c>
       <c r="N18" t="n">
-        <v>4.632683238591492</v>
+        <v>3.388196729433474</v>
       </c>
       <c r="O18" t="n">
-        <v>5.176869386220128</v>
+        <v>3.78619011950076</v>
       </c>
       <c r="P18" t="n">
-        <v>4.167536613246337</v>
+        <v>3.048099062376222</v>
       </c>
       <c r="Q18" t="n">
-        <v>5.022189493210525</v>
+        <v>3.673149957171508</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4.93537155909473</v>
+        <v>3.609528893617646</v>
       </c>
       <c r="B19" t="n">
-        <v>4.905521002853005</v>
+        <v>3.587696772345418</v>
       </c>
       <c r="C19" t="n">
-        <v>4.913395023329831</v>
+        <v>3.593449168935758</v>
       </c>
       <c r="D19" t="n">
-        <v>4.713935212171317</v>
+        <v>3.447580535001696</v>
       </c>
       <c r="E19" t="n">
-        <v>4.841491076866828</v>
+        <v>3.540856079664948</v>
       </c>
       <c r="F19" t="n">
-        <v>4.642959005871885</v>
+        <v>3.395741149883734</v>
       </c>
       <c r="G19" t="n">
-        <v>4.81650839392251</v>
+        <v>3.522615736411562</v>
       </c>
       <c r="H19" t="n">
-        <v>4.893548302243908</v>
+        <v>3.579078894465343</v>
       </c>
       <c r="I19" t="n">
-        <v>4.970146681196939</v>
+        <v>3.635010418774015</v>
       </c>
       <c r="J19" t="n">
-        <v>5.203021953834718</v>
+        <v>3.805333150851427</v>
       </c>
       <c r="K19" t="n">
-        <v>5.284191290797176</v>
+        <v>3.864655465404848</v>
       </c>
       <c r="L19" t="n">
-        <v>4.523021564673903</v>
+        <v>3.308002958947632</v>
       </c>
       <c r="M19" t="n">
-        <v>4.7040865608958</v>
+        <v>3.440384329383824</v>
       </c>
       <c r="N19" t="n">
-        <v>4.643337116440879</v>
+        <v>3.396014521366678</v>
       </c>
       <c r="O19" t="n">
-        <v>5.208760394287167</v>
+        <v>3.809466049800519</v>
       </c>
       <c r="P19" t="n">
-        <v>4.212219000968938</v>
+        <v>3.080696679142608</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.026410686932496</v>
+        <v>3.676054792710715</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4.97319558802139</v>
+        <v>3.637183335548474</v>
       </c>
       <c r="B20" t="n">
-        <v>4.945176970279765</v>
+        <v>3.616675906423676</v>
       </c>
       <c r="C20" t="n">
-        <v>4.947408158948651</v>
+        <v>3.618344596876766</v>
       </c>
       <c r="D20" t="n">
-        <v>4.73124085727323</v>
+        <v>3.460231872075498</v>
       </c>
       <c r="E20" t="n">
-        <v>4.883405618353112</v>
+        <v>3.571511283118072</v>
       </c>
       <c r="F20" t="n">
-        <v>4.663298183543855</v>
+        <v>3.410592811155735</v>
       </c>
       <c r="G20" t="n">
-        <v>4.847246332910021</v>
+        <v>3.545046253102112</v>
       </c>
       <c r="H20" t="n">
-        <v>4.926022571087009</v>
+        <v>3.602810561029086</v>
       </c>
       <c r="I20" t="n">
-        <v>5.019661389253661</v>
+        <v>3.671135160149395</v>
       </c>
       <c r="J20" t="n">
-        <v>5.234389756806921</v>
+        <v>3.828357495056342</v>
       </c>
       <c r="K20" t="n">
-        <v>5.357180563531283</v>
+        <v>3.918041964455207</v>
       </c>
       <c r="L20" t="n">
-        <v>4.581221765572168</v>
+        <v>3.350593041307819</v>
       </c>
       <c r="M20" t="n">
-        <v>4.760007528580198</v>
+        <v>3.48128393590282</v>
       </c>
       <c r="N20" t="n">
-        <v>4.729420929909375</v>
+        <v>3.458946182800313</v>
       </c>
       <c r="O20" t="n">
-        <v>5.23839667185828</v>
+        <v>3.831027961984849</v>
       </c>
       <c r="P20" t="n">
-        <v>4.270281794468559</v>
+        <v>3.123063988340601</v>
       </c>
       <c r="Q20" t="n">
-        <v>5.01306967768236</v>
+        <v>3.666019810472394</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5.073215202206878</v>
+        <v>3.710501356447864</v>
       </c>
       <c r="B21" t="n">
-        <v>5.039416825704119</v>
+        <v>3.685785130892849</v>
       </c>
       <c r="C21" t="n">
-        <v>5.047831347311973</v>
+        <v>3.691909987344271</v>
       </c>
       <c r="D21" t="n">
-        <v>4.807103193797161</v>
+        <v>3.51584012933493</v>
       </c>
       <c r="E21" t="n">
-        <v>4.972362495611431</v>
+        <v>3.636665405515235</v>
       </c>
       <c r="F21" t="n">
-        <v>4.726358570612329</v>
+        <v>3.456792943150591</v>
       </c>
       <c r="G21" t="n">
-        <v>4.893772189823517</v>
+        <v>3.579114383565314</v>
       </c>
       <c r="H21" t="n">
-        <v>4.999756053822862</v>
+        <v>3.65677999489976</v>
       </c>
       <c r="I21" t="n">
-        <v>5.083238735626123</v>
+        <v>3.717671208773679</v>
       </c>
       <c r="J21" t="n">
-        <v>5.281039088201016</v>
+        <v>3.86250152300067</v>
       </c>
       <c r="K21" t="n">
-        <v>5.429644228943307</v>
+        <v>3.970914749999056</v>
       </c>
       <c r="L21" t="n">
-        <v>4.602389711645049</v>
+        <v>3.36604204386646</v>
       </c>
       <c r="M21" t="n">
-        <v>4.765950158348815</v>
+        <v>3.48559252346563</v>
       </c>
       <c r="N21" t="n">
-        <v>4.836892253021311</v>
+        <v>3.537521158399361</v>
       </c>
       <c r="O21" t="n">
-        <v>5.288166496448848</v>
+        <v>3.867640766329137</v>
       </c>
       <c r="P21" t="n">
-        <v>4.367054077858827</v>
+        <v>3.193885825416292</v>
       </c>
       <c r="Q21" t="n">
-        <v>5.046944925457087</v>
+        <v>3.691275400071523</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5.101555237954422</v>
+        <v>3.731055870121138</v>
       </c>
       <c r="B22" t="n">
-        <v>5.072664131275954</v>
+        <v>3.709923340908734</v>
       </c>
       <c r="C22" t="n">
-        <v>5.074690650183224</v>
+        <v>3.711397368377824</v>
       </c>
       <c r="D22" t="n">
-        <v>4.86355985815809</v>
+        <v>3.556972347578488</v>
       </c>
       <c r="E22" t="n">
-        <v>4.989135807154962</v>
+        <v>3.648857141175552</v>
       </c>
       <c r="F22" t="n">
-        <v>4.765788728677681</v>
+        <v>3.485577765622078</v>
       </c>
       <c r="G22" t="n">
-        <v>4.931455928678834</v>
+        <v>3.606712605139753</v>
       </c>
       <c r="H22" t="n">
-        <v>5.083826800856682</v>
+        <v>3.718184570902961</v>
       </c>
       <c r="I22" t="n">
-        <v>5.111958803724461</v>
+        <v>3.738650186137694</v>
       </c>
       <c r="J22" t="n">
-        <v>5.405255857020395</v>
+        <v>3.953272802163992</v>
       </c>
       <c r="K22" t="n">
-        <v>5.472705593718272</v>
+        <v>4.002458586460364</v>
       </c>
       <c r="L22" t="n">
-        <v>4.668904501497608</v>
+        <v>3.414643839210835</v>
       </c>
       <c r="M22" t="n">
-        <v>4.826967691364726</v>
+        <v>3.53023851398354</v>
       </c>
       <c r="N22" t="n">
-        <v>4.916617370961661</v>
+        <v>3.595829749651632</v>
       </c>
       <c r="O22" t="n">
-        <v>5.335327021801533</v>
+        <v>3.90205394922968</v>
       </c>
       <c r="P22" t="n">
-        <v>4.445616037365204</v>
+        <v>3.251373950842502</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.091831982941303</v>
+        <v>3.723904640788378</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5.124501312637024</v>
+        <v>3.747875595244004</v>
       </c>
       <c r="B23" t="n">
-        <v>5.097399865259074</v>
+        <v>3.728058270993889</v>
       </c>
       <c r="C23" t="n">
-        <v>5.098188756687651</v>
+        <v>3.728618366294421</v>
       </c>
       <c r="D23" t="n">
-        <v>4.865358165476703</v>
+        <v>3.5583736399615</v>
       </c>
       <c r="E23" t="n">
-        <v>5.018733168644641</v>
+        <v>3.670488977428142</v>
       </c>
       <c r="F23" t="n">
-        <v>4.755650849241382</v>
+        <v>3.478129271154907</v>
       </c>
       <c r="G23" t="n">
-        <v>4.996945928386963</v>
+        <v>3.654558236690687</v>
       </c>
       <c r="H23" t="n">
-        <v>5.01978630507061</v>
+        <v>3.671439452828354</v>
       </c>
       <c r="I23" t="n">
-        <v>5.164452754015413</v>
+        <v>3.777106315417107</v>
       </c>
       <c r="J23" t="n">
-        <v>5.351916322737789</v>
+        <v>3.914314203449347</v>
       </c>
       <c r="K23" t="n">
-        <v>5.559980911902279</v>
+        <v>4.066401160177329</v>
       </c>
       <c r="L23" t="n">
-        <v>4.651617113322788</v>
+        <v>3.401966851599429</v>
       </c>
       <c r="M23" t="n">
-        <v>4.861612132304588</v>
+        <v>3.55553907986778</v>
       </c>
       <c r="N23" t="n">
-        <v>4.964943937421019</v>
+        <v>3.631103455382164</v>
       </c>
       <c r="O23" t="n">
-        <v>5.406013519494735</v>
+        <v>3.953763676150719</v>
       </c>
       <c r="P23" t="n">
-        <v>4.576579701636169</v>
+        <v>3.34707751214733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5.154999509345084</v>
+        <v>3.770212294214829</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5.180755229018136</v>
+        <v>3.789002894206378</v>
       </c>
       <c r="B24" t="n">
-        <v>5.147397420992847</v>
+        <v>3.764613800850105</v>
       </c>
       <c r="C24" t="n">
-        <v>5.15125011305482</v>
+        <v>3.767399870886438</v>
       </c>
       <c r="D24" t="n">
-        <v>4.933872088845894</v>
+        <v>3.608443840739326</v>
       </c>
       <c r="E24" t="n">
-        <v>5.076764733190024</v>
+        <v>3.712901965665701</v>
       </c>
       <c r="F24" t="n">
-        <v>4.833449380928021</v>
+        <v>3.53496770008759</v>
       </c>
       <c r="G24" t="n">
-        <v>5.064783384562832</v>
+        <v>3.704187107670855</v>
       </c>
       <c r="H24" t="n">
-        <v>5.144186604051812</v>
+        <v>3.762193163130304</v>
       </c>
       <c r="I24" t="n">
-        <v>5.263043042987737</v>
+        <v>3.849129511233398</v>
       </c>
       <c r="J24" t="n">
-        <v>5.46543357139005</v>
+        <v>3.997213929963667</v>
       </c>
       <c r="K24" t="n">
-        <v>5.627721798542737</v>
+        <v>4.11581323140817</v>
       </c>
       <c r="L24" t="n">
-        <v>4.705919940732249</v>
+        <v>3.441705859136208</v>
       </c>
       <c r="M24" t="n">
-        <v>4.920391269969866</v>
+        <v>3.598608792143416</v>
       </c>
       <c r="N24" t="n">
-        <v>4.950919254295813</v>
+        <v>3.620816887049</v>
       </c>
       <c r="O24" t="n">
-        <v>5.484877198743587</v>
+        <v>4.011496008749996</v>
       </c>
       <c r="P24" t="n">
-        <v>4.517007348533266</v>
+        <v>3.303463867923625</v>
       </c>
       <c r="Q24" t="n">
-        <v>5.29025979727364</v>
+        <v>3.869073682662617</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5.257195060972731</v>
+        <v>3.844819166784451</v>
       </c>
       <c r="B25" t="n">
-        <v>5.217947472178305</v>
+        <v>3.816098646345584</v>
       </c>
       <c r="C25" t="n">
-        <v>5.225713872874374</v>
+        <v>3.821826797907232</v>
       </c>
       <c r="D25" t="n">
-        <v>5.056145936266269</v>
+        <v>3.697846856979015</v>
       </c>
       <c r="E25" t="n">
-        <v>5.145053327643257</v>
+        <v>3.762828453157506</v>
       </c>
       <c r="F25" t="n">
-        <v>4.95576070309348</v>
+        <v>3.624439234886629</v>
       </c>
       <c r="G25" t="n">
-        <v>5.153226665635311</v>
+        <v>3.768851410212972</v>
       </c>
       <c r="H25" t="n">
-        <v>5.282467932968731</v>
+        <v>3.863296338289128</v>
       </c>
       <c r="I25" t="n">
-        <v>5.33833989521725</v>
+        <v>3.904243029356601</v>
       </c>
       <c r="J25" t="n">
-        <v>5.532686325453508</v>
+        <v>4.046445393299606</v>
       </c>
       <c r="K25" t="n">
-        <v>5.683886832515635</v>
+        <v>4.156897662348797</v>
       </c>
       <c r="L25" t="n">
-        <v>4.798586337308499</v>
+        <v>3.509525529180693</v>
       </c>
       <c r="M25" t="n">
-        <v>5.001925745474174</v>
+        <v>3.65821431674215</v>
       </c>
       <c r="N25" t="n">
-        <v>4.961710539543843</v>
+        <v>3.628876075137452</v>
       </c>
       <c r="O25" t="n">
-        <v>5.574695514693403</v>
+        <v>4.077085838909177</v>
       </c>
       <c r="P25" t="n">
-        <v>4.488792709048121</v>
+        <v>3.283124045736314</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.473188921840774</v>
+        <v>4.002841939015496</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5.341520444094947</v>
+        <v>3.906619042168518</v>
       </c>
       <c r="B26" t="n">
-        <v>5.306281211688229</v>
+        <v>3.880848333553969</v>
       </c>
       <c r="C26" t="n">
-        <v>5.315302535899185</v>
+        <v>3.887442278604017</v>
       </c>
       <c r="D26" t="n">
-        <v>5.097284558351121</v>
+        <v>3.72797183219594</v>
       </c>
       <c r="E26" t="n">
-        <v>5.242703865315766</v>
+        <v>3.834352693310841</v>
       </c>
       <c r="F26" t="n">
-        <v>4.998553018416555</v>
+        <v>3.655818626805497</v>
       </c>
       <c r="G26" t="n">
-        <v>5.202732725673936</v>
+        <v>3.80504502152493</v>
       </c>
       <c r="H26" t="n">
-        <v>5.359893158540872</v>
+        <v>3.920011785192208</v>
       </c>
       <c r="I26" t="n">
-        <v>5.407404889517365</v>
+        <v>3.954723287358844</v>
       </c>
       <c r="J26" t="n">
-        <v>5.599595561020355</v>
+        <v>4.095377131860541</v>
       </c>
       <c r="K26" t="n">
-        <v>5.747822110748201</v>
+        <v>4.203689513594653</v>
       </c>
       <c r="L26" t="n">
-        <v>4.810332748110739</v>
+        <v>3.518044670059858</v>
       </c>
       <c r="M26" t="n">
-        <v>5.036398186943006</v>
+        <v>3.683292812218651</v>
       </c>
       <c r="N26" t="n">
-        <v>4.953078376147229</v>
+        <v>3.622378407447721</v>
       </c>
       <c r="O26" t="n">
-        <v>5.621576901239753</v>
+        <v>4.111222136554502</v>
       </c>
       <c r="P26" t="n">
-        <v>4.468945507516749</v>
+        <v>3.26819332458814</v>
       </c>
       <c r="Q26" t="n">
-        <v>5.677912012901882</v>
+        <v>4.152307270249584</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5.520994685432545</v>
+        <v>4.037790972187878</v>
       </c>
       <c r="B27" t="n">
-        <v>5.48682204192439</v>
+        <v>4.012804186167736</v>
       </c>
       <c r="C27" t="n">
-        <v>5.501026892093273</v>
+        <v>4.0231880859929</v>
       </c>
       <c r="D27" t="n">
-        <v>5.286153910459622</v>
+        <v>3.866031458627484</v>
       </c>
       <c r="E27" t="n">
-        <v>5.378680977855429</v>
+        <v>3.93377839358589</v>
       </c>
       <c r="F27" t="n">
-        <v>5.179957209126013</v>
+        <v>3.788421013517746</v>
       </c>
       <c r="G27" t="n">
-        <v>5.310193959431427</v>
+        <v>3.883712409334793</v>
       </c>
       <c r="H27" t="n">
-        <v>5.538643849031067</v>
+        <v>4.050658054879325</v>
       </c>
       <c r="I27" t="n">
-        <v>5.568049512786275</v>
+        <v>4.072323271968521</v>
       </c>
       <c r="J27" t="n">
-        <v>5.771957287919067</v>
+        <v>4.221056333060635</v>
       </c>
       <c r="K27" t="n">
-        <v>5.943261073937312</v>
+        <v>4.346726398452816</v>
       </c>
       <c r="L27" t="n">
-        <v>4.944160347707981</v>
+        <v>3.615966124424257</v>
       </c>
       <c r="M27" t="n">
-        <v>5.134343237676244</v>
+        <v>3.75505879990446</v>
       </c>
       <c r="N27" t="n">
-        <v>4.902711357862556</v>
+        <v>3.585724491967824</v>
       </c>
       <c r="O27" t="n">
-        <v>5.726290947915269</v>
+        <v>4.187956246859017</v>
       </c>
       <c r="P27" t="n">
-        <v>4.500656348540113</v>
+        <v>3.291676216074858</v>
       </c>
       <c r="Q27" t="n">
-        <v>5.872873413313888</v>
+        <v>4.295125598472282</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5.585361403679035</v>
+        <v>4.084958797067089</v>
       </c>
       <c r="B28" t="n">
-        <v>5.551216626006968</v>
+        <v>4.059981146854862</v>
       </c>
       <c r="C28" t="n">
-        <v>5.555701584280881</v>
+        <v>4.063279173511568</v>
       </c>
       <c r="D28" t="n">
-        <v>5.302284385991316</v>
+        <v>3.877899927238561</v>
       </c>
       <c r="E28" t="n">
-        <v>5.436492017939353</v>
+        <v>3.976076130092851</v>
       </c>
       <c r="F28" t="n">
-        <v>5.137727495424658</v>
+        <v>3.75753987450738</v>
       </c>
       <c r="G28" t="n">
-        <v>5.44148000259921</v>
+        <v>3.979692153140386</v>
       </c>
       <c r="H28" t="n">
-        <v>4.86094767624751</v>
+        <v>3.555008851631581</v>
       </c>
       <c r="I28" t="n">
-        <v>5.763449559893951</v>
+        <v>4.215228741743624</v>
       </c>
       <c r="J28" t="n">
-        <v>5.003414645923114</v>
+        <v>3.658990860414781</v>
       </c>
       <c r="K28" t="n">
-        <v>6.135179332870264</v>
+        <v>4.486975456388508</v>
       </c>
       <c r="L28" t="n">
-        <v>5.001918538792427</v>
+        <v>3.658221344286698</v>
       </c>
       <c r="M28" t="n">
-        <v>5.25851676640514</v>
+        <v>3.845858540623204</v>
       </c>
       <c r="N28" t="n">
-        <v>4.878548795301051</v>
+        <v>3.568015782459547</v>
       </c>
       <c r="O28" t="n">
-        <v>5.826560874180105</v>
+        <v>4.261335758773209</v>
       </c>
       <c r="P28" t="n">
-        <v>4.528772016262598</v>
+        <v>3.312195592025388</v>
       </c>
       <c r="Q28" t="n">
-        <v>6.083353682199989</v>
+        <v>4.449082233427447</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5.505622352820641</v>
+        <v>4.026313586430936</v>
       </c>
       <c r="B29" t="n">
-        <v>5.505022276453837</v>
+        <v>4.025903177829291</v>
       </c>
       <c r="C29" t="n">
-        <v>5.507500414083922</v>
+        <v>4.02772401462186</v>
       </c>
       <c r="D29" t="n">
-        <v>5.476832620132082</v>
+        <v>4.005503621513316</v>
       </c>
       <c r="E29" t="n">
-        <v>5.632541627295163</v>
+        <v>4.119332977095388</v>
       </c>
       <c r="F29" t="n">
-        <v>5.345369292593321</v>
+        <v>3.909370677236562</v>
       </c>
       <c r="G29" t="n">
-        <v>5.667911540864227</v>
+        <v>4.145223153967264</v>
       </c>
       <c r="H29" t="n">
-        <v>5.092161568519868</v>
+        <v>3.724190310474283</v>
       </c>
       <c r="I29" t="n">
-        <v>6.032237649459073</v>
+        <v>4.411685155111524</v>
       </c>
       <c r="J29" t="n">
-        <v>5.11555061390719</v>
+        <v>3.741284812589003</v>
       </c>
       <c r="K29" t="n">
-        <v>6.369493539630204</v>
+        <v>4.658274665780961</v>
       </c>
       <c r="L29" t="n">
-        <v>5.153220419844463</v>
+        <v>3.768904819551543</v>
       </c>
       <c r="M29" t="n">
-        <v>5.426763958471737</v>
+        <v>3.968898547468033</v>
       </c>
       <c r="N29" t="n">
-        <v>4.95234089238178</v>
+        <v>3.622050221117297</v>
       </c>
       <c r="O29" t="n">
-        <v>5.921483442588631</v>
+        <v>4.3306245370056</v>
       </c>
       <c r="P29" t="n">
-        <v>4.535818709674862</v>
+        <v>3.317432869600309</v>
       </c>
       <c r="Q29" t="n">
-        <v>6.314399418564917</v>
+        <v>4.617890178277386</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5.662678048579521</v>
+        <v>4.141446902904018</v>
       </c>
       <c r="B30" t="n">
-        <v>5.653580333542047</v>
+        <v>4.134803413664902</v>
       </c>
       <c r="C30" t="n">
-        <v>5.668502008322036</v>
+        <v>4.145708405918352</v>
       </c>
       <c r="D30" t="n">
-        <v>5.588537628547685</v>
+        <v>4.087216044376133</v>
       </c>
       <c r="E30" t="n">
-        <v>5.758954992711042</v>
+        <v>4.211839357007784</v>
       </c>
       <c r="F30" t="n">
-        <v>5.434429465623348</v>
+        <v>3.974546585021825</v>
       </c>
       <c r="G30" t="n">
-        <v>5.791310591528041</v>
+        <v>4.235449095673607</v>
       </c>
       <c r="H30" t="n">
-        <v>5.169427286202676</v>
+        <v>3.780817561693276</v>
       </c>
       <c r="I30" t="n">
-        <v>6.18238886365883</v>
+        <v>4.521384774139549</v>
       </c>
       <c r="J30" t="n">
-        <v>5.08444129058698</v>
+        <v>3.718756613029226</v>
       </c>
       <c r="K30" t="n">
-        <v>6.495827631546865</v>
+        <v>4.750841482576477</v>
       </c>
       <c r="L30" t="n">
-        <v>5.20624045790295</v>
+        <v>3.807703893004931</v>
       </c>
       <c r="M30" t="n">
-        <v>5.483031807770893</v>
+        <v>4.010042712537324</v>
       </c>
       <c r="N30" t="n">
-        <v>5.066533647336464</v>
+        <v>3.705617564363743</v>
       </c>
       <c r="O30" t="n">
-        <v>6.001652492124598</v>
+        <v>4.389157658306202</v>
       </c>
       <c r="P30" t="n">
-        <v>4.669178835849446</v>
+        <v>3.41502402937092</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.311371170894807</v>
+        <v>4.615516625106061</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5.652281689491229</v>
+        <v>4.1338543437736</v>
       </c>
       <c r="B31" t="n">
-        <v>5.650892721695848</v>
+        <v>4.132828322269489</v>
       </c>
       <c r="C31" t="n">
-        <v>5.659010328015723</v>
+        <v>4.138775381843829</v>
       </c>
       <c r="D31" t="n">
-        <v>5.653208949209349</v>
+        <v>4.134473821825568</v>
       </c>
       <c r="E31" t="n">
-        <v>5.854218677388928</v>
+        <v>4.281515704322037</v>
       </c>
       <c r="F31" t="n">
-        <v>5.532985162523285</v>
+        <v>4.046547292695561</v>
       </c>
       <c r="G31" t="n">
-        <v>5.914219587833055</v>
+        <v>4.325366528174261</v>
       </c>
       <c r="H31" t="n">
-        <v>5.168685958873629</v>
+        <v>3.780144322925511</v>
       </c>
       <c r="I31" t="n">
-        <v>6.370995412106288</v>
+        <v>4.659383260933519</v>
       </c>
       <c r="J31" t="n">
-        <v>4.920980776536774</v>
+        <v>3.598972818951039</v>
       </c>
       <c r="K31" t="n">
-        <v>6.775523754604319</v>
+        <v>4.955068251951879</v>
       </c>
       <c r="L31" t="n">
-        <v>5.371811568814142</v>
+        <v>3.92873964414447</v>
       </c>
       <c r="M31" t="n">
-        <v>5.65953065043786</v>
+        <v>4.13917524912865</v>
       </c>
       <c r="N31" t="n">
-        <v>5.166858824828028</v>
+        <v>3.778861796045372</v>
       </c>
       <c r="O31" t="n">
-        <v>6.162868845478774</v>
+        <v>4.507269599536253</v>
       </c>
       <c r="P31" t="n">
-        <v>4.72127689908976</v>
+        <v>3.45289406143497</v>
       </c>
       <c r="Q31" t="n">
-        <v>6.476355177466339</v>
+        <v>4.7365523762456</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6.222428226554532</v>
+        <v>4.550803129752103</v>
       </c>
       <c r="B32" t="n">
-        <v>6.182165456524672</v>
+        <v>4.521361231865312</v>
       </c>
       <c r="C32" t="n">
-        <v>6.199516263498865</v>
+        <v>4.534037516722262</v>
       </c>
       <c r="D32" t="n">
-        <v>5.922703774031131</v>
+        <v>4.33159855468005</v>
       </c>
       <c r="E32" t="n">
-        <v>6.146596158093939</v>
+        <v>4.495295366379717</v>
       </c>
       <c r="F32" t="n">
-        <v>5.756868418122546</v>
+        <v>4.210368491933741</v>
       </c>
       <c r="G32" t="n">
-        <v>6.099451967886545</v>
+        <v>4.460821746596055</v>
       </c>
       <c r="H32" t="n">
-        <v>5.596945423919241</v>
+        <v>4.093357064180017</v>
       </c>
       <c r="I32" t="n">
-        <v>6.179760346602956</v>
+        <v>4.519530556510374</v>
       </c>
       <c r="J32" t="n">
-        <v>5.796554173167194</v>
+        <v>4.239338841581313</v>
       </c>
       <c r="K32" t="n">
-        <v>6.499190749695487</v>
+        <v>4.753234712872538</v>
       </c>
       <c r="L32" t="n">
-        <v>5.648466472174341</v>
+        <v>4.13099518727396</v>
       </c>
       <c r="M32" t="n">
-        <v>5.911367663643023</v>
+        <v>4.323187286609707</v>
       </c>
       <c r="N32" t="n">
-        <v>5.836992786231683</v>
+        <v>4.268964861135281</v>
       </c>
       <c r="O32" t="n">
-        <v>6.373699359097781</v>
+        <v>4.66134499999429</v>
       </c>
       <c r="P32" t="n">
-        <v>5.333241408103937</v>
+        <v>3.900447803923074</v>
       </c>
       <c r="Q32" t="n">
-        <v>6.527081568947465</v>
+        <v>4.773380223453077</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6.207607925764452</v>
+        <v>4.539948033064949</v>
       </c>
       <c r="B33" t="n">
-        <v>6.174316419211236</v>
+        <v>4.51560075359874</v>
       </c>
       <c r="C33" t="n">
-        <v>6.18102007457234</v>
+        <v>4.520515818256102</v>
       </c>
       <c r="D33" t="n">
-        <v>5.905356810620535</v>
+        <v>4.31897567916167</v>
       </c>
       <c r="E33" t="n">
-        <v>6.110944703491289</v>
+        <v>4.469270612029733</v>
       </c>
       <c r="F33" t="n">
-        <v>5.747619843213834</v>
+        <v>4.203674052996646</v>
       </c>
       <c r="G33" t="n">
-        <v>6.044693678190671</v>
+        <v>4.420827639192159</v>
       </c>
       <c r="H33" t="n">
-        <v>5.638870054759971</v>
+        <v>4.124296883187364</v>
       </c>
       <c r="I33" t="n">
-        <v>6.078673663073455</v>
+        <v>4.44570479551734</v>
       </c>
       <c r="J33" t="n">
-        <v>5.984137853252022</v>
+        <v>4.376647926255056</v>
       </c>
       <c r="K33" t="n">
-        <v>6.354418602751728</v>
+        <v>4.647287099879065</v>
       </c>
       <c r="L33" t="n">
-        <v>5.652418135998973</v>
+        <v>4.133997354305166</v>
       </c>
       <c r="M33" t="n">
-        <v>5.89137728936761</v>
+        <v>4.308693327355235</v>
       </c>
       <c r="N33" t="n">
-        <v>5.847436228974056</v>
+        <v>4.276634723255735</v>
       </c>
       <c r="O33" t="n">
-        <v>6.33067787129515</v>
+        <v>4.62995085023187</v>
       </c>
       <c r="P33" t="n">
-        <v>5.396700564895749</v>
+        <v>3.946997204882</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.513387432291724</v>
+        <v>4.763489657255232</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6.143556860178483</v>
+        <v>4.493144586370587</v>
       </c>
       <c r="B34" t="n">
-        <v>6.123714943547059</v>
+        <v>4.478628138973558</v>
       </c>
       <c r="C34" t="n">
-        <v>6.130561771652205</v>
+        <v>4.483640535122921</v>
       </c>
       <c r="D34" t="n">
-        <v>5.862367512663041</v>
+        <v>4.287512308085445</v>
       </c>
       <c r="E34" t="n">
-        <v>6.087767054101881</v>
+        <v>4.452353555414868</v>
       </c>
       <c r="F34" t="n">
-        <v>5.719199092630723</v>
+        <v>4.18281840903946</v>
       </c>
       <c r="G34" t="n">
-        <v>5.933265406354155</v>
+        <v>4.339394561225154</v>
       </c>
       <c r="H34" t="n">
-        <v>5.746762728531385</v>
+        <v>4.202888724893328</v>
       </c>
       <c r="I34" t="n">
-        <v>5.943468626371627</v>
+        <v>4.34678191605475</v>
       </c>
       <c r="J34" t="n">
-        <v>6.012928066386031</v>
+        <v>4.397602658590378</v>
       </c>
       <c r="K34" t="n">
-        <v>6.180959538445665</v>
+        <v>4.520408296824507</v>
       </c>
       <c r="L34" t="n">
-        <v>5.657324925377814</v>
+        <v>4.137632351722982</v>
       </c>
       <c r="M34" t="n">
-        <v>5.838496580489567</v>
+        <v>4.270134595925412</v>
       </c>
       <c r="N34" t="n">
-        <v>5.89806797270157</v>
+        <v>4.313723995120425</v>
       </c>
       <c r="O34" t="n">
-        <v>6.238662958748834</v>
+        <v>4.562722548061157</v>
       </c>
       <c r="P34" t="n">
-        <v>5.517456204694745</v>
+        <v>4.035416013507644</v>
       </c>
       <c r="Q34" t="n">
-        <v>6.503520043643665</v>
+        <v>4.756293803014588</v>
       </c>
     </row>
   </sheetData>
@@ -2312,1751 +2312,1751 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.345590537722955</v>
+        <v>2.446898599647551</v>
       </c>
       <c r="B2" t="n">
-        <v>3.297394892648668</v>
+        <v>2.411640354515026</v>
       </c>
       <c r="C2" t="n">
-        <v>3.301128674461814</v>
+        <v>2.414371609703879</v>
       </c>
       <c r="D2" t="n">
-        <v>3.288546528799642</v>
+        <v>2.405139173053021</v>
       </c>
       <c r="E2" t="n">
-        <v>3.299487713028011</v>
+        <v>2.413140032521719</v>
       </c>
       <c r="F2" t="n">
-        <v>3.514663375295039</v>
+        <v>2.570482714129063</v>
       </c>
       <c r="G2" t="n">
-        <v>3.555297529657597</v>
+        <v>2.600219768886899</v>
       </c>
       <c r="H2" t="n">
-        <v>3.925699591633379</v>
+        <v>2.871038320585514</v>
       </c>
       <c r="I2" t="n">
-        <v>3.828059623760766</v>
+        <v>2.79965726665236</v>
       </c>
       <c r="J2" t="n">
-        <v>4.03162291950605</v>
+        <v>2.948329363795513</v>
       </c>
       <c r="K2" t="n">
-        <v>3.954299788591991</v>
+        <v>2.891820526702166</v>
       </c>
       <c r="L2" t="n">
-        <v>4.132775904507623</v>
+        <v>3.02254937003773</v>
       </c>
       <c r="M2" t="n">
-        <v>4.178795371917027</v>
+        <v>3.056226066269569</v>
       </c>
       <c r="N2" t="n">
-        <v>4.49990685363842</v>
+        <v>3.290956595513071</v>
       </c>
       <c r="O2" t="n">
-        <v>4.563990589514975</v>
+        <v>3.33783980483806</v>
       </c>
       <c r="P2" t="n">
-        <v>4.860844860921252</v>
+        <v>3.554883058584159</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.087919715643556</v>
+        <v>3.720933043575959</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.379688231740941</v>
+        <v>2.471668410229751</v>
       </c>
       <c r="B3" t="n">
-        <v>3.339537645723609</v>
+        <v>2.442312424075067</v>
       </c>
       <c r="C3" t="n">
-        <v>3.332725169468124</v>
+        <v>2.437322867445488</v>
       </c>
       <c r="D3" t="n">
-        <v>3.344730540367808</v>
+        <v>2.44610835226305</v>
       </c>
       <c r="E3" t="n">
-        <v>3.360975842362004</v>
+        <v>2.458003701232025</v>
       </c>
       <c r="F3" t="n">
-        <v>3.588451388589445</v>
+        <v>2.624395224888892</v>
       </c>
       <c r="G3" t="n">
-        <v>3.617389578921993</v>
+        <v>2.645542687633463</v>
       </c>
       <c r="H3" t="n">
-        <v>3.956449781979861</v>
+        <v>2.893537707212641</v>
       </c>
       <c r="I3" t="n">
-        <v>3.88360007864892</v>
+        <v>2.840343060128462</v>
       </c>
       <c r="J3" t="n">
-        <v>3.990157354292606</v>
+        <v>2.918233904265693</v>
       </c>
       <c r="K3" t="n">
-        <v>4.038016207106581</v>
+        <v>2.953228967854869</v>
       </c>
       <c r="L3" t="n">
-        <v>4.172134476200955</v>
+        <v>3.05125021335186</v>
       </c>
       <c r="M3" t="n">
-        <v>4.211708767901247</v>
+        <v>3.080177343600459</v>
       </c>
       <c r="N3" t="n">
-        <v>4.554169804075547</v>
+        <v>3.330717739815177</v>
       </c>
       <c r="O3" t="n">
-        <v>4.617059633009341</v>
+        <v>3.376648014099362</v>
       </c>
       <c r="P3" t="n">
-        <v>4.883219205518588</v>
+        <v>3.571327864205351</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.096416873868776</v>
+        <v>3.727175260021344</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.377284563155575</v>
+        <v>2.470124283003787</v>
       </c>
       <c r="B4" t="n">
-        <v>3.330478606544844</v>
+        <v>2.435905938775856</v>
       </c>
       <c r="C4" t="n">
-        <v>3.335830288410202</v>
+        <v>2.439818875580574</v>
       </c>
       <c r="D4" t="n">
-        <v>3.338500363997484</v>
+        <v>2.441789223383417</v>
       </c>
       <c r="E4" t="n">
-        <v>3.352093847331492</v>
+        <v>2.451731442033694</v>
       </c>
       <c r="F4" t="n">
-        <v>3.582272379659525</v>
+        <v>2.620048161519678</v>
       </c>
       <c r="G4" t="n">
-        <v>3.607313917171445</v>
+        <v>2.638384430756154</v>
       </c>
       <c r="H4" t="n">
-        <v>3.96953759647795</v>
+        <v>2.903250827910631</v>
       </c>
       <c r="I4" t="n">
-        <v>3.889493222536207</v>
+        <v>2.844718233675871</v>
       </c>
       <c r="J4" t="n">
-        <v>4.008823380685636</v>
+        <v>2.932019135652429</v>
       </c>
       <c r="K4" t="n">
-        <v>4.052185984757628</v>
+        <v>2.963674007317607</v>
       </c>
       <c r="L4" t="n">
-        <v>4.178628176900495</v>
+        <v>3.056212362557699</v>
       </c>
       <c r="M4" t="n">
-        <v>4.213637275936757</v>
+        <v>3.081833384473361</v>
       </c>
       <c r="N4" t="n">
-        <v>4.558133479036424</v>
+        <v>3.333715690319654</v>
       </c>
       <c r="O4" t="n">
-        <v>4.600941649059342</v>
+        <v>3.365092973975158</v>
       </c>
       <c r="P4" t="n">
-        <v>4.894349685254181</v>
+        <v>3.579615096114409</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.09381862487624</v>
+        <v>3.72554697794941</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.342490223235375</v>
+        <v>2.444491314262393</v>
       </c>
       <c r="B5" t="n">
-        <v>3.301486846544643</v>
+        <v>2.414493361913186</v>
       </c>
       <c r="C5" t="n">
-        <v>3.299178546381063</v>
+        <v>2.412803061760609</v>
       </c>
       <c r="D5" t="n">
-        <v>3.320003214180059</v>
+        <v>2.428017871397165</v>
       </c>
       <c r="E5" t="n">
-        <v>3.329750731688392</v>
+        <v>2.435156978215578</v>
       </c>
       <c r="F5" t="n">
-        <v>3.572864537084203</v>
+        <v>2.612933124041344</v>
       </c>
       <c r="G5" t="n">
-        <v>3.58972096569055</v>
+        <v>2.625321982326252</v>
       </c>
       <c r="H5" t="n">
-        <v>3.955826404008741</v>
+        <v>2.893072308074903</v>
       </c>
       <c r="I5" t="n">
-        <v>3.889023106663574</v>
+        <v>2.844082767960054</v>
       </c>
       <c r="J5" t="n">
-        <v>4.025484508216638</v>
+        <v>2.943930999351094</v>
       </c>
       <c r="K5" t="n">
-        <v>4.057095176363718</v>
+        <v>2.967126991331612</v>
       </c>
       <c r="L5" t="n">
-        <v>4.185247754307884</v>
+        <v>3.060855812618255</v>
       </c>
       <c r="M5" t="n">
-        <v>4.217037388385015</v>
+        <v>3.084125066750693</v>
       </c>
       <c r="N5" t="n">
-        <v>4.551359198194198</v>
+        <v>3.328668156447548</v>
       </c>
       <c r="O5" t="n">
-        <v>4.599001610333036</v>
+        <v>3.363532507708118</v>
       </c>
       <c r="P5" t="n">
-        <v>4.88519479720818</v>
+        <v>3.572830353229864</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.078604839262771</v>
+        <v>3.71424879457846</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.374188572677043</v>
+        <v>2.467747567437415</v>
       </c>
       <c r="B6" t="n">
-        <v>3.330593192784622</v>
+        <v>2.435862719376882</v>
       </c>
       <c r="C6" t="n">
-        <v>3.328796807247808</v>
+        <v>2.43455875848587</v>
       </c>
       <c r="D6" t="n">
-        <v>3.339696192722044</v>
+        <v>2.442530629333305</v>
       </c>
       <c r="E6" t="n">
-        <v>3.347693927902194</v>
+        <v>2.448364721129024</v>
       </c>
       <c r="F6" t="n">
-        <v>3.589326760198986</v>
+        <v>2.625069869165568</v>
       </c>
       <c r="G6" t="n">
-        <v>3.592959888690398</v>
+        <v>2.627748417770306</v>
       </c>
       <c r="H6" t="n">
-        <v>3.902114764725263</v>
+        <v>2.853791320754087</v>
       </c>
       <c r="I6" t="n">
-        <v>3.941920871355086</v>
+        <v>2.882994282126222</v>
       </c>
       <c r="J6" t="n">
-        <v>4.030797514223288</v>
+        <v>2.947922468966144</v>
       </c>
       <c r="K6" t="n">
-        <v>4.052758195288344</v>
+        <v>2.964067549812334</v>
       </c>
       <c r="L6" t="n">
-        <v>4.176608864674972</v>
+        <v>3.054690547785678</v>
       </c>
       <c r="M6" t="n">
-        <v>4.202850314697775</v>
+        <v>3.073895772905601</v>
       </c>
       <c r="N6" t="n">
-        <v>4.544235633509965</v>
+        <v>3.323515209407212</v>
       </c>
       <c r="O6" t="n">
-        <v>4.568417894334911</v>
+        <v>3.341248515321409</v>
       </c>
       <c r="P6" t="n">
-        <v>4.870513345153092</v>
+        <v>3.562144268989106</v>
       </c>
       <c r="Q6" t="n">
-        <v>5.074442740331126</v>
+        <v>3.711261034013579</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3.371899250108731</v>
+        <v>2.465884389688941</v>
       </c>
       <c r="B7" t="n">
-        <v>3.330127160698313</v>
+        <v>2.435324585153065</v>
       </c>
       <c r="C7" t="n">
-        <v>3.324107899880453</v>
+        <v>2.430918841786869</v>
       </c>
       <c r="D7" t="n">
-        <v>3.327965156174198</v>
+        <v>2.433739698168718</v>
       </c>
       <c r="E7" t="n">
-        <v>3.342128207588948</v>
+        <v>2.444108137395875</v>
       </c>
       <c r="F7" t="n">
-        <v>3.575097167089439</v>
+        <v>2.614517132582622</v>
       </c>
       <c r="G7" t="n">
-        <v>3.591872880860218</v>
+        <v>2.626821660332946</v>
       </c>
       <c r="H7" t="n">
-        <v>3.960396641349994</v>
+        <v>2.896433758321162</v>
       </c>
       <c r="I7" t="n">
-        <v>3.89682313854113</v>
+        <v>2.849933901551304</v>
       </c>
       <c r="J7" t="n">
-        <v>4.036718043501213</v>
+        <v>2.952457694840649</v>
       </c>
       <c r="K7" t="n">
-        <v>4.068422638733728</v>
+        <v>2.975649294605824</v>
       </c>
       <c r="L7" t="n">
-        <v>4.154664999200659</v>
+        <v>3.038518762270203</v>
       </c>
       <c r="M7" t="n">
-        <v>4.193115048548412</v>
+        <v>3.066659158906574</v>
       </c>
       <c r="N7" t="n">
-        <v>4.522084215601337</v>
+        <v>3.307126272765181</v>
       </c>
       <c r="O7" t="n">
-        <v>4.566207364820367</v>
+        <v>3.339440679486255</v>
       </c>
       <c r="P7" t="n">
-        <v>4.836899940148508</v>
+        <v>3.537432962715275</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.122301833367826</v>
+        <v>3.746058272223709</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3.346010687268808</v>
+        <v>2.447242070887369</v>
       </c>
       <c r="B8" t="n">
-        <v>3.305025567505168</v>
+        <v>2.417271174584674</v>
       </c>
       <c r="C8" t="n">
-        <v>3.300388788469117</v>
+        <v>2.413880384339925</v>
       </c>
       <c r="D8" t="n">
-        <v>3.315897327366041</v>
+        <v>2.425221260044008</v>
       </c>
       <c r="E8" t="n">
-        <v>3.328066770386832</v>
+        <v>2.434121469526327</v>
       </c>
       <c r="F8" t="n">
-        <v>3.568948666445582</v>
+        <v>2.610261251603927</v>
       </c>
       <c r="G8" t="n">
-        <v>3.599662583160603</v>
+        <v>2.632741663860773</v>
       </c>
       <c r="H8" t="n">
-        <v>3.903198649660019</v>
+        <v>2.854600191131643</v>
       </c>
       <c r="I8" t="n">
-        <v>3.986665957208886</v>
+        <v>2.915658660565821</v>
       </c>
       <c r="J8" t="n">
-        <v>4.073538902328683</v>
+        <v>2.979302915016695</v>
       </c>
       <c r="K8" t="n">
-        <v>4.126218304563259</v>
+        <v>3.017832833513868</v>
       </c>
       <c r="L8" t="n">
-        <v>4.173064138146324</v>
+        <v>3.052007079899755</v>
       </c>
       <c r="M8" t="n">
-        <v>4.222548578139708</v>
+        <v>3.088194366421619</v>
       </c>
       <c r="N8" t="n">
-        <v>4.514510473530638</v>
+        <v>3.301691521188442</v>
       </c>
       <c r="O8" t="n">
-        <v>4.59147110835282</v>
+        <v>3.357950177695856</v>
       </c>
       <c r="P8" t="n">
-        <v>4.837911758265793</v>
+        <v>3.538280835965076</v>
       </c>
       <c r="Q8" t="n">
-        <v>5.123019618869831</v>
+        <v>3.746667911713309</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3.381942962236868</v>
+        <v>2.473439351456024</v>
       </c>
       <c r="B9" t="n">
-        <v>3.342499591921646</v>
+        <v>2.444587767311324</v>
       </c>
       <c r="C9" t="n">
-        <v>3.33573756243839</v>
+        <v>2.439639497505969</v>
       </c>
       <c r="D9" t="n">
-        <v>3.341032071295222</v>
+        <v>2.44350253874439</v>
       </c>
       <c r="E9" t="n">
-        <v>3.362009520747256</v>
+        <v>2.458846830889256</v>
       </c>
       <c r="F9" t="n">
-        <v>3.571299966476919</v>
+        <v>2.611897439663479</v>
       </c>
       <c r="G9" t="n">
-        <v>3.634117728593242</v>
+        <v>2.657864959933772</v>
       </c>
       <c r="H9" t="n">
-        <v>3.883351688351372</v>
+        <v>2.840107988763308</v>
       </c>
       <c r="I9" t="n">
-        <v>4.020256300831879</v>
+        <v>2.940285987682296</v>
       </c>
       <c r="J9" t="n">
-        <v>4.073752220108395</v>
+        <v>2.979387948305734</v>
       </c>
       <c r="K9" t="n">
-        <v>4.145234335466471</v>
+        <v>3.031658824658986</v>
       </c>
       <c r="L9" t="n">
-        <v>4.165471178257634</v>
+        <v>3.046495728087435</v>
       </c>
       <c r="M9" t="n">
-        <v>4.228698279897189</v>
+        <v>3.092747161157496</v>
       </c>
       <c r="N9" t="n">
-        <v>4.481918015106887</v>
+        <v>3.277842143253509</v>
       </c>
       <c r="O9" t="n">
-        <v>4.589993738594676</v>
+        <v>3.356876720266042</v>
       </c>
       <c r="P9" t="n">
-        <v>4.856964783468641</v>
+        <v>3.552035497533025</v>
       </c>
       <c r="Q9" t="n">
-        <v>5.11860336429524</v>
+        <v>3.743368479547693</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3.400680334779194</v>
+        <v>2.487106344405728</v>
       </c>
       <c r="B10" t="n">
-        <v>3.363446292864892</v>
+        <v>2.459866351914659</v>
       </c>
       <c r="C10" t="n">
-        <v>3.356182918554767</v>
+        <v>2.454561434223457</v>
       </c>
       <c r="D10" t="n">
-        <v>3.36875137152162</v>
+        <v>2.463743975308019</v>
       </c>
       <c r="E10" t="n">
-        <v>3.390923929030039</v>
+        <v>2.479948438905646</v>
       </c>
       <c r="F10" t="n">
-        <v>3.602982701441468</v>
+        <v>2.635056888412343</v>
       </c>
       <c r="G10" t="n">
-        <v>3.658146967542427</v>
+        <v>2.675399913403082</v>
       </c>
       <c r="H10" t="n">
-        <v>3.929617143831075</v>
+        <v>2.873942453370265</v>
       </c>
       <c r="I10" t="n">
-        <v>4.058600411957951</v>
+        <v>2.968240154388126</v>
       </c>
       <c r="J10" t="n">
-        <v>4.127590937213347</v>
+        <v>3.018656461734976</v>
       </c>
       <c r="K10" t="n">
-        <v>4.194337782218161</v>
+        <v>3.067451865931667</v>
       </c>
       <c r="L10" t="n">
-        <v>4.198649299684695</v>
+        <v>3.070668021694381</v>
       </c>
       <c r="M10" t="n">
-        <v>4.25382413558555</v>
+        <v>3.111024399019763</v>
       </c>
       <c r="N10" t="n">
-        <v>4.514327423814263</v>
+        <v>3.301607542031085</v>
       </c>
       <c r="O10" t="n">
-        <v>4.590047548485053</v>
+        <v>3.356995134391688</v>
       </c>
       <c r="P10" t="n">
-        <v>4.906029314138897</v>
+        <v>3.58804990645899</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.122669854582375</v>
+        <v>3.746432840348155</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3.402624697514548</v>
+        <v>2.48852186756645</v>
       </c>
       <c r="B11" t="n">
-        <v>3.364921500618514</v>
+        <v>2.460937525392495</v>
       </c>
       <c r="C11" t="n">
-        <v>3.358268532252363</v>
+        <v>2.456069896660836</v>
       </c>
       <c r="D11" t="n">
-        <v>3.377250211305914</v>
+        <v>2.4699566760663</v>
       </c>
       <c r="E11" t="n">
-        <v>3.396610961819361</v>
+        <v>2.484120340726984</v>
       </c>
       <c r="F11" t="n">
-        <v>3.62423544613624</v>
+        <v>2.650668930004514</v>
       </c>
       <c r="G11" t="n">
-        <v>3.667134420349171</v>
+        <v>2.682062728389707</v>
       </c>
       <c r="H11" t="n">
-        <v>3.940449987610513</v>
+        <v>2.882011480021086</v>
       </c>
       <c r="I11" t="n">
-        <v>4.049878885707673</v>
+        <v>2.96200215446947</v>
       </c>
       <c r="J11" t="n">
-        <v>4.130857966272009</v>
+        <v>3.021173025437867</v>
       </c>
       <c r="K11" t="n">
-        <v>4.202809957279992</v>
+        <v>3.073752410996807</v>
       </c>
       <c r="L11" t="n">
-        <v>4.200548500547768</v>
+        <v>3.072260814666345</v>
       </c>
       <c r="M11" t="n">
-        <v>4.247001329752893</v>
+        <v>3.10623407327814</v>
       </c>
       <c r="N11" t="n">
-        <v>4.518701879634722</v>
+        <v>3.304883431922463</v>
       </c>
       <c r="O11" t="n">
-        <v>4.576471120964514</v>
+        <v>3.3471309214859</v>
       </c>
       <c r="P11" t="n">
-        <v>4.888723188591534</v>
+        <v>3.575595692009779</v>
       </c>
       <c r="Q11" t="n">
-        <v>5.116155494728493</v>
+        <v>3.741797823341058</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3.449155358882542</v>
+        <v>2.522648853715248</v>
       </c>
       <c r="B12" t="n">
-        <v>3.40484099237449</v>
+        <v>2.49024871095068</v>
       </c>
       <c r="C12" t="n">
-        <v>3.412849777799985</v>
+        <v>2.496103709691432</v>
       </c>
       <c r="D12" t="n">
-        <v>3.414577940082927</v>
+        <v>2.497364978249311</v>
       </c>
       <c r="E12" t="n">
-        <v>3.438213453985998</v>
+        <v>2.514650629575755</v>
       </c>
       <c r="F12" t="n">
-        <v>3.643426118960456</v>
+        <v>2.664688354313336</v>
       </c>
       <c r="G12" t="n">
-        <v>3.697455092463529</v>
+        <v>2.704243415871551</v>
       </c>
       <c r="H12" t="n">
-        <v>3.939886665320619</v>
+        <v>2.881460520528468</v>
       </c>
       <c r="I12" t="n">
-        <v>4.065691306351597</v>
+        <v>2.973490432920462</v>
       </c>
       <c r="J12" t="n">
-        <v>4.154579960356044</v>
+        <v>3.038485030056369</v>
       </c>
       <c r="K12" t="n">
-        <v>4.229398769363002</v>
+        <v>3.093203248798707</v>
       </c>
       <c r="L12" t="n">
-        <v>4.238044865677661</v>
+        <v>3.099522065479674</v>
       </c>
       <c r="M12" t="n">
-        <v>4.290331743979748</v>
+        <v>3.137771233572126</v>
       </c>
       <c r="N12" t="n">
-        <v>4.53843569603994</v>
+        <v>3.319151104242467</v>
       </c>
       <c r="O12" t="n">
-        <v>4.61945417313116</v>
+        <v>3.378416847062271</v>
       </c>
       <c r="P12" t="n">
-        <v>4.884863289847815</v>
+        <v>3.572444189656913</v>
       </c>
       <c r="Q12" t="n">
-        <v>5.139266362200377</v>
+        <v>3.758448536017527</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3.471403106103855</v>
+        <v>2.538713117799128</v>
       </c>
       <c r="B13" t="n">
-        <v>3.427149996390654</v>
+        <v>2.506341436589982</v>
       </c>
       <c r="C13" t="n">
-        <v>3.438006141774407</v>
+        <v>2.514280102289425</v>
       </c>
       <c r="D13" t="n">
-        <v>3.444889243511014</v>
+        <v>2.519352935321906</v>
       </c>
       <c r="E13" t="n">
-        <v>3.478199727659497</v>
+        <v>2.543707945087118</v>
       </c>
       <c r="F13" t="n">
-        <v>3.681542018497871</v>
+        <v>2.692494239829188</v>
       </c>
       <c r="G13" t="n">
-        <v>3.752015438634084</v>
+        <v>2.744001749155838</v>
       </c>
       <c r="H13" t="n">
-        <v>3.939012975270151</v>
+        <v>2.880906574329416</v>
       </c>
       <c r="I13" t="n">
-        <v>4.130915619725985</v>
+        <v>3.021144915259672</v>
       </c>
       <c r="J13" t="n">
-        <v>4.18174194386067</v>
+        <v>3.058344870951003</v>
       </c>
       <c r="K13" t="n">
-        <v>4.275492225371676</v>
+        <v>3.126891189101825</v>
       </c>
       <c r="L13" t="n">
-        <v>4.279606279758341</v>
+        <v>3.129884220325117</v>
       </c>
       <c r="M13" t="n">
-        <v>4.334527440461699</v>
+        <v>3.170040312630861</v>
       </c>
       <c r="N13" t="n">
-        <v>4.56058375083042</v>
+        <v>3.335401949634115</v>
       </c>
       <c r="O13" t="n">
-        <v>4.632522769811258</v>
+        <v>3.388034744531626</v>
       </c>
       <c r="P13" t="n">
-        <v>4.886264268779442</v>
+        <v>3.573629736422279</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.152294121017242</v>
+        <v>3.768133546537322</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3.516461442390927</v>
+        <v>2.571773498374046</v>
       </c>
       <c r="B14" t="n">
-        <v>3.466153278673855</v>
+        <v>2.534983248529904</v>
       </c>
       <c r="C14" t="n">
-        <v>3.480254592848305</v>
+        <v>2.545295291712057</v>
       </c>
       <c r="D14" t="n">
-        <v>3.45986664996318</v>
+        <v>2.530398127089102</v>
       </c>
       <c r="E14" t="n">
-        <v>3.50253621147383</v>
+        <v>2.561614304285827</v>
       </c>
       <c r="F14" t="n">
-        <v>3.665985675278691</v>
+        <v>2.681115415384542</v>
       </c>
       <c r="G14" t="n">
-        <v>3.752728900127042</v>
+        <v>2.744618943255828</v>
       </c>
       <c r="H14" t="n">
-        <v>3.882497456341622</v>
+        <v>2.839352176347095</v>
       </c>
       <c r="I14" t="n">
-        <v>4.13302861881422</v>
+        <v>3.022764764278148</v>
       </c>
       <c r="J14" t="n">
-        <v>4.136550283961277</v>
+        <v>3.025207538763277</v>
       </c>
       <c r="K14" t="n">
-        <v>4.277655671232139</v>
+        <v>3.128522282191578</v>
       </c>
       <c r="L14" t="n">
-        <v>4.289101323182802</v>
+        <v>3.1368295426026</v>
       </c>
       <c r="M14" t="n">
-        <v>4.350121258425962</v>
+        <v>3.181480803778922</v>
       </c>
       <c r="N14" t="n">
-        <v>4.579761691850216</v>
+        <v>3.349412765200865</v>
       </c>
       <c r="O14" t="n">
-        <v>4.644608855546508</v>
+        <v>3.396864854257071</v>
       </c>
       <c r="P14" t="n">
-        <v>4.917036799839339</v>
+        <v>3.596158990113738</v>
       </c>
       <c r="Q14" t="n">
-        <v>5.157799545426538</v>
+        <v>3.772179655311238</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3.467172303472888</v>
+        <v>2.535721667773359</v>
       </c>
       <c r="B15" t="n">
-        <v>3.433611267022332</v>
+        <v>2.511163034904847</v>
       </c>
       <c r="C15" t="n">
-        <v>3.41631739283394</v>
+        <v>2.498520130884503</v>
       </c>
       <c r="D15" t="n">
-        <v>3.429177235966098</v>
+        <v>2.50793774333422</v>
       </c>
       <c r="E15" t="n">
-        <v>3.480601954908513</v>
+        <v>2.545542836968785</v>
       </c>
       <c r="F15" t="n">
-        <v>3.669486681271408</v>
+        <v>2.6837173637537</v>
       </c>
       <c r="G15" t="n">
-        <v>3.764657639977481</v>
+        <v>2.753357870590754</v>
       </c>
       <c r="H15" t="n">
-        <v>3.92202202193786</v>
+        <v>2.868459563113368</v>
       </c>
       <c r="I15" t="n">
-        <v>4.159504045771077</v>
+        <v>3.042187491901853</v>
       </c>
       <c r="J15" t="n">
-        <v>4.16367287093902</v>
+        <v>3.045237094858763</v>
       </c>
       <c r="K15" t="n">
-        <v>4.284608677781692</v>
+        <v>3.133642551149763</v>
       </c>
       <c r="L15" t="n">
-        <v>4.306462699956892</v>
+        <v>3.149622836076286</v>
       </c>
       <c r="M15" t="n">
-        <v>4.368668855015616</v>
+        <v>3.195136728345961</v>
       </c>
       <c r="N15" t="n">
-        <v>4.59403476527297</v>
+        <v>3.359868345980424</v>
       </c>
       <c r="O15" t="n">
-        <v>4.655337682886064</v>
+        <v>3.404749759240716</v>
       </c>
       <c r="P15" t="n">
-        <v>4.905448455590085</v>
+        <v>3.587690096178096</v>
       </c>
       <c r="Q15" t="n">
-        <v>5.148095027785962</v>
+        <v>3.765048805857669</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3.43858700032322</v>
+        <v>2.515035914705638</v>
       </c>
       <c r="B16" t="n">
-        <v>3.411385860514434</v>
+        <v>2.495140584711032</v>
       </c>
       <c r="C16" t="n">
-        <v>3.397022943792567</v>
+        <v>2.484638446448837</v>
       </c>
       <c r="D16" t="n">
-        <v>3.438617748832007</v>
+        <v>2.515040833986822</v>
       </c>
       <c r="E16" t="n">
-        <v>3.480919529350833</v>
+        <v>2.545971868563483</v>
       </c>
       <c r="F16" t="n">
-        <v>3.697386628986932</v>
+        <v>2.704263795750742</v>
       </c>
       <c r="G16" t="n">
-        <v>3.761750945006172</v>
+        <v>2.751347992849825</v>
       </c>
       <c r="H16" t="n">
-        <v>4.000983952281197</v>
+        <v>2.926212099903222</v>
       </c>
       <c r="I16" t="n">
-        <v>4.174976311036541</v>
+        <v>3.053483567009438</v>
       </c>
       <c r="J16" t="n">
-        <v>4.196976388628481</v>
+        <v>3.069503908939889</v>
       </c>
       <c r="K16" t="n">
-        <v>4.304133019970796</v>
+        <v>3.147874734369797</v>
       </c>
       <c r="L16" t="n">
-        <v>4.326542437085968</v>
+        <v>3.16432762166722</v>
       </c>
       <c r="M16" t="n">
-        <v>4.372229436244108</v>
+        <v>3.197738676715118</v>
       </c>
       <c r="N16" t="n">
-        <v>4.623569668854175</v>
+        <v>3.381452043552856</v>
       </c>
       <c r="O16" t="n">
-        <v>4.672537149543571</v>
+        <v>3.417246841711675</v>
       </c>
       <c r="P16" t="n">
-        <v>4.925156327941014</v>
+        <v>3.601981310772338</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.168071469143331</v>
+        <v>3.779577902834885</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.455015111811067</v>
+        <v>2.526886111700888</v>
       </c>
       <c r="B17" t="n">
-        <v>3.424514993321208</v>
+        <v>2.504570143986482</v>
       </c>
       <c r="C17" t="n">
-        <v>3.412697716815122</v>
+        <v>2.495931886227216</v>
       </c>
       <c r="D17" t="n">
-        <v>3.446349317232966</v>
+        <v>2.520532684363019</v>
       </c>
       <c r="E17" t="n">
-        <v>3.481831895260009</v>
+        <v>2.546475743507625</v>
       </c>
       <c r="F17" t="n">
-        <v>3.697510103467531</v>
+        <v>2.704241658985414</v>
       </c>
       <c r="G17" t="n">
-        <v>3.755868130696056</v>
+        <v>2.74693188385542</v>
       </c>
       <c r="H17" t="n">
-        <v>4.008991536593068</v>
+        <v>2.932052867866263</v>
       </c>
       <c r="I17" t="n">
-        <v>4.163938557272761</v>
+        <v>3.045368158564596</v>
       </c>
       <c r="J17" t="n">
-        <v>4.213219288395429</v>
+        <v>3.081327752643082</v>
       </c>
       <c r="K17" t="n">
-        <v>4.322889610331115</v>
+        <v>3.161542605762569</v>
       </c>
       <c r="L17" t="n">
-        <v>4.332158844394169</v>
+        <v>3.168432761815345</v>
       </c>
       <c r="M17" t="n">
-        <v>4.377333208257368</v>
+        <v>3.201475924906119</v>
       </c>
       <c r="N17" t="n">
-        <v>4.605424685551456</v>
+        <v>3.368274343392355</v>
       </c>
       <c r="O17" t="n">
-        <v>4.680057081723891</v>
+        <v>3.422815468012067</v>
       </c>
       <c r="P17" t="n">
-        <v>4.90780359918502</v>
+        <v>3.589409384951936</v>
       </c>
       <c r="Q17" t="n">
-        <v>5.173204067883579</v>
+        <v>3.783476433173278</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3.525132762091701</v>
+        <v>2.578127277089142</v>
       </c>
       <c r="B18" t="n">
-        <v>3.488835348581791</v>
+        <v>2.551585119771759</v>
       </c>
       <c r="C18" t="n">
-        <v>3.47498194425944</v>
+        <v>2.541453508795894</v>
       </c>
       <c r="D18" t="n">
-        <v>3.461282762926475</v>
+        <v>2.531437149550628</v>
       </c>
       <c r="E18" t="n">
-        <v>3.505884195590784</v>
+        <v>2.564064984758573</v>
       </c>
       <c r="F18" t="n">
-        <v>3.675966208830179</v>
+        <v>2.688401573572638</v>
       </c>
       <c r="G18" t="n">
-        <v>3.760900076114571</v>
+        <v>2.750556867022254</v>
       </c>
       <c r="H18" t="n">
-        <v>3.951064949378466</v>
+        <v>2.889499328737729</v>
       </c>
       <c r="I18" t="n">
-        <v>4.165580719820189</v>
+        <v>3.046535785091363</v>
       </c>
       <c r="J18" t="n">
-        <v>4.157765313688239</v>
+        <v>3.040743331497095</v>
       </c>
       <c r="K18" t="n">
-        <v>4.319412626610888</v>
+        <v>3.159023933796314</v>
       </c>
       <c r="L18" t="n">
-        <v>4.34404650615865</v>
+        <v>3.177050991072647</v>
       </c>
       <c r="M18" t="n">
-        <v>4.394330407380507</v>
+        <v>3.213818401397006</v>
       </c>
       <c r="N18" t="n">
-        <v>4.614432557289817</v>
+        <v>3.374777633117725</v>
       </c>
       <c r="O18" t="n">
-        <v>4.664215834352979</v>
+        <v>3.411137094481032</v>
       </c>
       <c r="P18" t="n">
-        <v>4.933728435656403</v>
+        <v>3.608402378226488</v>
       </c>
       <c r="Q18" t="n">
-        <v>5.160189761539309</v>
+        <v>3.773855021931649</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3.531060017605923</v>
+        <v>2.582381752558927</v>
       </c>
       <c r="B19" t="n">
-        <v>3.495162094487525</v>
+        <v>2.556130184208633</v>
       </c>
       <c r="C19" t="n">
-        <v>3.483587683156315</v>
+        <v>2.547657073746262</v>
       </c>
       <c r="D19" t="n">
-        <v>3.478089465428767</v>
+        <v>2.543630290719855</v>
       </c>
       <c r="E19" t="n">
-        <v>3.516102789862649</v>
+        <v>2.571456731803513</v>
       </c>
       <c r="F19" t="n">
-        <v>3.687457262875848</v>
+        <v>2.696747661167291</v>
       </c>
       <c r="G19" t="n">
-        <v>3.758747200054002</v>
+        <v>2.748960384589403</v>
       </c>
       <c r="H19" t="n">
-        <v>3.928911369465313</v>
+        <v>2.873377790165777</v>
       </c>
       <c r="I19" t="n">
-        <v>4.145525965854501</v>
+        <v>3.031850676625166</v>
       </c>
       <c r="J19" t="n">
-        <v>4.124744297923263</v>
+        <v>3.016653611538596</v>
       </c>
       <c r="K19" t="n">
-        <v>4.289588494868902</v>
+        <v>3.137270169645804</v>
       </c>
       <c r="L19" t="n">
-        <v>4.367410568382581</v>
+        <v>3.194131438098269</v>
       </c>
       <c r="M19" t="n">
-        <v>4.407643070349105</v>
+        <v>3.223581066284064</v>
       </c>
       <c r="N19" t="n">
-        <v>4.639679485231527</v>
+        <v>3.393281509291687</v>
       </c>
       <c r="O19" t="n">
-        <v>4.674748639949015</v>
+        <v>3.418944345097414</v>
       </c>
       <c r="P19" t="n">
-        <v>4.940582950888746</v>
+        <v>3.613431991859995</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.17205388147675</v>
+        <v>3.782604666272011</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3.474425828651292</v>
+        <v>2.541047141032366</v>
       </c>
       <c r="B20" t="n">
-        <v>3.436239543855481</v>
+        <v>2.513114584026023</v>
       </c>
       <c r="C20" t="n">
-        <v>3.426447344920316</v>
+        <v>2.505958786789305</v>
       </c>
       <c r="D20" t="n">
-        <v>3.435325015941781</v>
+        <v>2.51247173938843</v>
       </c>
       <c r="E20" t="n">
-        <v>3.468852661433575</v>
+        <v>2.536989963875786</v>
       </c>
       <c r="F20" t="n">
-        <v>3.669894099012841</v>
+        <v>2.684035008767301</v>
       </c>
       <c r="G20" t="n">
-        <v>3.751922712662272</v>
+        <v>2.744046374063723</v>
       </c>
       <c r="H20" t="n">
-        <v>3.915055803138438</v>
+        <v>2.863252152602779</v>
       </c>
       <c r="I20" t="n">
-        <v>4.140080116680982</v>
+        <v>3.027905413115524</v>
       </c>
       <c r="J20" t="n">
-        <v>4.122843175278391</v>
+        <v>3.015254778796177</v>
       </c>
       <c r="K20" t="n">
-        <v>4.280203953897896</v>
+        <v>3.130378256706891</v>
       </c>
       <c r="L20" t="n">
-        <v>4.345915919403835</v>
+        <v>3.178479690879398</v>
       </c>
       <c r="M20" t="n">
-        <v>4.396900310091504</v>
+        <v>3.215763274350859</v>
       </c>
       <c r="N20" t="n">
-        <v>4.609870247298486</v>
+        <v>3.37154250298473</v>
       </c>
       <c r="O20" t="n">
-        <v>4.681433557937577</v>
+        <v>3.423818298619167</v>
       </c>
       <c r="P20" t="n">
-        <v>4.924991535151731</v>
+        <v>3.601987284185205</v>
       </c>
       <c r="Q20" t="n">
-        <v>5.162760625141206</v>
+        <v>3.775754918600391</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3.517423774626883</v>
+        <v>2.572299158706289</v>
       </c>
       <c r="B21" t="n">
-        <v>3.465609894870128</v>
+        <v>2.534413490355618</v>
       </c>
       <c r="C21" t="n">
-        <v>3.486312529524874</v>
+        <v>2.549546604786794</v>
       </c>
       <c r="D21" t="n">
-        <v>3.45589744987963</v>
+        <v>2.527383661854936</v>
       </c>
       <c r="E21" t="n">
-        <v>3.520306927771153</v>
+        <v>2.574483143863412</v>
       </c>
       <c r="F21" t="n">
-        <v>3.626396489769455</v>
+        <v>2.652161931843886</v>
       </c>
       <c r="G21" t="n">
-        <v>3.794336677193627</v>
+        <v>2.775027655583907</v>
       </c>
       <c r="H21" t="n">
-        <v>3.701302980071003</v>
+        <v>2.706758222688304</v>
       </c>
       <c r="I21" t="n">
-        <v>4.162481366223508</v>
+        <v>3.044362516939676</v>
       </c>
       <c r="J21" t="n">
-        <v>3.940055782118949</v>
+        <v>2.881239855629639</v>
       </c>
       <c r="K21" t="n">
-        <v>4.221150001435331</v>
+        <v>3.087211564316483</v>
       </c>
       <c r="L21" t="n">
-        <v>4.297638358380356</v>
+        <v>3.143166630899393</v>
       </c>
       <c r="M21" t="n">
-        <v>4.395340784161443</v>
+        <v>3.214627271774561</v>
       </c>
       <c r="N21" t="n">
-        <v>4.567791393468368</v>
+        <v>3.340768182651505</v>
       </c>
       <c r="O21" t="n">
-        <v>4.668904021052159</v>
+        <v>3.414692329268221</v>
       </c>
       <c r="P21" t="n">
-        <v>4.878906727161155</v>
+        <v>3.568363645914708</v>
       </c>
       <c r="Q21" t="n">
-        <v>5.13100846580916</v>
+        <v>3.752659596195533</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3.524762098427178</v>
+        <v>2.577798388004263</v>
       </c>
       <c r="B22" t="n">
-        <v>3.472088701760724</v>
+        <v>2.539286565434302</v>
       </c>
       <c r="C22" t="n">
-        <v>3.492738487415993</v>
+        <v>2.554387001783327</v>
       </c>
       <c r="D22" t="n">
-        <v>3.447407738558882</v>
+        <v>2.521284807318344</v>
       </c>
       <c r="E22" t="n">
-        <v>3.510504399258817</v>
+        <v>2.5674362735672</v>
       </c>
       <c r="F22" t="n">
-        <v>3.577706706550045</v>
+        <v>2.616584284811623</v>
       </c>
       <c r="G22" t="n">
-        <v>3.765175079726919</v>
+        <v>2.7536927330885</v>
       </c>
       <c r="H22" t="n">
-        <v>3.519841376130293</v>
+        <v>2.574336619559571</v>
       </c>
       <c r="I22" t="n">
-        <v>4.155456292856485</v>
+        <v>3.039154403674633</v>
       </c>
       <c r="J22" t="n">
-        <v>3.58570276017112</v>
+        <v>2.622522559955277</v>
       </c>
       <c r="K22" t="n">
-        <v>4.253054942420414</v>
+        <v>3.110413002644026</v>
       </c>
       <c r="L22" t="n">
-        <v>4.291217685389185</v>
+        <v>3.138464852219083</v>
       </c>
       <c r="M22" t="n">
-        <v>4.384418337305616</v>
+        <v>3.206608140690036</v>
       </c>
       <c r="N22" t="n">
-        <v>4.602813944977225</v>
+        <v>3.366400448638444</v>
       </c>
       <c r="O22" t="n">
-        <v>4.642559755703098</v>
+        <v>3.39537993409393</v>
       </c>
       <c r="P22" t="n">
-        <v>4.949293426893679</v>
+        <v>3.619859384104239</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.098277639095864</v>
+        <v>3.728671424255763</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3.526974549723522</v>
+        <v>2.579411033789576</v>
       </c>
       <c r="B23" t="n">
-        <v>3.484701595931684</v>
+        <v>2.54850951490002</v>
       </c>
       <c r="C23" t="n">
-        <v>3.496612799523206</v>
+        <v>2.557220859122592</v>
       </c>
       <c r="D23" t="n">
-        <v>3.489919473739272</v>
+        <v>2.552364123084983</v>
       </c>
       <c r="E23" t="n">
-        <v>3.533944131641092</v>
+        <v>2.584566791847732</v>
       </c>
       <c r="F23" t="n">
-        <v>3.638916898191327</v>
+        <v>2.661340432090333</v>
       </c>
       <c r="G23" t="n">
-        <v>3.804720784922949</v>
+        <v>2.782603699984636</v>
       </c>
       <c r="H23" t="n">
-        <v>3.689272626007929</v>
+        <v>2.698131911754772</v>
       </c>
       <c r="I23" t="n">
-        <v>4.206906715630464</v>
+        <v>3.076694843899349</v>
       </c>
       <c r="J23" t="n">
-        <v>3.770471990811</v>
+        <v>2.757420494094359</v>
       </c>
       <c r="K23" t="n">
-        <v>4.330029510160641</v>
+        <v>3.166830130281013</v>
       </c>
       <c r="L23" t="n">
-        <v>4.308871172996755</v>
+        <v>3.151317528444206</v>
       </c>
       <c r="M23" t="n">
-        <v>4.397117951880265</v>
+        <v>3.21585638931613</v>
       </c>
       <c r="N23" t="n">
-        <v>4.592625618768698</v>
+        <v>3.358868677768371</v>
       </c>
       <c r="O23" t="n">
-        <v>4.622135058741063</v>
+        <v>3.380436914742796</v>
       </c>
       <c r="P23" t="n">
-        <v>4.944717664429753</v>
+        <v>3.616481946194132</v>
       </c>
       <c r="Q23" t="n">
-        <v>5.045142774574875</v>
+        <v>3.689890622418201</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3.473787797093954</v>
+        <v>2.540490735192722</v>
       </c>
       <c r="B24" t="n">
-        <v>3.431924903493523</v>
+        <v>2.509885778683121</v>
       </c>
       <c r="C24" t="n">
-        <v>3.444107798986909</v>
+        <v>2.518795299661966</v>
       </c>
       <c r="D24" t="n">
-        <v>3.446157619498494</v>
+        <v>2.520343994791887</v>
       </c>
       <c r="E24" t="n">
-        <v>3.487626307607361</v>
+        <v>2.550679620656659</v>
       </c>
       <c r="F24" t="n">
-        <v>3.622898606672162</v>
+        <v>2.649622177243985</v>
       </c>
       <c r="G24" t="n">
-        <v>3.769758529318043</v>
+        <v>2.757058926927328</v>
       </c>
       <c r="H24" t="n">
-        <v>3.671913891683813</v>
+        <v>2.685487953602745</v>
       </c>
       <c r="I24" t="n">
-        <v>4.231559332550768</v>
+        <v>3.094777418777617</v>
       </c>
       <c r="J24" t="n">
-        <v>3.673658148889324</v>
+        <v>2.686796482397714</v>
       </c>
       <c r="K24" t="n">
-        <v>4.380114987411728</v>
+        <v>3.203475964084679</v>
       </c>
       <c r="L24" t="n">
-        <v>4.329313165994984</v>
+        <v>3.166286198332943</v>
       </c>
       <c r="M24" t="n">
-        <v>4.392366826827161</v>
+        <v>3.21241640625954</v>
       </c>
       <c r="N24" t="n">
-        <v>4.672228703564797</v>
+        <v>3.41705569249995</v>
       </c>
       <c r="O24" t="n">
-        <v>4.589855370305132</v>
+        <v>3.356858097272988</v>
       </c>
       <c r="P24" t="n">
-        <v>5.032025652904347</v>
+        <v>3.680225289023142</v>
       </c>
       <c r="Q24" t="n">
-        <v>5.004935255771741</v>
+        <v>3.660321525975078</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3.192099026533441</v>
+        <v>2.334428722558427</v>
       </c>
       <c r="B25" t="n">
-        <v>3.156827844504311</v>
+        <v>2.308639566639438</v>
       </c>
       <c r="C25" t="n">
-        <v>3.141352216120699</v>
+        <v>2.297322233209593</v>
       </c>
       <c r="D25" t="n">
-        <v>3.165168857958345</v>
+        <v>2.314752300576513</v>
       </c>
       <c r="E25" t="n">
-        <v>3.215676886982535</v>
+        <v>2.351693291251225</v>
       </c>
       <c r="F25" t="n">
-        <v>3.430326461482028</v>
+        <v>2.508682663056383</v>
       </c>
       <c r="G25" t="n">
-        <v>3.577099183278769</v>
+        <v>2.616014878014564</v>
       </c>
       <c r="H25" t="n">
-        <v>3.569674379297509</v>
+        <v>2.610693621282286</v>
       </c>
       <c r="I25" t="n">
-        <v>4.172183001191384</v>
+        <v>3.051247050956813</v>
       </c>
       <c r="J25" t="n">
-        <v>3.640844685558663</v>
+        <v>2.662754198364919</v>
       </c>
       <c r="K25" t="n">
-        <v>4.304942570553715</v>
+        <v>3.148434829670328</v>
       </c>
       <c r="L25" t="n">
-        <v>4.279459263450701</v>
+        <v>3.129683935305479</v>
       </c>
       <c r="M25" t="n">
-        <v>4.317855983353526</v>
+        <v>3.157766003322096</v>
       </c>
       <c r="N25" t="n">
-        <v>4.669521393455156</v>
+        <v>3.415000838473909</v>
       </c>
       <c r="O25" t="n">
-        <v>4.503360775977055</v>
+        <v>3.293525514422849</v>
       </c>
       <c r="P25" t="n">
-        <v>5.093897898375458</v>
+        <v>3.725466512564327</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.065110567914147</v>
+        <v>3.704389852331085</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3.567100633022914</v>
+        <v>2.608789332398201</v>
       </c>
       <c r="B26" t="n">
-        <v>3.51383028288508</v>
+        <v>2.569828274042965</v>
       </c>
       <c r="C26" t="n">
-        <v>3.538351017529413</v>
+        <v>2.587762040665413</v>
       </c>
       <c r="D26" t="n">
-        <v>3.493045732281142</v>
+        <v>2.554631208956395</v>
       </c>
       <c r="E26" t="n">
-        <v>3.564964812775813</v>
+        <v>2.607243272597487</v>
       </c>
       <c r="F26" t="n">
-        <v>3.65911506512378</v>
+        <v>2.676104600432704</v>
       </c>
       <c r="G26" t="n">
-        <v>3.781676699368587</v>
+        <v>2.765737417379135</v>
       </c>
       <c r="H26" t="n">
-        <v>3.607556061678145</v>
+        <v>2.638437313028883</v>
       </c>
       <c r="I26" t="n">
-        <v>4.172196453663979</v>
+        <v>3.051336300772582</v>
       </c>
       <c r="J26" t="n">
-        <v>3.626284065534201</v>
+        <v>2.652202164536428</v>
       </c>
       <c r="K26" t="n">
-        <v>4.296306563593501</v>
+        <v>3.142158529633881</v>
       </c>
       <c r="L26" t="n">
-        <v>4.436523126782228</v>
+        <v>3.24470516244301</v>
       </c>
       <c r="M26" t="n">
-        <v>4.459011817396617</v>
+        <v>3.261145400160246</v>
       </c>
       <c r="N26" t="n">
-        <v>4.687550589404473</v>
+        <v>3.428310305094698</v>
       </c>
       <c r="O26" t="n">
-        <v>4.496182920956994</v>
+        <v>3.288324428702354</v>
       </c>
       <c r="P26" t="n">
-        <v>5.067703532006735</v>
+        <v>3.70631258851961</v>
       </c>
       <c r="Q26" t="n">
-        <v>5.020449800236787</v>
+        <v>3.671777477721147</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3.609387519732795</v>
+        <v>2.639754977631765</v>
       </c>
       <c r="B27" t="n">
-        <v>3.573795880588647</v>
+        <v>2.613741643041672</v>
       </c>
       <c r="C27" t="n">
-        <v>3.550918749828091</v>
+        <v>2.597008356716756</v>
       </c>
       <c r="D27" t="n">
-        <v>3.52644077482879</v>
+        <v>2.579119215002191</v>
       </c>
       <c r="E27" t="n">
-        <v>3.597605796189995</v>
+        <v>2.6311871710066</v>
       </c>
       <c r="F27" t="n">
-        <v>3.69980663271759</v>
+        <v>2.70586906261428</v>
       </c>
       <c r="G27" t="n">
-        <v>3.849322217587258</v>
+        <v>2.815302162015296</v>
       </c>
       <c r="H27" t="n">
-        <v>3.617561097947573</v>
+        <v>2.645617179605679</v>
       </c>
       <c r="I27" t="n">
-        <v>4.169739455633685</v>
+        <v>3.049611389963103</v>
       </c>
       <c r="J27" t="n">
-        <v>3.720107134530852</v>
+        <v>2.720528696231488</v>
       </c>
       <c r="K27" t="n">
-        <v>4.278077021891617</v>
+        <v>3.128936204565497</v>
       </c>
       <c r="L27" t="n">
-        <v>4.425682836098317</v>
+        <v>3.236758063690109</v>
       </c>
       <c r="M27" t="n">
-        <v>4.466705670829766</v>
+        <v>3.266788518432854</v>
       </c>
       <c r="N27" t="n">
-        <v>4.705797427142549</v>
+        <v>3.441503114475978</v>
       </c>
       <c r="O27" t="n">
-        <v>4.561697423383064</v>
+        <v>3.336208008993852</v>
       </c>
       <c r="P27" t="n">
-        <v>5.053479944465311</v>
+        <v>3.695781461636151</v>
       </c>
       <c r="Q27" t="n">
-        <v>5.050213395852098</v>
+        <v>3.693375230382675</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3.631057771523446</v>
+        <v>2.655656554059342</v>
       </c>
       <c r="B28" t="n">
-        <v>3.596752525071145</v>
+        <v>2.630570855349679</v>
       </c>
       <c r="C28" t="n">
-        <v>3.58587475964215</v>
+        <v>2.622615323543319</v>
       </c>
       <c r="D28" t="n">
-        <v>3.593064145353006</v>
+        <v>2.627829585909844</v>
       </c>
       <c r="E28" t="n">
-        <v>3.638266615275018</v>
+        <v>2.660909292232271</v>
       </c>
       <c r="F28" t="n">
-        <v>3.816655770564236</v>
+        <v>2.791318557979483</v>
       </c>
       <c r="G28" t="n">
-        <v>3.855179808511259</v>
+        <v>2.819528175929658</v>
       </c>
       <c r="H28" t="n">
-        <v>4.044673739704504</v>
+        <v>2.958158438978557</v>
       </c>
       <c r="I28" t="n">
-        <v>4.148862659503386</v>
+        <v>3.034312074103349</v>
       </c>
       <c r="J28" t="n">
-        <v>4.181016951676916</v>
+        <v>3.057755611340595</v>
       </c>
       <c r="K28" t="n">
-        <v>4.27379673337932</v>
+        <v>3.125731292874061</v>
       </c>
       <c r="L28" t="n">
-        <v>4.462406644944927</v>
+        <v>3.263611365542385</v>
       </c>
       <c r="M28" t="n">
-        <v>4.473088869075853</v>
+        <v>3.271434428134002</v>
       </c>
       <c r="N28" t="n">
-        <v>4.710967500627882</v>
+        <v>3.445347532721346</v>
       </c>
       <c r="O28" t="n">
-        <v>4.612729858615714</v>
+        <v>3.373496863123724</v>
       </c>
       <c r="P28" t="n">
-        <v>5.019779578834312</v>
+        <v>3.671114077515749</v>
       </c>
       <c r="Q28" t="n">
-        <v>5.062573815939186</v>
+        <v>3.702385245248567</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3.57666750304212</v>
+        <v>2.615968671909156</v>
       </c>
       <c r="B29" t="n">
-        <v>3.559794499067756</v>
+        <v>2.603628655058861</v>
       </c>
       <c r="C29" t="n">
-        <v>3.566272825512903</v>
+        <v>2.608366098527756</v>
       </c>
       <c r="D29" t="n">
-        <v>3.628471533667155</v>
+        <v>2.6538629490019</v>
       </c>
       <c r="E29" t="n">
-        <v>3.672037125941688</v>
+        <v>2.685735674548087</v>
       </c>
       <c r="F29" t="n">
-        <v>3.80132355514739</v>
+        <v>2.780223294957377</v>
       </c>
       <c r="G29" t="n">
-        <v>3.900517043381942</v>
+        <v>2.852807815894496</v>
       </c>
       <c r="H29" t="n">
-        <v>3.627358581782686</v>
+        <v>2.652803546661183</v>
       </c>
       <c r="I29" t="n">
-        <v>4.170012348649173</v>
+        <v>3.04981589150947</v>
       </c>
       <c r="J29" t="n">
-        <v>3.509840663869914</v>
+        <v>2.567023053947736</v>
       </c>
       <c r="K29" t="n">
-        <v>4.254638971068416</v>
+        <v>3.111985064359571</v>
       </c>
       <c r="L29" t="n">
-        <v>4.464968380083278</v>
+        <v>3.265513019097265</v>
       </c>
       <c r="M29" t="n">
-        <v>4.481121916996562</v>
+        <v>3.277341782081641</v>
       </c>
       <c r="N29" t="n">
-        <v>4.730690266787755</v>
+        <v>3.459842897484728</v>
       </c>
       <c r="O29" t="n">
-        <v>4.693215521703102</v>
+        <v>3.432419310392324</v>
       </c>
       <c r="P29" t="n">
-        <v>5.05699824649422</v>
+        <v>3.698422764254781</v>
       </c>
       <c r="Q29" t="n">
-        <v>5.164267782517238</v>
+        <v>3.776882839500458</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3.618078057251561</v>
+        <v>2.646056752517201</v>
       </c>
       <c r="B30" t="n">
-        <v>3.59721687559838</v>
+        <v>2.63080627809206</v>
       </c>
       <c r="C30" t="n">
-        <v>3.595414964938893</v>
+        <v>2.629493181393135</v>
       </c>
       <c r="D30" t="n">
-        <v>3.650925151763709</v>
+        <v>2.670114497148003</v>
       </c>
       <c r="E30" t="n">
-        <v>3.672037366164413</v>
+        <v>2.685567364856146</v>
       </c>
       <c r="F30" t="n">
-        <v>3.800659099090312</v>
+        <v>2.77961945319203</v>
       </c>
       <c r="G30" t="n">
-        <v>3.891859656599213</v>
+        <v>2.846375328680455</v>
       </c>
       <c r="H30" t="n">
-        <v>3.763575196379075</v>
+        <v>2.752494888120173</v>
       </c>
       <c r="I30" t="n">
-        <v>4.092588083967931</v>
+        <v>2.993184775140975</v>
       </c>
       <c r="J30" t="n">
-        <v>3.792273644432172</v>
+        <v>2.773426253869871</v>
       </c>
       <c r="K30" t="n">
-        <v>4.176695344855936</v>
+        <v>3.054655410062934</v>
       </c>
       <c r="L30" t="n">
-        <v>4.449021915158859</v>
+        <v>3.253841673110779</v>
       </c>
       <c r="M30" t="n">
-        <v>4.486893027739599</v>
+        <v>3.281544253721766</v>
       </c>
       <c r="N30" t="n">
-        <v>4.727903202733446</v>
+        <v>3.45790540345265</v>
       </c>
       <c r="O30" t="n">
-        <v>4.825718533195237</v>
+        <v>3.529362530555544</v>
       </c>
       <c r="P30" t="n">
-        <v>5.030566540073294</v>
+        <v>3.679367225833746</v>
       </c>
       <c r="Q30" t="n">
-        <v>5.322297341202869</v>
+        <v>3.892434646251416</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3.617231031923558</v>
+        <v>2.645571500566112</v>
       </c>
       <c r="B31" t="n">
-        <v>3.59294379376783</v>
+        <v>2.627809557407879</v>
       </c>
       <c r="C31" t="n">
-        <v>3.596084705895918</v>
+        <v>2.630108794295602</v>
       </c>
       <c r="D31" t="n">
-        <v>3.656831027455416</v>
+        <v>2.674512685903808</v>
       </c>
       <c r="E31" t="n">
-        <v>3.688170003700631</v>
+        <v>2.697436536221677</v>
       </c>
       <c r="F31" t="n">
-        <v>3.866200266238846</v>
+        <v>2.827614068687396</v>
       </c>
       <c r="G31" t="n">
-        <v>3.91619686108172</v>
+        <v>2.864207195906947</v>
       </c>
       <c r="H31" t="n">
-        <v>3.881111130996215</v>
+        <v>2.838538386688355</v>
       </c>
       <c r="I31" t="n">
-        <v>4.088561470653131</v>
+        <v>2.990230746789928</v>
       </c>
       <c r="J31" t="n">
-        <v>3.898488602692873</v>
+        <v>2.851205535737392</v>
       </c>
       <c r="K31" t="n">
-        <v>4.146400376573143</v>
+        <v>3.032432557313798</v>
       </c>
       <c r="L31" t="n">
-        <v>4.553609604681076</v>
+        <v>3.330299249537302</v>
       </c>
       <c r="M31" t="n">
-        <v>4.576900158751187</v>
+        <v>3.347358613929278</v>
       </c>
       <c r="N31" t="n">
-        <v>4.778056422792957</v>
+        <v>3.494462690195003</v>
       </c>
       <c r="O31" t="n">
-        <v>4.867116115377534</v>
+        <v>3.559659329236685</v>
       </c>
       <c r="P31" t="n">
-        <v>5.084455223505025</v>
+        <v>3.718611142857068</v>
       </c>
       <c r="Q31" t="n">
-        <v>5.356949949715379</v>
+        <v>3.917833597759337</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3.467747396676303</v>
+        <v>2.536083762006231</v>
       </c>
       <c r="B32" t="n">
-        <v>3.408669181718522</v>
+        <v>2.492881931893079</v>
       </c>
       <c r="C32" t="n">
-        <v>3.428857019073805</v>
+        <v>2.507642762151788</v>
       </c>
       <c r="D32" t="n">
-        <v>3.398256967930386</v>
+        <v>2.485305711803736</v>
       </c>
       <c r="E32" t="n">
-        <v>3.461296455621794</v>
+        <v>2.531395511349177</v>
       </c>
       <c r="F32" t="n">
-        <v>3.666986683373357</v>
+        <v>2.681875795704712</v>
       </c>
       <c r="G32" t="n">
-        <v>3.772117996922026</v>
+        <v>2.758742199535356</v>
       </c>
       <c r="H32" t="n">
-        <v>4.009848170830066</v>
+        <v>2.932653898613791</v>
       </c>
       <c r="I32" t="n">
-        <v>4.292360184668818</v>
+        <v>3.139264235411498</v>
       </c>
       <c r="J32" t="n">
-        <v>4.208442219288036</v>
+        <v>3.077865281443935</v>
       </c>
       <c r="K32" t="n">
-        <v>4.430777479648031</v>
+        <v>3.240497068767247</v>
       </c>
       <c r="L32" t="n">
-        <v>4.389769058280075</v>
+        <v>3.21050386001061</v>
       </c>
       <c r="M32" t="n">
-        <v>4.44525858595055</v>
+        <v>3.251065090259586</v>
       </c>
       <c r="N32" t="n">
-        <v>4.772250239532084</v>
+        <v>3.490248974483601</v>
       </c>
       <c r="O32" t="n">
-        <v>4.788146738129725</v>
+        <v>3.50182123209195</v>
       </c>
       <c r="P32" t="n">
-        <v>5.15574227801048</v>
+        <v>3.770741116942119</v>
       </c>
       <c r="Q32" t="n">
-        <v>5.365301052523858</v>
+        <v>3.923922262356334</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3.415565015259548</v>
+        <v>2.49791787031668</v>
       </c>
       <c r="B33" t="n">
-        <v>3.353919780263469</v>
+        <v>2.45282387383379</v>
       </c>
       <c r="C33" t="n">
-        <v>3.3725231085253</v>
+        <v>2.466438335887992</v>
       </c>
       <c r="D33" t="n">
-        <v>3.347152706102991</v>
+        <v>2.447878766423481</v>
       </c>
       <c r="E33" t="n">
-        <v>3.408596154010152</v>
+        <v>2.492828873931737</v>
       </c>
       <c r="F33" t="n">
-        <v>3.634286605168848</v>
+        <v>2.657938749151534</v>
       </c>
       <c r="G33" t="n">
-        <v>3.73797273880451</v>
+        <v>2.733791429681028</v>
       </c>
       <c r="H33" t="n">
-        <v>3.999126309949533</v>
+        <v>2.924868257696896</v>
       </c>
       <c r="I33" t="n">
-        <v>4.253361947062839</v>
+        <v>3.110733458675447</v>
       </c>
       <c r="J33" t="n">
-        <v>4.235698370100823</v>
+        <v>3.097828778620663</v>
       </c>
       <c r="K33" t="n">
-        <v>4.43290297031796</v>
+        <v>3.242067022219427</v>
       </c>
       <c r="L33" t="n">
-        <v>4.365108754232574</v>
+        <v>3.19251615698375</v>
       </c>
       <c r="M33" t="n">
-        <v>4.421555809684507</v>
+        <v>3.233798764680651</v>
       </c>
       <c r="N33" t="n">
-        <v>4.780045947400592</v>
+        <v>3.495946907603689</v>
       </c>
       <c r="O33" t="n">
-        <v>4.805514841140112</v>
+        <v>3.514562170358748</v>
       </c>
       <c r="P33" t="n">
-        <v>5.18199333694228</v>
+        <v>3.790020834034258</v>
       </c>
       <c r="Q33" t="n">
-        <v>5.365354862414236</v>
+        <v>3.92396934690481</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3.410011065859822</v>
+        <v>2.493831001784381</v>
       </c>
       <c r="B34" t="n">
-        <v>3.342047492753381</v>
+        <v>2.444122895239427</v>
       </c>
       <c r="C34" t="n">
-        <v>3.363708616080485</v>
+        <v>2.459968602687843</v>
       </c>
       <c r="D34" t="n">
-        <v>3.286773685089868</v>
+        <v>2.40370625671954</v>
       </c>
       <c r="E34" t="n">
-        <v>3.366580478756684</v>
+        <v>2.462076866052453</v>
       </c>
       <c r="F34" t="n">
-        <v>3.538443983723949</v>
+        <v>2.587845844134157</v>
       </c>
       <c r="G34" t="n">
-        <v>3.680645026843088</v>
+        <v>2.691828555671813</v>
       </c>
       <c r="H34" t="n">
-        <v>3.86072030543839</v>
+        <v>2.823697793799018</v>
       </c>
       <c r="I34" t="n">
-        <v>4.203743943234409</v>
+        <v>3.074417919465569</v>
       </c>
       <c r="J34" t="n">
-        <v>3.957459918538072</v>
+        <v>2.894352023937222</v>
       </c>
       <c r="K34" t="n">
-        <v>4.495182153085055</v>
+        <v>3.287591104428697</v>
       </c>
       <c r="L34" t="n">
-        <v>4.312631139086916</v>
+        <v>3.154161575723066</v>
       </c>
       <c r="M34" t="n">
-        <v>4.385504624467622</v>
+        <v>3.207454959808155</v>
       </c>
       <c r="N34" t="n">
-        <v>4.782731637464992</v>
+        <v>3.497892834689225</v>
       </c>
       <c r="O34" t="n">
-        <v>4.768542161550503</v>
+        <v>3.487499096301693</v>
       </c>
       <c r="P34" t="n">
-        <v>5.223103612745593</v>
+        <v>3.819988040876064</v>
       </c>
       <c r="Q34" t="n">
-        <v>5.338599335760144</v>
+        <v>3.904349145279287</v>
       </c>
     </row>
   </sheetData>
@@ -4133,1751 +4133,1751 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8.869930084377032</v>
+        <v>7.807511338284297</v>
       </c>
       <c r="B2" t="n">
-        <v>8.887256869078735</v>
+        <v>7.834375532830624</v>
       </c>
       <c r="C2" t="n">
-        <v>8.842279487849956</v>
+        <v>7.818082170794456</v>
       </c>
       <c r="D2" t="n">
-        <v>8.89347095052649</v>
+        <v>7.942016432683107</v>
       </c>
       <c r="E2" t="n">
-        <v>8.762340091238993</v>
+        <v>7.876438197972431</v>
       </c>
       <c r="F2" t="n">
-        <v>8.875999071298946</v>
+        <v>8.110331043905726</v>
       </c>
       <c r="G2" t="n">
-        <v>8.667610661901289</v>
+        <v>7.818482038079277</v>
       </c>
       <c r="H2" t="n">
-        <v>8.873217292144584</v>
+        <v>8.225613695700469</v>
       </c>
       <c r="I2" t="n">
-        <v>8.624224516002256</v>
+        <v>7.730211159266384</v>
       </c>
       <c r="J2" t="n">
-        <v>8.912330356213067</v>
+        <v>8.138593719817246</v>
       </c>
       <c r="K2" t="n">
-        <v>8.660896917185738</v>
+        <v>7.494554399651363</v>
       </c>
       <c r="L2" t="n">
-        <v>8.858164936202249</v>
+        <v>8.064734226610378</v>
       </c>
       <c r="M2" t="n">
-        <v>8.718136227184397</v>
+        <v>7.8288167450926</v>
       </c>
       <c r="N2" t="n">
-        <v>8.85208345769864</v>
+        <v>8.072905855411609</v>
       </c>
       <c r="O2" t="n">
-        <v>8.676807348701422</v>
+        <v>7.54558350888286</v>
       </c>
       <c r="P2" t="n">
-        <v>8.812512048671046</v>
+        <v>8.073899550210795</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.608356363686156</v>
+        <v>7.370350982806498</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8.847521147707308</v>
+        <v>7.907067750887952</v>
       </c>
       <c r="B3" t="n">
-        <v>8.869039338513096</v>
+        <v>7.928755456119704</v>
       </c>
       <c r="C3" t="n">
-        <v>8.817525016494292</v>
+        <v>7.882100290615321</v>
       </c>
       <c r="D3" t="n">
-        <v>8.885412919442389</v>
+        <v>7.950516950569218</v>
       </c>
       <c r="E3" t="n">
-        <v>8.74637777161473</v>
+        <v>7.826807570106125</v>
       </c>
       <c r="F3" t="n">
-        <v>8.877896830825668</v>
+        <v>8.05469327095919</v>
       </c>
       <c r="G3" t="n">
-        <v>8.66555531626703</v>
+        <v>7.762956705845521</v>
       </c>
       <c r="H3" t="n">
-        <v>8.871582816724354</v>
+        <v>8.150634714646992</v>
       </c>
       <c r="I3" t="n">
-        <v>8.627657779186551</v>
+        <v>7.674861515646345</v>
       </c>
       <c r="J3" t="n">
-        <v>8.899871444808769</v>
+        <v>8.074447698685594</v>
       </c>
       <c r="K3" t="n">
-        <v>8.672309418400364</v>
+        <v>7.43437894118973</v>
       </c>
       <c r="L3" t="n">
-        <v>8.853937016243981</v>
+        <v>8.015677046379247</v>
       </c>
       <c r="M3" t="n">
-        <v>8.709619851141184</v>
+        <v>7.785008437884895</v>
       </c>
       <c r="N3" t="n">
-        <v>8.847965079302927</v>
+        <v>8.063068698552335</v>
       </c>
       <c r="O3" t="n">
-        <v>8.673700788422995</v>
+        <v>7.469622077101476</v>
       </c>
       <c r="P3" t="n">
-        <v>8.817259810606002</v>
+        <v>8.079968537683056</v>
       </c>
       <c r="Q3" t="n">
-        <v>8.605945488419042</v>
+        <v>7.298469743390089</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8.851811525574051</v>
+        <v>7.771255533203083</v>
       </c>
       <c r="B4" t="n">
-        <v>8.871096605929154</v>
+        <v>7.798068426674205</v>
       </c>
       <c r="C4" t="n">
-        <v>8.822801268424032</v>
+        <v>7.770701762692646</v>
       </c>
       <c r="D4" t="n">
-        <v>8.881672171170223</v>
+        <v>7.871979220956279</v>
       </c>
       <c r="E4" t="n">
-        <v>8.744935474374421</v>
+        <v>7.789739380875083</v>
       </c>
       <c r="F4" t="n">
-        <v>8.861565529095957</v>
+        <v>8.007887013247009</v>
       </c>
       <c r="G4" t="n">
-        <v>8.659473837763421</v>
+        <v>7.72335087027794</v>
       </c>
       <c r="H4" t="n">
-        <v>8.850776646075175</v>
+        <v>8.123047385766604</v>
       </c>
       <c r="I4" t="n">
-        <v>8.623939131405074</v>
+        <v>7.635010418774015</v>
       </c>
       <c r="J4" t="n">
-        <v>8.891695224144017</v>
+        <v>8.056724231333765</v>
       </c>
       <c r="K4" t="n">
-        <v>8.659021258149705</v>
+        <v>7.382930287548676</v>
       </c>
       <c r="L4" t="n">
-        <v>8.843725628653862</v>
+        <v>7.964008430593818</v>
       </c>
       <c r="M4" t="n">
-        <v>8.708401441480483</v>
+        <v>7.731628615001857</v>
       </c>
       <c r="N4" t="n">
-        <v>8.83870305192162</v>
+        <v>8.033787028681253</v>
       </c>
       <c r="O4" t="n">
-        <v>8.676986074408749</v>
+        <v>7.448638531833503</v>
       </c>
       <c r="P4" t="n">
-        <v>8.810860277214623</v>
+        <v>8.07514412835037</v>
       </c>
       <c r="Q4" t="n">
-        <v>8.616835264984283</v>
+        <v>7.290759121511252</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8.83052202680237</v>
+        <v>7.708168563034922</v>
       </c>
       <c r="B5" t="n">
-        <v>8.855559000082517</v>
+        <v>7.734819120226969</v>
       </c>
       <c r="C5" t="n">
-        <v>8.798877006805631</v>
+        <v>7.71389530908766</v>
       </c>
       <c r="D5" t="n">
-        <v>8.878156271368562</v>
+        <v>7.827965006693297</v>
       </c>
       <c r="E5" t="n">
-        <v>8.729267187365437</v>
+        <v>7.756213074096585</v>
       </c>
       <c r="F5" t="n">
-        <v>8.868825059842484</v>
+        <v>7.97916684418537</v>
       </c>
       <c r="G5" t="n">
-        <v>8.655927189452973</v>
+        <v>7.689935598703313</v>
       </c>
       <c r="H5" t="n">
-        <v>8.863768851928754</v>
+        <v>8.099704693793633</v>
       </c>
       <c r="I5" t="n">
-        <v>8.625812868659306</v>
+        <v>7.584964463024882</v>
       </c>
       <c r="J5" t="n">
-        <v>8.89481523689504</v>
+        <v>8.027505809363623</v>
       </c>
       <c r="K5" t="n">
-        <v>8.647357003519383</v>
+        <v>7.344386313962405</v>
       </c>
       <c r="L5" t="n">
-        <v>8.84725113736452</v>
+        <v>7.928919900662144</v>
       </c>
       <c r="M5" t="n">
-        <v>8.704500224428081</v>
+        <v>7.692922305136511</v>
       </c>
       <c r="N5" t="n">
-        <v>8.837868037729862</v>
+        <v>8.003643781848503</v>
       </c>
       <c r="O5" t="n">
-        <v>8.672572702506857</v>
+        <v>7.423550197794634</v>
       </c>
       <c r="P5" t="n">
-        <v>8.809629375972227</v>
+        <v>8.071646519428482</v>
       </c>
       <c r="Q5" t="n">
-        <v>8.616497031387622</v>
+        <v>7.27359926323223</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8.827869007028557</v>
+        <v>7.654028359831715</v>
       </c>
       <c r="B6" t="n">
-        <v>8.853957194952873</v>
+        <v>7.685716963710727</v>
       </c>
       <c r="C6" t="n">
-        <v>8.796152881105245</v>
+        <v>7.668763012486981</v>
       </c>
       <c r="D6" t="n">
-        <v>8.877928540225355</v>
+        <v>7.798249034569107</v>
       </c>
       <c r="E6" t="n">
-        <v>8.725322730222553</v>
+        <v>7.726189998275617</v>
       </c>
       <c r="F6" t="n">
-        <v>8.866328665285305</v>
+        <v>7.954576763055003</v>
       </c>
       <c r="G6" t="n">
-        <v>8.648041157839902</v>
+        <v>7.652831568995071</v>
       </c>
       <c r="H6" t="n">
-        <v>8.860540258506077</v>
+        <v>8.076467414988892</v>
       </c>
       <c r="I6" t="n">
-        <v>8.614610802551693</v>
+        <v>7.537572108097339</v>
       </c>
       <c r="J6" t="n">
-        <v>8.893321051546151</v>
+        <v>8.004909442621724</v>
       </c>
       <c r="K6" t="n">
-        <v>8.63422739026716</v>
+        <v>7.305451608899226</v>
       </c>
       <c r="L6" t="n">
-        <v>8.840205885288604</v>
+        <v>7.905997455853185</v>
       </c>
       <c r="M6" t="n">
-        <v>8.693765151297677</v>
+        <v>7.660701013380709</v>
       </c>
       <c r="N6" t="n">
-        <v>8.831824033971337</v>
+        <v>7.960514335444203</v>
       </c>
       <c r="O6" t="n">
-        <v>8.661981763011394</v>
+        <v>7.389639484329322</v>
       </c>
       <c r="P6" t="n">
-        <v>8.812311222473028</v>
+        <v>8.059891545661866</v>
       </c>
       <c r="Q6" t="n">
-        <v>8.607773102910095</v>
+        <v>7.254094313337305</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8.818141908451841</v>
+        <v>7.62718173414676</v>
       </c>
       <c r="B7" t="n">
-        <v>8.845655097580272</v>
+        <v>7.659107869031518</v>
       </c>
       <c r="C7" t="n">
-        <v>8.785419729756642</v>
+        <v>7.642312740314572</v>
       </c>
       <c r="D7" t="n">
-        <v>8.872069988410455</v>
+        <v>7.775069381629665</v>
       </c>
       <c r="E7" t="n">
-        <v>8.716201953803488</v>
+        <v>7.701540885771041</v>
       </c>
       <c r="F7" t="n">
-        <v>8.864541408212038</v>
+        <v>7.929958571746442</v>
       </c>
       <c r="G7" t="n">
-        <v>8.639300894217083</v>
+        <v>7.629932315083122</v>
       </c>
       <c r="H7" t="n">
-        <v>8.855556117409817</v>
+        <v>8.055925199518578</v>
       </c>
       <c r="I7" t="n">
-        <v>8.60878299924558</v>
+        <v>7.51860054883366</v>
       </c>
       <c r="J7" t="n">
-        <v>8.883414266371208</v>
+        <v>7.986676478290114</v>
       </c>
       <c r="K7" t="n">
-        <v>8.63735316836358</v>
+        <v>7.289922140955502</v>
       </c>
       <c r="L7" t="n">
-        <v>8.836768778540712</v>
+        <v>7.867535001783678</v>
       </c>
       <c r="M7" t="n">
-        <v>8.685109446074023</v>
+        <v>7.623876679945505</v>
       </c>
       <c r="N7" t="n">
-        <v>8.829638968065632</v>
+        <v>7.934518745404096</v>
       </c>
       <c r="O7" t="n">
-        <v>8.660390527681646</v>
+        <v>7.362336068248702</v>
       </c>
       <c r="P7" t="n">
-        <v>8.810651763889407</v>
+        <v>8.043338867231851</v>
       </c>
       <c r="Q7" t="n">
-        <v>8.610183017286307</v>
+        <v>7.246593112286019</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8.816905241864047</v>
+        <v>7.606995112430611</v>
       </c>
       <c r="B8" t="n">
-        <v>8.842310236358742</v>
+        <v>7.646803341281194</v>
       </c>
       <c r="C8" t="n">
-        <v>8.784381967585066</v>
+        <v>7.619762755366694</v>
       </c>
       <c r="D8" t="n">
-        <v>8.866406497448175</v>
+        <v>7.768598418609219</v>
       </c>
       <c r="E8" t="n">
-        <v>8.71431668585846</v>
+        <v>7.677613502091617</v>
       </c>
       <c r="F8" t="n">
-        <v>8.859329535972572</v>
+        <v>7.915810016306539</v>
       </c>
       <c r="G8" t="n">
-        <v>8.637524206943709</v>
+        <v>7.610587593203908</v>
       </c>
       <c r="H8" t="n">
-        <v>8.851948932972695</v>
+        <v>8.033335157566773</v>
       </c>
       <c r="I8" t="n">
-        <v>8.60793068901763</v>
+        <v>7.503454784822296</v>
       </c>
       <c r="J8" t="n">
-        <v>8.875184235816079</v>
+        <v>7.964264935969846</v>
       </c>
       <c r="K8" t="n">
-        <v>8.634965354478059</v>
+        <v>7.277070167484834</v>
       </c>
       <c r="L8" t="n">
-        <v>8.834590438871304</v>
+        <v>7.847064467267762</v>
       </c>
       <c r="M8" t="n">
-        <v>8.685020083220358</v>
+        <v>7.600799629156474</v>
       </c>
       <c r="N8" t="n">
-        <v>8.829498677994289</v>
+        <v>7.904784501664079</v>
       </c>
       <c r="O8" t="n">
-        <v>8.661033363693482</v>
+        <v>7.349083524738758</v>
       </c>
       <c r="P8" t="n">
-        <v>8.810950600959185</v>
+        <v>7.995809475185609</v>
       </c>
       <c r="Q8" t="n">
-        <v>8.60748771831291</v>
+        <v>7.24165696499501</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8.818814532081564</v>
+        <v>7.566394176554934</v>
       </c>
       <c r="B9" t="n">
-        <v>8.843190412422782</v>
+        <v>7.602716743309361</v>
       </c>
       <c r="C9" t="n">
-        <v>8.786658318126234</v>
+        <v>7.577646680886318</v>
       </c>
       <c r="D9" t="n">
-        <v>8.865277450641136</v>
+        <v>7.720910204056175</v>
       </c>
       <c r="E9" t="n">
-        <v>8.715575452936944</v>
+        <v>7.642061154219729</v>
       </c>
       <c r="F9" t="n">
-        <v>8.85284063972753</v>
+        <v>7.88438143157583</v>
       </c>
       <c r="G9" t="n">
-        <v>8.640133986627042</v>
+        <v>7.588358767041905</v>
       </c>
       <c r="H9" t="n">
-        <v>8.842643665500907</v>
+        <v>8.003335272642815</v>
       </c>
       <c r="I9" t="n">
-        <v>8.611458119510084</v>
+        <v>7.494124313924983</v>
       </c>
       <c r="J9" t="n">
-        <v>8.870099201175362</v>
+        <v>7.950803674386805</v>
       </c>
       <c r="K9" t="n">
-        <v>8.638053657829394</v>
+        <v>7.276858638393918</v>
       </c>
       <c r="L9" t="n">
-        <v>8.830840081690139</v>
+        <v>7.817053338272526</v>
       </c>
       <c r="M9" t="n">
-        <v>8.687832610883508</v>
+        <v>7.579535684861009</v>
       </c>
       <c r="N9" t="n">
-        <v>8.827432762560136</v>
+        <v>7.874955386072654</v>
       </c>
       <c r="O9" t="n">
-        <v>8.661442703216714</v>
+        <v>7.341173320594738</v>
       </c>
       <c r="P9" t="n">
-        <v>8.810819919796838</v>
+        <v>7.925278227077007</v>
       </c>
       <c r="Q9" t="n">
-        <v>8.61078645677126</v>
+        <v>7.242244467719281</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8.807914185716429</v>
+        <v>7.561628095842004</v>
       </c>
       <c r="B10" t="n">
-        <v>8.833022264923146</v>
+        <v>7.597718753626323</v>
       </c>
       <c r="C10" t="n">
-        <v>8.775184319894032</v>
+        <v>7.57161845317244</v>
       </c>
       <c r="D10" t="n">
-        <v>8.857971797131428</v>
+        <v>7.711275440479904</v>
       </c>
       <c r="E10" t="n">
-        <v>8.70696875314917</v>
+        <v>7.634025859782741</v>
       </c>
       <c r="F10" t="n">
-        <v>8.848801054385584</v>
+        <v>7.877969499929593</v>
       </c>
       <c r="G10" t="n">
-        <v>8.638712828986524</v>
+        <v>7.572783620058615</v>
       </c>
       <c r="H10" t="n">
-        <v>8.839962779891003</v>
+        <v>7.996790520404607</v>
       </c>
       <c r="I10" t="n">
-        <v>8.614628098587886</v>
+        <v>7.478695339868305</v>
       </c>
       <c r="J10" t="n">
-        <v>8.866713982536048</v>
+        <v>7.930831392779392</v>
       </c>
       <c r="K10" t="n">
-        <v>8.634287926393835</v>
+        <v>7.259064192842147</v>
       </c>
       <c r="L10" t="n">
-        <v>8.83235252396612</v>
+        <v>7.813651303956499</v>
       </c>
       <c r="M10" t="n">
-        <v>8.690269430204909</v>
+        <v>7.574046469814017</v>
       </c>
       <c r="N10" t="n">
-        <v>8.830139592224327</v>
+        <v>7.84962249348349</v>
       </c>
       <c r="O10" t="n">
-        <v>8.662702431186098</v>
+        <v>7.33075568855574</v>
       </c>
       <c r="P10" t="n">
-        <v>8.811199471702183</v>
+        <v>7.853839020212711</v>
       </c>
       <c r="Q10" t="n">
-        <v>8.605539992459409</v>
+        <v>7.243450394363839</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8.79887796769653</v>
+        <v>7.548494317834933</v>
       </c>
       <c r="B11" t="n">
-        <v>8.823129893111698</v>
+        <v>7.578758438433923</v>
       </c>
       <c r="C11" t="n">
-        <v>8.766259565218489</v>
+        <v>7.559589405168425</v>
       </c>
       <c r="D11" t="n">
-        <v>8.847746957068717</v>
+        <v>7.695563959132369</v>
       </c>
       <c r="E11" t="n">
-        <v>8.700142584198366</v>
+        <v>7.619419108438263</v>
       </c>
       <c r="F11" t="n">
-        <v>8.84038941545043</v>
+        <v>7.862399974981941</v>
       </c>
       <c r="G11" t="n">
-        <v>8.634241803630655</v>
+        <v>7.553653238288136</v>
       </c>
       <c r="H11" t="n">
-        <v>8.833045326304736</v>
+        <v>7.984620218755164</v>
       </c>
       <c r="I11" t="n">
-        <v>8.608412095358332</v>
+        <v>7.441059325037727</v>
       </c>
       <c r="J11" t="n">
-        <v>8.862063270581952</v>
+        <v>7.914508515056119</v>
       </c>
       <c r="K11" t="n">
-        <v>8.621870333298221</v>
+        <v>7.224632035571322</v>
       </c>
       <c r="L11" t="n">
-        <v>8.82102362025976</v>
+        <v>7.783053374991447</v>
       </c>
       <c r="M11" t="n">
-        <v>8.681241860203105</v>
+        <v>7.545508314156189</v>
       </c>
       <c r="N11" t="n">
-        <v>8.823373959400197</v>
+        <v>7.828860315868802</v>
       </c>
       <c r="O11" t="n">
-        <v>8.655023952007344</v>
+        <v>7.302190828228627</v>
       </c>
       <c r="P11" t="n">
-        <v>8.811628029043408</v>
+        <v>7.784894591663206</v>
       </c>
       <c r="Q11" t="n">
-        <v>8.600517415727166</v>
+        <v>7.240386384940605</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8.797009034896796</v>
+        <v>7.524462223741733</v>
       </c>
       <c r="B12" t="n">
-        <v>8.820344270393738</v>
+        <v>7.554348965198457</v>
       </c>
       <c r="C12" t="n">
-        <v>8.7633000212477</v>
+        <v>7.53705277255519</v>
       </c>
       <c r="D12" t="n">
-        <v>8.842873318425912</v>
+        <v>7.672689301626341</v>
       </c>
       <c r="E12" t="n">
-        <v>8.692278653075986</v>
+        <v>7.608580526480798</v>
       </c>
       <c r="F12" t="n">
-        <v>8.832913684251491</v>
+        <v>7.843293486862928</v>
       </c>
       <c r="G12" t="n">
-        <v>8.622682286108388</v>
+        <v>7.533013339948595</v>
       </c>
       <c r="H12" t="n">
-        <v>8.824577955697404</v>
+        <v>7.957800297739493</v>
       </c>
       <c r="I12" t="n">
-        <v>8.598701331926909</v>
+        <v>7.41140730356893</v>
       </c>
       <c r="J12" t="n">
-        <v>8.849701409158515</v>
+        <v>7.88115508587352</v>
       </c>
       <c r="K12" t="n">
-        <v>8.622007740696864</v>
+        <v>7.220331178307516</v>
       </c>
       <c r="L12" t="n">
-        <v>8.81772872536501</v>
+        <v>7.764240638234568</v>
       </c>
       <c r="M12" t="n">
-        <v>8.674829835230032</v>
+        <v>7.523902831195657</v>
       </c>
       <c r="N12" t="n">
-        <v>8.821295552384349</v>
+        <v>7.793753514321302</v>
       </c>
       <c r="O12" t="n">
-        <v>8.651399471534027</v>
+        <v>7.261267328058166</v>
       </c>
       <c r="P12" t="n">
-        <v>8.806642927056249</v>
+        <v>7.796345272750863</v>
       </c>
       <c r="Q12" t="n">
-        <v>8.595713922120034</v>
+        <v>7.23320704542965</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8.797228118021906</v>
+        <v>7.519285734427159</v>
       </c>
       <c r="B13" t="n">
-        <v>8.818637728156038</v>
+        <v>7.550906873878502</v>
       </c>
       <c r="C13" t="n">
-        <v>8.763381696974166</v>
+        <v>7.525521977459678</v>
       </c>
       <c r="D13" t="n">
-        <v>8.838125556490956</v>
+        <v>7.663789619209863</v>
       </c>
       <c r="E13" t="n">
-        <v>8.689024115599018</v>
+        <v>7.58029044314554</v>
       </c>
       <c r="F13" t="n">
-        <v>8.830267390713974</v>
+        <v>7.820360500737145</v>
       </c>
       <c r="G13" t="n">
-        <v>8.61588974833907</v>
+        <v>7.520984994699035</v>
       </c>
       <c r="H13" t="n">
-        <v>8.824497240861838</v>
+        <v>7.921921169046091</v>
       </c>
       <c r="I13" t="n">
-        <v>8.590120576193424</v>
+        <v>7.411046087779126</v>
       </c>
       <c r="J13" t="n">
-        <v>8.843467149001869</v>
+        <v>7.847084144392499</v>
       </c>
       <c r="K13" t="n">
-        <v>8.614926935657664</v>
+        <v>7.191717827923017</v>
       </c>
       <c r="L13" t="n">
-        <v>8.817715272892414</v>
+        <v>7.729709392585606</v>
       </c>
       <c r="M13" t="n">
-        <v>8.672408390163023</v>
+        <v>7.496547411285376</v>
       </c>
       <c r="N13" t="n">
-        <v>8.823452752453965</v>
+        <v>7.747089915763459</v>
       </c>
       <c r="O13" t="n">
-        <v>8.649263411064203</v>
+        <v>7.229905505000669</v>
       </c>
       <c r="P13" t="n">
-        <v>8.807210813577917</v>
+        <v>7.807475497807099</v>
       </c>
       <c r="Q13" t="n">
-        <v>8.591533085815845</v>
+        <v>7.193885122661837</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8.770008000617853</v>
+        <v>7.489898651387848</v>
       </c>
       <c r="B14" t="n">
-        <v>8.795462000548428</v>
+        <v>7.524799545880072</v>
       </c>
       <c r="C14" t="n">
-        <v>8.735778184101171</v>
+        <v>7.500014801765706</v>
       </c>
       <c r="D14" t="n">
-        <v>8.826532407787203</v>
+        <v>7.634922574467156</v>
       </c>
       <c r="E14" t="n">
-        <v>8.673669079023307</v>
+        <v>7.546633424038436</v>
       </c>
       <c r="F14" t="n">
-        <v>8.835206369937952</v>
+        <v>7.784094857093564</v>
       </c>
       <c r="G14" t="n">
-        <v>8.614024659102935</v>
+        <v>7.483996216721392</v>
       </c>
       <c r="H14" t="n">
-        <v>8.837662407077346</v>
+        <v>7.882330091322063</v>
       </c>
       <c r="I14" t="n">
-        <v>8.59208271541042</v>
+        <v>7.382314674646209</v>
       </c>
       <c r="J14" t="n">
-        <v>8.856458393964548</v>
+        <v>7.804670102023256</v>
       </c>
       <c r="K14" t="n">
-        <v>8.609122193733141</v>
+        <v>7.169274661652279</v>
       </c>
       <c r="L14" t="n">
-        <v>8.81934013940365</v>
+        <v>7.702989262702529</v>
       </c>
       <c r="M14" t="n">
-        <v>8.670093603985871</v>
+        <v>7.462068169466074</v>
       </c>
       <c r="N14" t="n">
-        <v>8.824236839428044</v>
+        <v>7.73267220536734</v>
       </c>
       <c r="O14" t="n">
-        <v>8.648735881960318</v>
+        <v>7.189357978463563</v>
       </c>
       <c r="P14" t="n">
-        <v>8.809191209722005</v>
+        <v>7.823144111132887</v>
       </c>
       <c r="Q14" t="n">
-        <v>8.594213010534848</v>
+        <v>7.109623458013979</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>8.753781435996197</v>
+        <v>7.442467644965287</v>
       </c>
       <c r="B15" t="n">
-        <v>8.783826572645093</v>
+        <v>7.477665101837466</v>
       </c>
       <c r="C15" t="n">
-        <v>8.720165628764365</v>
+        <v>7.451894393222918</v>
       </c>
       <c r="D15" t="n">
-        <v>8.824643296278577</v>
+        <v>7.589611075480485</v>
       </c>
       <c r="E15" t="n">
-        <v>8.665781125628438</v>
+        <v>7.496780725764393</v>
       </c>
       <c r="F15" t="n">
-        <v>8.844581782445411</v>
+        <v>7.732786754343484</v>
       </c>
       <c r="G15" t="n">
-        <v>8.610039844542266</v>
+        <v>7.437258126191334</v>
       </c>
       <c r="H15" t="n">
-        <v>8.854129194423901</v>
+        <v>7.839824690873688</v>
       </c>
       <c r="I15" t="n">
-        <v>8.585060524716095</v>
+        <v>7.332334075061379</v>
       </c>
       <c r="J15" t="n">
-        <v>8.876726465709948</v>
+        <v>7.745617645180506</v>
       </c>
       <c r="K15" t="n">
-        <v>8.600886397832614</v>
+        <v>7.120490150149639</v>
       </c>
       <c r="L15" t="n">
-        <v>8.819957031361197</v>
+        <v>7.683120285999981</v>
       </c>
       <c r="M15" t="n">
-        <v>8.663512462214467</v>
+        <v>7.442641928070095</v>
       </c>
       <c r="N15" t="n">
-        <v>8.82226989575655</v>
+        <v>7.718291740957329</v>
       </c>
       <c r="O15" t="n">
-        <v>8.642731274728677</v>
+        <v>7.164748922962914</v>
       </c>
       <c r="P15" t="n">
-        <v>8.809978179368784</v>
+        <v>7.828596080193771</v>
       </c>
       <c r="Q15" t="n">
-        <v>8.597048599579587</v>
+        <v>7.025561375631304</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>8.74979758232643</v>
+        <v>7.397485737817949</v>
       </c>
       <c r="B16" t="n">
-        <v>8.779580395759732</v>
+        <v>7.431459699184199</v>
       </c>
       <c r="C16" t="n">
-        <v>8.716663181435299</v>
+        <v>7.410728442765525</v>
       </c>
       <c r="D16" t="n">
-        <v>8.819153726569127</v>
+        <v>7.548731146086224</v>
       </c>
       <c r="E16" t="n">
-        <v>8.661286078000078</v>
+        <v>7.462857362718894</v>
       </c>
       <c r="F16" t="n">
-        <v>8.838195701526628</v>
+        <v>7.692329883131055</v>
       </c>
       <c r="G16" t="n">
-        <v>8.600136902930922</v>
+        <v>7.394397834743249</v>
       </c>
       <c r="H16" t="n">
-        <v>8.845485019891042</v>
+        <v>7.780222680047229</v>
       </c>
       <c r="I16" t="n">
-        <v>8.577193710921017</v>
+        <v>7.288045083806543</v>
       </c>
       <c r="J16" t="n">
-        <v>8.871015891093586</v>
+        <v>7.643971240828066</v>
       </c>
       <c r="K16" t="n">
-        <v>8.59464733322147</v>
+        <v>7.052383404910339</v>
       </c>
       <c r="L16" t="n">
-        <v>8.810907360868702</v>
+        <v>7.633034976001374</v>
       </c>
       <c r="M16" t="n">
-        <v>8.651185192863416</v>
+        <v>7.385957753740257</v>
       </c>
       <c r="N16" t="n">
-        <v>8.815859792565275</v>
+        <v>7.712004899604059</v>
       </c>
       <c r="O16" t="n">
-        <v>8.631458102694495</v>
+        <v>7.107483570698899</v>
       </c>
       <c r="P16" t="n">
-        <v>8.808528195001278</v>
+        <v>7.801497165659517</v>
       </c>
       <c r="Q16" t="n">
-        <v>8.594495512459332</v>
+        <v>6.955276794336362</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>8.747808538164245</v>
+        <v>7.346917635508848</v>
       </c>
       <c r="B17" t="n">
-        <v>8.777597116942944</v>
+        <v>7.38380100031826</v>
       </c>
       <c r="C17" t="n">
-        <v>8.714495411565787</v>
+        <v>7.356323301132831</v>
       </c>
       <c r="D17" t="n">
-        <v>8.817224257642716</v>
+        <v>7.493229004749479</v>
       </c>
       <c r="E17" t="n">
-        <v>8.65859750526298</v>
+        <v>7.394423836658079</v>
       </c>
       <c r="F17" t="n">
-        <v>8.836376735053673</v>
+        <v>7.627565438079119</v>
       </c>
       <c r="G17" t="n">
-        <v>8.596579684820579</v>
+        <v>7.32856660842882</v>
       </c>
       <c r="H17" t="n">
-        <v>8.843205786677176</v>
+        <v>7.695596285837293</v>
       </c>
       <c r="I17" t="n">
-        <v>8.575300755848792</v>
+        <v>7.213307850285542</v>
       </c>
       <c r="J17" t="n">
-        <v>8.862091136418041</v>
+        <v>7.581606702239512</v>
       </c>
       <c r="K17" t="n">
-        <v>8.594875064364677</v>
+        <v>6.967329735991842</v>
       </c>
       <c r="L17" t="n">
-        <v>8.808578161328057</v>
+        <v>7.586969421484627</v>
       </c>
       <c r="M17" t="n">
-        <v>8.647350277283087</v>
+        <v>7.338067848658666</v>
       </c>
       <c r="N17" t="n">
-        <v>8.813471017788853</v>
+        <v>7.685116108651812</v>
       </c>
       <c r="O17" t="n">
-        <v>8.625485204862541</v>
+        <v>7.046663686402149</v>
       </c>
       <c r="P17" t="n">
-        <v>8.807402991757838</v>
+        <v>7.802659521527873</v>
       </c>
       <c r="Q17" t="n">
-        <v>8.593710464594354</v>
+        <v>6.91399699765728</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>8.739960942187158</v>
+        <v>7.373698905029499</v>
       </c>
       <c r="B18" t="n">
-        <v>8.770107933271412</v>
+        <v>7.409232981285561</v>
       </c>
       <c r="C18" t="n">
-        <v>8.70750396938025</v>
+        <v>7.356848961465074</v>
       </c>
       <c r="D18" t="n">
-        <v>8.811402219682</v>
+        <v>7.47523005765134</v>
       </c>
       <c r="E18" t="n">
-        <v>8.65473760651926</v>
+        <v>7.330730389395365</v>
       </c>
       <c r="F18" t="n">
-        <v>8.833887066732792</v>
+        <v>7.557362376300941</v>
       </c>
       <c r="G18" t="n">
-        <v>8.595622637484571</v>
+        <v>7.26045986318952</v>
       </c>
       <c r="H18" t="n">
-        <v>8.836648667178261</v>
+        <v>7.618446496272722</v>
       </c>
       <c r="I18" t="n">
-        <v>8.571031517581842</v>
+        <v>7.113985454915359</v>
       </c>
       <c r="J18" t="n">
-        <v>8.86224199628928</v>
+        <v>7.547702313564294</v>
       </c>
       <c r="K18" t="n">
-        <v>8.590171503411103</v>
+        <v>6.868477483351967</v>
       </c>
       <c r="L18" t="n">
-        <v>8.806219174169524</v>
+        <v>7.513682673158478</v>
       </c>
       <c r="M18" t="n">
-        <v>8.645685053354068</v>
+        <v>7.274834705563891</v>
       </c>
       <c r="N18" t="n">
-        <v>8.815423548096854</v>
+        <v>7.666511387213576</v>
       </c>
       <c r="O18" t="n">
-        <v>8.624145722948489</v>
+        <v>6.983030676022554</v>
       </c>
       <c r="P18" t="n">
-        <v>8.814208981999752</v>
+        <v>7.801799350075111</v>
       </c>
       <c r="Q18" t="n">
-        <v>8.591698359050577</v>
+        <v>6.911855002078836</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>8.733848715174762</v>
+        <v>7.190083923815443</v>
       </c>
       <c r="B19" t="n">
-        <v>8.763224110866631</v>
+        <v>7.226301780156094</v>
       </c>
       <c r="C19" t="n">
-        <v>8.701971159580317</v>
+        <v>7.191731180257659</v>
       </c>
       <c r="D19" t="n">
-        <v>8.803754489012032</v>
+        <v>7.328038137078757</v>
       </c>
       <c r="E19" t="n">
-        <v>8.650093620801462</v>
+        <v>7.217326200258491</v>
       </c>
       <c r="F19" t="n">
-        <v>8.827023423036902</v>
+        <v>7.462836280085248</v>
       </c>
       <c r="G19" t="n">
-        <v>8.589513293144872</v>
+        <v>7.16003695434301</v>
       </c>
       <c r="H19" t="n">
-        <v>8.830027167989073</v>
+        <v>7.556237969173149</v>
       </c>
       <c r="I19" t="n">
-        <v>8.563077262714899</v>
+        <v>7.033125824583528</v>
       </c>
       <c r="J19" t="n">
-        <v>8.86324228371577</v>
+        <v>7.497951514686206</v>
       </c>
       <c r="K19" t="n">
-        <v>8.587039959969285</v>
+        <v>6.801537310507752</v>
       </c>
       <c r="L19" t="n">
-        <v>8.802406359079885</v>
+        <v>7.454345600761505</v>
       </c>
       <c r="M19" t="n">
-        <v>8.641790562537963</v>
+        <v>7.202913409143556</v>
       </c>
       <c r="N19" t="n">
-        <v>8.815331302570492</v>
+        <v>7.627036966729056</v>
       </c>
       <c r="O19" t="n">
-        <v>8.62162818879152</v>
+        <v>6.932891956685378</v>
       </c>
       <c r="P19" t="n">
-        <v>8.814527036887521</v>
+        <v>7.801629986251488</v>
       </c>
       <c r="Q19" t="n">
-        <v>8.588462078500703</v>
+        <v>6.881179067369292</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>8.726483486429277</v>
+        <v>7.117620803710403</v>
       </c>
       <c r="B20" t="n">
-        <v>8.754075468611477</v>
+        <v>7.152006579187207</v>
       </c>
       <c r="C20" t="n">
-        <v>8.694997013430973</v>
+        <v>7.124019383021997</v>
       </c>
       <c r="D20" t="n">
-        <v>8.79023475405457</v>
+        <v>7.245602228504652</v>
       </c>
       <c r="E20" t="n">
-        <v>8.640252176207692</v>
+        <v>7.157880200921013</v>
       </c>
       <c r="F20" t="n">
-        <v>8.815979903927726</v>
+        <v>7.393954396682226</v>
       </c>
       <c r="G20" t="n">
-        <v>8.570112905881818</v>
+        <v>7.080159774739087</v>
       </c>
       <c r="H20" t="n">
-        <v>8.81904706767927</v>
+        <v>7.524574664454513</v>
       </c>
       <c r="I20" t="n">
-        <v>8.55565245873364</v>
+        <v>6.946819847226452</v>
       </c>
       <c r="J20" t="n">
-        <v>8.871692358286909</v>
+        <v>7.396262945066475</v>
       </c>
       <c r="K20" t="n">
-        <v>8.591859788721711</v>
+        <v>6.716259462918151</v>
       </c>
       <c r="L20" t="n">
-        <v>8.805750259410516</v>
+        <v>7.384004799110173</v>
       </c>
       <c r="M20" t="n">
-        <v>8.638839666585271</v>
+        <v>7.127190211122372</v>
       </c>
       <c r="N20" t="n">
-        <v>8.820512426301169</v>
+        <v>7.568644396319429</v>
       </c>
       <c r="O20" t="n">
-        <v>8.612134586703409</v>
+        <v>6.886652119063823</v>
       </c>
       <c r="P20" t="n">
-        <v>8.819860942271236</v>
+        <v>7.776391262759276</v>
       </c>
       <c r="Q20" t="n">
-        <v>8.5733309295046</v>
+        <v>6.867807758356475</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>8.720476957415837</v>
+        <v>7.029543182372599</v>
       </c>
       <c r="B21" t="n">
-        <v>8.750699858881161</v>
+        <v>7.066991561763728</v>
       </c>
       <c r="C21" t="n">
-        <v>8.690022481243711</v>
+        <v>7.030269830478935</v>
       </c>
       <c r="D21" t="n">
-        <v>8.788430200945108</v>
+        <v>7.167396198994411</v>
       </c>
       <c r="E21" t="n">
-        <v>8.63137162251353</v>
+        <v>7.054427717619556</v>
       </c>
       <c r="F21" t="n">
-        <v>8.804682709621051</v>
+        <v>7.317196744103473</v>
       </c>
       <c r="G21" t="n">
-        <v>8.56524791525711</v>
+        <v>6.992113074597298</v>
       </c>
       <c r="H21" t="n">
-        <v>8.825747359922225</v>
+        <v>7.472368441511108</v>
       </c>
       <c r="I21" t="n">
-        <v>8.519922691522671</v>
+        <v>6.898711385509396</v>
       </c>
       <c r="J21" t="n">
-        <v>8.860522001578984</v>
+        <v>7.3273445184318</v>
       </c>
       <c r="K21" t="n">
-        <v>8.557525235096973</v>
+        <v>6.667550146142181</v>
       </c>
       <c r="L21" t="n">
-        <v>8.802123857155401</v>
+        <v>7.306587260098296</v>
       </c>
       <c r="M21" t="n">
-        <v>8.639910099047432</v>
+        <v>7.046812670346582</v>
       </c>
       <c r="N21" t="n">
-        <v>8.82480664773151</v>
+        <v>7.474946144851573</v>
       </c>
       <c r="O21" t="n">
-        <v>8.614037150684629</v>
+        <v>6.803698983210933</v>
       </c>
       <c r="P21" t="n">
-        <v>8.840536431758069</v>
+        <v>7.705999160032738</v>
       </c>
       <c r="Q21" t="n">
-        <v>8.570366581079314</v>
+        <v>6.862444336356905</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>8.729346941310105</v>
+        <v>6.969648122938459</v>
       </c>
       <c r="B22" t="n">
-        <v>8.758911632509196</v>
+        <v>7.001846223797251</v>
       </c>
       <c r="C22" t="n">
-        <v>8.696867868012507</v>
+        <v>6.966534217948928</v>
       </c>
       <c r="D22" t="n">
-        <v>8.794449221540244</v>
+        <v>7.107302260049543</v>
       </c>
       <c r="E22" t="n">
-        <v>8.639012626947201</v>
+        <v>6.989365304678754</v>
       </c>
       <c r="F22" t="n">
-        <v>8.808927925615514</v>
+        <v>7.265404443533987</v>
       </c>
       <c r="G22" t="n">
-        <v>8.566879508004641</v>
+        <v>6.935194883033987</v>
       </c>
       <c r="H22" t="n">
-        <v>8.807034970543288</v>
+        <v>7.417063071421726</v>
       </c>
       <c r="I22" t="n">
-        <v>8.536461545686699</v>
+        <v>6.815071658554099</v>
       </c>
       <c r="J22" t="n">
-        <v>8.859473669607514</v>
+        <v>7.268799450305465</v>
       </c>
       <c r="K22" t="n">
-        <v>8.572405591568279</v>
+        <v>6.588756613907669</v>
       </c>
       <c r="L22" t="n">
-        <v>8.795845396017372</v>
+        <v>7.233044709150574</v>
       </c>
       <c r="M22" t="n">
-        <v>8.630616362266439</v>
+        <v>6.977682714620991</v>
       </c>
       <c r="N22" t="n">
-        <v>8.817651854093041</v>
+        <v>7.366064883386243</v>
       </c>
       <c r="O22" t="n">
-        <v>8.616686326894843</v>
+        <v>6.738796798285842</v>
       </c>
       <c r="P22" t="n">
-        <v>8.82209789628552</v>
+        <v>7.580271468775258</v>
       </c>
       <c r="Q22" t="n">
-        <v>8.583962226417846</v>
+        <v>6.859233451252603</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>8.724610710065944</v>
+        <v>6.997379516482096</v>
       </c>
       <c r="B23" t="n">
-        <v>8.752968522295131</v>
+        <v>7.029962024027702</v>
       </c>
       <c r="C23" t="n">
-        <v>8.692610160436351</v>
+        <v>6.976017889317403</v>
       </c>
       <c r="D23" t="n">
-        <v>8.789277706718561</v>
+        <v>7.093727152244813</v>
       </c>
       <c r="E23" t="n">
-        <v>8.636281775010518</v>
+        <v>6.945253407546546</v>
       </c>
       <c r="F23" t="n">
-        <v>8.807374165030851</v>
+        <v>7.213944545821655</v>
       </c>
       <c r="G23" t="n">
-        <v>8.567138948547536</v>
+        <v>6.875133973548498</v>
       </c>
       <c r="H23" t="n">
-        <v>8.810004123423074</v>
+        <v>7.357097033787643</v>
       </c>
       <c r="I23" t="n">
-        <v>8.535655358221929</v>
+        <v>6.75492009374393</v>
       </c>
       <c r="J23" t="n">
-        <v>8.864310794396133</v>
+        <v>7.252161035831956</v>
       </c>
       <c r="K23" t="n">
-        <v>8.560444421649978</v>
+        <v>6.542419093416886</v>
       </c>
       <c r="L23" t="n">
-        <v>8.793917848872761</v>
+        <v>7.147899682152945</v>
       </c>
       <c r="M23" t="n">
-        <v>8.630392474686831</v>
+        <v>6.897286199474919</v>
       </c>
       <c r="N23" t="n">
-        <v>8.819922439288812</v>
+        <v>7.289756290904153</v>
       </c>
       <c r="O23" t="n">
-        <v>8.613363566164004</v>
+        <v>6.67757845221318</v>
       </c>
       <c r="P23" t="n">
-        <v>8.826632340440764</v>
+        <v>7.435498429036338</v>
       </c>
       <c r="Q23" t="n">
-        <v>8.584385979304573</v>
+        <v>6.844125635981801</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>8.707165735783589</v>
+        <v>6.813322502715926</v>
       </c>
       <c r="B24" t="n">
-        <v>8.736585332456841</v>
+        <v>6.851853123967555</v>
       </c>
       <c r="C24" t="n">
-        <v>8.676484489359154</v>
+        <v>6.826697325501017</v>
       </c>
       <c r="D24" t="n">
-        <v>8.777888266885526</v>
+        <v>6.974485181851331</v>
       </c>
       <c r="E24" t="n">
-        <v>8.626007929511927</v>
+        <v>6.892306481407709</v>
       </c>
       <c r="F24" t="n">
-        <v>8.811711626551674</v>
+        <v>7.153113417453627</v>
       </c>
       <c r="G24" t="n">
-        <v>8.557938418183804</v>
+        <v>6.806845917659841</v>
       </c>
       <c r="H24" t="n">
-        <v>8.825606108959983</v>
+        <v>7.314638717887745</v>
       </c>
       <c r="I24" t="n">
-        <v>8.523875796683653</v>
+        <v>6.667593716918383</v>
       </c>
       <c r="J24" t="n">
-        <v>8.872171842845813</v>
+        <v>7.221935566727985</v>
       </c>
       <c r="K24" t="n">
-        <v>8.558309322071052</v>
+        <v>6.437083228176378</v>
       </c>
       <c r="L24" t="n">
-        <v>8.795520614893304</v>
+        <v>7.071889760314173</v>
       </c>
       <c r="M24" t="n">
-        <v>8.623650864135191</v>
+        <v>6.809502329499251</v>
       </c>
       <c r="N24" t="n">
-        <v>8.820213589231392</v>
+        <v>7.205260609022822</v>
       </c>
       <c r="O24" t="n">
-        <v>8.61110547254993</v>
+        <v>6.615951103047784</v>
       </c>
       <c r="P24" t="n">
-        <v>8.824628882915084</v>
+        <v>7.289379614516342</v>
       </c>
       <c r="Q24" t="n">
-        <v>8.584622358465875</v>
+        <v>6.797217478873664</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>8.699537222931614</v>
+        <v>6.851756143852783</v>
       </c>
       <c r="B25" t="n">
-        <v>8.728542675627134</v>
+        <v>6.897658659336001</v>
       </c>
       <c r="C25" t="n">
-        <v>8.672528501525475</v>
+        <v>6.834552012043103</v>
       </c>
       <c r="D25" t="n">
-        <v>8.770961204390263</v>
+        <v>6.989576131015216</v>
       </c>
       <c r="E25" t="n">
-        <v>8.626785290249709</v>
+        <v>6.807725766237339</v>
       </c>
       <c r="F25" t="n">
-        <v>8.808268754458384</v>
+        <v>7.095792547587677</v>
       </c>
       <c r="G25" t="n">
-        <v>8.566641207061538</v>
+        <v>6.754818194347974</v>
       </c>
       <c r="H25" t="n">
-        <v>8.823212529729064</v>
+        <v>7.232138155903792</v>
       </c>
       <c r="I25" t="n">
-        <v>8.50320126808772</v>
+        <v>6.611007928212227</v>
       </c>
       <c r="J25" t="n">
-        <v>8.856274863802723</v>
+        <v>7.173302147433141</v>
       </c>
       <c r="K25" t="n">
-        <v>8.52869466454518</v>
+        <v>6.384751212185551</v>
       </c>
       <c r="L25" t="n">
-        <v>8.80078149256865</v>
+        <v>6.997206638886198</v>
       </c>
       <c r="M25" t="n">
-        <v>8.63769524552384</v>
+        <v>6.753642486144976</v>
       </c>
       <c r="N25" t="n">
-        <v>8.822257404174854</v>
+        <v>7.09897180874151</v>
       </c>
       <c r="O25" t="n">
-        <v>8.608928093771421</v>
+        <v>6.502092231778609</v>
       </c>
       <c r="P25" t="n">
-        <v>8.839661060148527</v>
+        <v>7.124675755682846</v>
       </c>
       <c r="Q25" t="n">
-        <v>8.570831652274723</v>
+        <v>6.707632449230164</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>8.727886387142703</v>
+        <v>6.757154150155963</v>
       </c>
       <c r="B26" t="n">
-        <v>8.747935375762992</v>
+        <v>6.79948667300844</v>
       </c>
       <c r="C26" t="n">
-        <v>8.701192837951636</v>
+        <v>6.750656482466233</v>
       </c>
       <c r="D26" t="n">
-        <v>8.769109567626721</v>
+        <v>6.895468876454625</v>
       </c>
       <c r="E26" t="n">
-        <v>8.640690342457914</v>
+        <v>6.753112609286005</v>
       </c>
       <c r="F26" t="n">
-        <v>8.7952861575138</v>
+        <v>7.026007624710147</v>
       </c>
       <c r="G26" t="n">
-        <v>8.562580482119802</v>
+        <v>6.69193994225291</v>
       </c>
       <c r="H26" t="n">
-        <v>8.826866797820268</v>
+        <v>7.143819489787967</v>
       </c>
       <c r="I26" t="n">
-        <v>8.509398053499282</v>
+        <v>6.543436681867538</v>
       </c>
       <c r="J26" t="n">
-        <v>8.861000525246988</v>
+        <v>7.152917348960719</v>
       </c>
       <c r="K26" t="n">
-        <v>8.533291566608897</v>
+        <v>6.370069968868856</v>
       </c>
       <c r="L26" t="n">
-        <v>8.799465072036188</v>
+        <v>6.936334048005333</v>
       </c>
       <c r="M26" t="n">
-        <v>8.641316843324457</v>
+        <v>6.682928521878107</v>
       </c>
       <c r="N26" t="n">
-        <v>8.816715946356824</v>
+        <v>7.0462813879787</v>
       </c>
       <c r="O26" t="n">
-        <v>8.60893193733502</v>
+        <v>6.3915039797424</v>
       </c>
       <c r="P26" t="n">
-        <v>8.830750718836477</v>
+        <v>7.049937116652935</v>
       </c>
       <c r="Q26" t="n">
-        <v>8.567095708457053</v>
+        <v>6.610677633618438</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>8.717134017976107</v>
+        <v>6.62632516431058</v>
       </c>
       <c r="B27" t="n">
-        <v>8.741132268193779</v>
+        <v>6.667200174423655</v>
       </c>
       <c r="C27" t="n">
-        <v>8.689662147156357</v>
+        <v>6.636114533866923</v>
       </c>
       <c r="D27" t="n">
-        <v>8.770140603561998</v>
+        <v>6.789198347789139</v>
       </c>
       <c r="E27" t="n">
-        <v>8.632770679663357</v>
+        <v>6.679515243490803</v>
       </c>
       <c r="F27" t="n">
-        <v>8.79938820076422</v>
+        <v>6.941348903795287</v>
       </c>
       <c r="G27" t="n">
-        <v>8.561382251167993</v>
+        <v>6.601879147843462</v>
       </c>
       <c r="H27" t="n">
-        <v>8.829217136960704</v>
+        <v>7.096096840266636</v>
       </c>
       <c r="I27" t="n">
-        <v>8.503733601646102</v>
+        <v>6.450191004268619</v>
       </c>
       <c r="J27" t="n">
-        <v>8.85176444191997</v>
+        <v>7.153213911340674</v>
       </c>
       <c r="K27" t="n">
-        <v>8.523699953649025</v>
+        <v>6.204769471503175</v>
       </c>
       <c r="L27" t="n">
-        <v>8.790407714416498</v>
+        <v>6.848560719346487</v>
       </c>
       <c r="M27" t="n">
-        <v>8.631139086915825</v>
+        <v>6.582186562509087</v>
       </c>
       <c r="N27" t="n">
-        <v>8.793805424637506</v>
+        <v>6.979411490579972</v>
       </c>
       <c r="O27" t="n">
-        <v>8.600159964312512</v>
+        <v>6.291884319237806</v>
       </c>
       <c r="P27" t="n">
-        <v>8.786945624505217</v>
+        <v>7.064924058157499</v>
       </c>
       <c r="Q27" t="n">
-        <v>8.553774877915808</v>
+        <v>6.396147781180183</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>8.708032459375033</v>
+        <v>6.538740876600095</v>
       </c>
       <c r="B28" t="n">
-        <v>8.735620597993636</v>
+        <v>6.580181604049342</v>
       </c>
       <c r="C28" t="n">
-        <v>8.681410977001436</v>
+        <v>6.550509202701353</v>
       </c>
       <c r="D28" t="n">
-        <v>8.771468554785255</v>
+        <v>6.689401593161918</v>
       </c>
       <c r="E28" t="n">
-        <v>8.627668348986447</v>
+        <v>6.598367483832475</v>
       </c>
       <c r="F28" t="n">
-        <v>8.801285960290944</v>
+        <v>6.850601518283431</v>
       </c>
       <c r="G28" t="n">
-        <v>8.558038350837363</v>
+        <v>6.511374212618536</v>
       </c>
       <c r="H28" t="n">
-        <v>8.836594857287883</v>
+        <v>7.017517648140859</v>
       </c>
       <c r="I28" t="n">
-        <v>8.496185803629693</v>
+        <v>6.334066452636941</v>
       </c>
       <c r="J28" t="n">
-        <v>8.860204907582114</v>
+        <v>7.111939736697232</v>
       </c>
       <c r="K28" t="n">
-        <v>8.51054920079701</v>
+        <v>6.08522110016737</v>
       </c>
       <c r="L28" t="n">
-        <v>8.780599901004216</v>
+        <v>6.753941859542751</v>
       </c>
       <c r="M28" t="n">
-        <v>8.624520470399336</v>
+        <v>6.475169005858073</v>
       </c>
       <c r="N28" t="n">
-        <v>8.748411977649198</v>
+        <v>6.942978591376131</v>
       </c>
       <c r="O28" t="n">
-        <v>8.601698350642781</v>
+        <v>6.158864847756592</v>
       </c>
       <c r="P28" t="n">
-        <v>8.710221368844337</v>
+        <v>7.070914337130813</v>
       </c>
       <c r="Q28" t="n">
-        <v>8.573529833920817</v>
+        <v>6.1179729715366</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>8.185831495529396</v>
+        <v>6.430740166466719</v>
       </c>
       <c r="B29" t="n">
-        <v>8.213821286544032</v>
+        <v>6.467558877866283</v>
       </c>
       <c r="C29" t="n">
-        <v>8.20227906505796</v>
+        <v>6.438143684648777</v>
       </c>
       <c r="D29" t="n">
-        <v>8.362465343367758</v>
+        <v>6.566006343940153</v>
       </c>
       <c r="E29" t="n">
-        <v>8.237119047295892</v>
+        <v>6.477455768854221</v>
       </c>
       <c r="F29" t="n">
-        <v>8.45407379906354</v>
+        <v>6.755476675272188</v>
       </c>
       <c r="G29" t="n">
-        <v>8.167253630876404</v>
+        <v>6.390487796800658</v>
       </c>
       <c r="H29" t="n">
-        <v>8.491211271442431</v>
+        <v>7.010976409674926</v>
       </c>
       <c r="I29" t="n">
-        <v>8.018414993645509</v>
+        <v>6.196159323922104</v>
       </c>
       <c r="J29" t="n">
-        <v>8.502293226187591</v>
+        <v>7.04210843202568</v>
       </c>
       <c r="K29" t="n">
-        <v>7.990372834076843</v>
+        <v>6.032134325892013</v>
       </c>
       <c r="L29" t="n">
-        <v>8.420655935357026</v>
+        <v>6.695141691549298</v>
       </c>
       <c r="M29" t="n">
-        <v>8.223049682743852</v>
+        <v>6.397739520020465</v>
       </c>
       <c r="N29" t="n">
-        <v>8.211840890399943</v>
+        <v>6.856005700041384</v>
       </c>
       <c r="O29" t="n">
-        <v>7.944150618687623</v>
+        <v>6.037473151485663</v>
       </c>
       <c r="P29" t="n">
-        <v>8.233906789018507</v>
+        <v>7.06101533787951</v>
       </c>
       <c r="Q29" t="n">
-        <v>8.002901890516812</v>
+        <v>5.868586498136779</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>8.768810730556943</v>
+        <v>6.413162872041503</v>
       </c>
       <c r="B30" t="n">
-        <v>8.792322769979414</v>
+        <v>6.430362084569998</v>
       </c>
       <c r="C30" t="n">
-        <v>8.763281764320608</v>
+        <v>6.409109384345811</v>
       </c>
       <c r="D30" t="n">
-        <v>8.84939776763424</v>
+        <v>6.472059317395273</v>
       </c>
       <c r="E30" t="n">
-        <v>8.781359004814904</v>
+        <v>6.422287435883539</v>
       </c>
       <c r="F30" t="n">
-        <v>9.110332495876877</v>
+        <v>6.662848718839099</v>
       </c>
       <c r="G30" t="n">
-        <v>8.611693537780489</v>
+        <v>6.298192945979177</v>
       </c>
       <c r="H30" t="n">
-        <v>9.496284895503715</v>
+        <v>6.94515572467732</v>
       </c>
       <c r="I30" t="n">
-        <v>8.235473041184864</v>
+        <v>6.023147501923131</v>
       </c>
       <c r="J30" t="n">
-        <v>9.584140111345635</v>
+        <v>7.009218820783295</v>
       </c>
       <c r="K30" t="n">
-        <v>7.808884084968219</v>
+        <v>5.711151580007233</v>
       </c>
       <c r="L30" t="n">
-        <v>9.019573467736347</v>
+        <v>6.596485507402332</v>
       </c>
       <c r="M30" t="n">
-        <v>8.613801732414226</v>
+        <v>6.299766413203632</v>
       </c>
       <c r="N30" t="n">
-        <v>9.271914948663802</v>
+        <v>6.780928333364225</v>
       </c>
       <c r="O30" t="n">
-        <v>8.127849416865342</v>
+        <v>5.944550038181528</v>
       </c>
       <c r="P30" t="n">
-        <v>9.612903419534456</v>
+        <v>7.030099061146402</v>
       </c>
       <c r="Q30" t="n">
-        <v>7.806885912342487</v>
+        <v>5.70976012618659</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>8.528617793273211</v>
+        <v>6.237460203234831</v>
       </c>
       <c r="B31" t="n">
-        <v>8.584827028227492</v>
+        <v>6.278544634175459</v>
       </c>
       <c r="C31" t="n">
-        <v>8.530906635396073</v>
+        <v>6.239155949734434</v>
       </c>
       <c r="D31" t="n">
-        <v>8.748515753866355</v>
+        <v>6.398209662750772</v>
       </c>
       <c r="E31" t="n">
-        <v>8.568692709132199</v>
+        <v>6.266837447711774</v>
       </c>
       <c r="F31" t="n">
-        <v>8.942706039331426</v>
+        <v>6.540243365624607</v>
       </c>
       <c r="G31" t="n">
-        <v>8.466289605070237</v>
+        <v>6.191901334680045</v>
       </c>
       <c r="H31" t="n">
-        <v>9.334268120030167</v>
+        <v>6.826650240952541</v>
       </c>
       <c r="I31" t="n">
-        <v>8.082057200153695</v>
+        <v>5.911003351523839</v>
       </c>
       <c r="J31" t="n">
-        <v>9.572011746410801</v>
+        <v>7.00065997427743</v>
       </c>
       <c r="K31" t="n">
-        <v>7.646941298093941</v>
+        <v>5.592901196149573</v>
       </c>
       <c r="L31" t="n">
-        <v>8.855888585661081</v>
+        <v>6.476762150207264</v>
       </c>
       <c r="M31" t="n">
-        <v>8.472291329629179</v>
+        <v>6.196272467389338</v>
       </c>
       <c r="N31" t="n">
-        <v>9.152561729132783</v>
+        <v>6.693624444681234</v>
       </c>
       <c r="O31" t="n">
-        <v>7.985986847565589</v>
+        <v>5.840633736939857</v>
       </c>
       <c r="P31" t="n">
-        <v>9.562499887395598</v>
+        <v>6.993385762915068</v>
       </c>
       <c r="Q31" t="n">
-        <v>7.621364304128216</v>
+        <v>5.573808763119657</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>7.659342556044262</v>
+        <v>5.601737279287885</v>
       </c>
       <c r="B32" t="n">
-        <v>7.710901559489897</v>
+        <v>5.639442866809496</v>
       </c>
       <c r="C32" t="n">
-        <v>7.676808189480959</v>
+        <v>5.614519328690293</v>
       </c>
       <c r="D32" t="n">
-        <v>7.87432171612232</v>
+        <v>5.758965938984925</v>
       </c>
       <c r="E32" t="n">
-        <v>7.747050275133092</v>
+        <v>5.665904031675955</v>
       </c>
       <c r="F32" t="n">
-        <v>8.082822069309781</v>
+        <v>5.911413057371029</v>
       </c>
       <c r="G32" t="n">
-        <v>7.64601547971217</v>
+        <v>5.592002021824567</v>
       </c>
       <c r="H32" t="n">
-        <v>8.327952064035692</v>
+        <v>6.090656203121337</v>
       </c>
       <c r="I32" t="n">
-        <v>7.445215706194155</v>
+        <v>5.445070120400286</v>
       </c>
       <c r="J32" t="n">
-        <v>8.382399985970993</v>
+        <v>6.130337936170043</v>
       </c>
       <c r="K32" t="n">
-        <v>7.152450025565703</v>
+        <v>5.230865994651863</v>
       </c>
       <c r="L32" t="n">
-        <v>8.057655856203638</v>
+        <v>5.893037785262308</v>
       </c>
       <c r="M32" t="n">
-        <v>7.694391532052858</v>
+        <v>5.627366734257005</v>
       </c>
       <c r="N32" t="n">
-        <v>8.352547027502018</v>
+        <v>6.1088462994312</v>
       </c>
       <c r="O32" t="n">
-        <v>7.329504263172643</v>
+        <v>5.36049994654674</v>
       </c>
       <c r="P32" t="n">
-        <v>8.775673413361933</v>
+        <v>6.41853894362126</v>
       </c>
       <c r="Q32" t="n">
-        <v>7.362400843566121</v>
+        <v>5.384547852615174</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>7.636586257314332</v>
+        <v>5.58508586385696</v>
       </c>
       <c r="B33" t="n">
-        <v>7.693791936131504</v>
+        <v>5.626924350327664</v>
       </c>
       <c r="C33" t="n">
-        <v>7.645837234450293</v>
+        <v>5.591862876442502</v>
       </c>
       <c r="D33" t="n">
-        <v>7.856317983781843</v>
+        <v>5.745805456308569</v>
       </c>
       <c r="E33" t="n">
-        <v>7.691200413375265</v>
+        <v>5.625094729104409</v>
       </c>
       <c r="F33" t="n">
-        <v>8.045388162088361</v>
+        <v>5.884063962250842</v>
       </c>
       <c r="G33" t="n">
-        <v>7.62186444784146</v>
+        <v>5.574371318060781</v>
       </c>
       <c r="H33" t="n">
-        <v>8.294157531096532</v>
+        <v>6.065944545470278</v>
       </c>
       <c r="I33" t="n">
-        <v>7.477590042383697</v>
+        <v>5.468865737619421</v>
       </c>
       <c r="J33" t="n">
-        <v>8.335991838192699</v>
+        <v>6.096625399461005</v>
       </c>
       <c r="K33" t="n">
-        <v>7.210397512157372</v>
+        <v>5.27331903989335</v>
       </c>
       <c r="L33" t="n">
-        <v>8.030148912866053</v>
+        <v>5.872871894802578</v>
       </c>
       <c r="M33" t="n">
-        <v>7.679638974071199</v>
+        <v>5.616570317566832</v>
       </c>
       <c r="N33" t="n">
-        <v>8.312295307717504</v>
+        <v>6.07923433496633</v>
       </c>
       <c r="O33" t="n">
-        <v>7.322981735746114</v>
+        <v>5.355831197325808</v>
       </c>
       <c r="P33" t="n">
-        <v>8.718973163157953</v>
+        <v>6.376702565413922</v>
       </c>
       <c r="Q33" t="n">
-        <v>7.359552762939687</v>
+        <v>5.382528487689104</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>7.64699270575707</v>
+        <v>5.592689315681429</v>
       </c>
       <c r="B34" t="n">
-        <v>7.690946257732319</v>
+        <v>5.624816438340281</v>
       </c>
       <c r="C34" t="n">
-        <v>7.641413773193954</v>
+        <v>5.588614042597637</v>
       </c>
       <c r="D34" t="n">
-        <v>7.817928470560765</v>
+        <v>5.717645382547462</v>
       </c>
       <c r="E34" t="n">
-        <v>7.666089451495849</v>
+        <v>5.606660074244251</v>
       </c>
       <c r="F34" t="n">
-        <v>8.027527122046477</v>
+        <v>5.871013109269446</v>
       </c>
       <c r="G34" t="n">
-        <v>7.598386520045926</v>
+        <v>5.557096910805614</v>
       </c>
       <c r="H34" t="n">
-        <v>8.263805870250662</v>
+        <v>6.043893516185357</v>
       </c>
       <c r="I34" t="n">
-        <v>7.51489182710642</v>
+        <v>5.495989599936823</v>
       </c>
       <c r="J34" t="n">
-        <v>8.257476481894953</v>
+        <v>6.03916538421299</v>
       </c>
       <c r="K34" t="n">
-        <v>7.328689908135226</v>
+        <v>5.359786299397818</v>
       </c>
       <c r="L34" t="n">
-        <v>7.999781877765789</v>
+        <v>5.850730210192979</v>
       </c>
       <c r="M34" t="n">
-        <v>7.649747579966242</v>
+        <v>5.594691111746128</v>
       </c>
       <c r="N34" t="n">
-        <v>8.288087583283717</v>
+        <v>6.061583954077808</v>
       </c>
       <c r="O34" t="n">
-        <v>7.322048230237146</v>
+        <v>5.355067654610592</v>
       </c>
       <c r="P34" t="n">
-        <v>8.596412489804047</v>
+        <v>6.287229273728745</v>
       </c>
       <c r="Q34" t="n">
-        <v>7.353633194552661</v>
+        <v>5.378088133666005</v>
       </c>
     </row>
   </sheetData>
@@ -5954,1751 +5954,1751 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.763637774398912</v>
+        <v>2.411897914022736</v>
       </c>
       <c r="B2" t="n">
-        <v>2.731451052157518</v>
+        <v>2.380353023429746</v>
       </c>
       <c r="C2" t="n">
-        <v>2.7294192483503</v>
+        <v>2.378217001264167</v>
       </c>
       <c r="D2" t="n">
-        <v>2.73379082149806</v>
+        <v>2.409047190576555</v>
       </c>
       <c r="E2" t="n">
-        <v>2.726214436977388</v>
+        <v>2.413401105801704</v>
       </c>
       <c r="F2" t="n">
-        <v>2.912477372520706</v>
+        <v>2.645721538642227</v>
       </c>
       <c r="G2" t="n">
-        <v>2.908846165811093</v>
+        <v>2.641014137926279</v>
       </c>
       <c r="H2" t="n">
-        <v>3.168396730712848</v>
+        <v>2.940429700968317</v>
       </c>
       <c r="I2" t="n">
-        <v>3.175730970726819</v>
+        <v>2.883469344137715</v>
       </c>
       <c r="J2" t="n">
-        <v>3.371544441144051</v>
+        <v>3.118211468829721</v>
       </c>
       <c r="K2" t="n">
-        <v>3.400433866263445</v>
+        <v>2.887501046445305</v>
       </c>
       <c r="L2" t="n">
-        <v>3.39200853463297</v>
+        <v>3.112265463387064</v>
       </c>
       <c r="M2" t="n">
-        <v>3.396106494097067</v>
+        <v>3.090921405083743</v>
       </c>
       <c r="N2" t="n">
-        <v>3.721213600401748</v>
+        <v>3.359857804663601</v>
       </c>
       <c r="O2" t="n">
-        <v>3.728692454496111</v>
+        <v>3.324169122427469</v>
       </c>
       <c r="P2" t="n">
-        <v>4.021352437125605</v>
+        <v>3.725882543201611</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.03777406259988</v>
+        <v>3.679822610720501</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.757337212770192</v>
+        <v>2.524386062727687</v>
       </c>
       <c r="B3" t="n">
-        <v>2.726267526199591</v>
+        <v>2.489941255876674</v>
       </c>
       <c r="C3" t="n">
-        <v>2.724697190246909</v>
+        <v>2.49142547328536</v>
       </c>
       <c r="D3" t="n">
-        <v>2.740491594186466</v>
+        <v>2.484960132300554</v>
       </c>
       <c r="E3" t="n">
-        <v>2.735294375533219</v>
+        <v>2.487817180536829</v>
       </c>
       <c r="F3" t="n">
-        <v>2.93018298845958</v>
+        <v>2.6767065096233</v>
       </c>
       <c r="G3" t="n">
-        <v>2.930032128588342</v>
+        <v>2.674422733333585</v>
       </c>
       <c r="H3" t="n">
-        <v>3.183319606606461</v>
+        <v>2.975300025641753</v>
       </c>
       <c r="I3" t="n">
-        <v>3.193601379454976</v>
+        <v>2.923085545333504</v>
       </c>
       <c r="J3" t="n">
-        <v>3.379236132572676</v>
+        <v>3.172271558025074</v>
       </c>
       <c r="K3" t="n">
-        <v>3.399351662887763</v>
+        <v>2.938875208114144</v>
       </c>
       <c r="L3" t="n">
-        <v>3.407946831984743</v>
+        <v>3.124171529361476</v>
       </c>
       <c r="M3" t="n">
-        <v>3.412454611417522</v>
+        <v>3.110051084099767</v>
       </c>
       <c r="N3" t="n">
-        <v>3.734482302611689</v>
+        <v>3.367433849064331</v>
       </c>
       <c r="O3" t="n">
-        <v>3.74213651929523</v>
+        <v>3.342019788335629</v>
       </c>
       <c r="P3" t="n">
-        <v>4.023721994084035</v>
+        <v>3.703118569522224</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.040789338242845</v>
+        <v>3.692063890569887</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.770573725134996</v>
+        <v>2.465935163698305</v>
       </c>
       <c r="B4" t="n">
-        <v>2.737630781755612</v>
+        <v>2.439242089861739</v>
       </c>
       <c r="C4" t="n">
-        <v>2.736115456806933</v>
+        <v>2.434406787835004</v>
       </c>
       <c r="D4" t="n">
-        <v>2.739255408044122</v>
+        <v>2.465264560259745</v>
       </c>
       <c r="E4" t="n">
-        <v>2.733730765816835</v>
+        <v>2.459042548004937</v>
       </c>
       <c r="F4" t="n">
-        <v>2.917756266900419</v>
+        <v>2.674872144807475</v>
       </c>
       <c r="G4" t="n">
-        <v>2.917533580434436</v>
+        <v>2.666657999361723</v>
       </c>
       <c r="H4" t="n">
-        <v>3.175416038734473</v>
+        <v>2.960138449655154</v>
       </c>
       <c r="I4" t="n">
-        <v>3.185769157732283</v>
+        <v>2.901077384070331</v>
       </c>
       <c r="J4" t="n">
-        <v>3.378574799411022</v>
+        <v>3.165217308807086</v>
       </c>
       <c r="K4" t="n">
-        <v>3.397765232012513</v>
+        <v>2.930657373207504</v>
       </c>
       <c r="L4" t="n">
-        <v>3.39672122405009</v>
+        <v>3.121303237053923</v>
       </c>
       <c r="M4" t="n">
-        <v>3.402748652440597</v>
+        <v>3.104722799822941</v>
       </c>
       <c r="N4" t="n">
-        <v>3.72211347472923</v>
+        <v>3.373926948850105</v>
       </c>
       <c r="O4" t="n">
-        <v>3.731896064755399</v>
+        <v>3.357242152582574</v>
       </c>
       <c r="P4" t="n">
-        <v>4.010334862070717</v>
+        <v>3.71832863556621</v>
       </c>
       <c r="Q4" t="n">
-        <v>4.029934634195441</v>
+        <v>3.699862708132811</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.770046916699287</v>
+        <v>2.435600767653829</v>
       </c>
       <c r="B5" t="n">
-        <v>2.737190693723593</v>
+        <v>2.407030636668305</v>
       </c>
       <c r="C5" t="n">
-        <v>2.735766653410376</v>
+        <v>2.402314802898897</v>
       </c>
       <c r="D5" t="n">
-        <v>2.744897519183886</v>
+        <v>2.436713403644502</v>
       </c>
       <c r="E5" t="n">
-        <v>2.740915347073192</v>
+        <v>2.43260176301767</v>
       </c>
       <c r="F5" t="n">
-        <v>2.926737954361766</v>
+        <v>2.670679511729718</v>
       </c>
       <c r="G5" t="n">
-        <v>2.926515988563957</v>
+        <v>2.651295611289645</v>
       </c>
       <c r="H5" t="n">
-        <v>3.179726355087383</v>
+        <v>2.94717087307666</v>
       </c>
       <c r="I5" t="n">
-        <v>3.188052234509748</v>
+        <v>2.879216274176839</v>
       </c>
       <c r="J5" t="n">
-        <v>3.383638694451948</v>
+        <v>3.15974636537592</v>
       </c>
       <c r="K5" t="n">
-        <v>3.404173413421988</v>
+        <v>2.929860273967067</v>
       </c>
       <c r="L5" t="n">
-        <v>3.398031158568979</v>
+        <v>3.123482829995703</v>
       </c>
       <c r="M5" t="n">
-        <v>3.402285503026986</v>
+        <v>3.099721647744857</v>
       </c>
       <c r="N5" t="n">
-        <v>3.726344757805647</v>
+        <v>3.416597496595374</v>
       </c>
       <c r="O5" t="n">
-        <v>3.733111831966126</v>
+        <v>3.355755826910523</v>
       </c>
       <c r="P5" t="n">
-        <v>4.012056298117362</v>
+        <v>3.70846336852874</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.026921520557</v>
+        <v>3.712814121358842</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.766178850382921</v>
+        <v>2.394886512622305</v>
       </c>
       <c r="B6" t="n">
-        <v>2.732624780391388</v>
+        <v>2.368236833873327</v>
       </c>
       <c r="C6" t="n">
-        <v>2.731078706933921</v>
+        <v>2.362080704848663</v>
       </c>
       <c r="D6" t="n">
-        <v>2.737410017071428</v>
+        <v>2.41370574985789</v>
       </c>
       <c r="E6" t="n">
-        <v>2.733360582597761</v>
+        <v>2.40591273001922</v>
       </c>
       <c r="F6" t="n">
-        <v>2.917627987965322</v>
+        <v>2.661061965637591</v>
       </c>
       <c r="G6" t="n">
-        <v>2.916866962372834</v>
+        <v>2.641359541740847</v>
       </c>
       <c r="H6" t="n">
-        <v>3.169268739204241</v>
+        <v>2.94308347747852</v>
       </c>
       <c r="I6" t="n">
-        <v>3.177205457812265</v>
+        <v>2.873512719021112</v>
       </c>
       <c r="J6" t="n">
-        <v>3.37779936045504</v>
+        <v>3.14224777944965</v>
       </c>
       <c r="K6" t="n">
-        <v>3.400540765376026</v>
+        <v>2.926093510088962</v>
       </c>
       <c r="L6" t="n">
-        <v>3.389794161554827</v>
+        <v>3.115754639255495</v>
       </c>
       <c r="M6" t="n">
-        <v>3.393833266451323</v>
+        <v>3.093831159904134</v>
       </c>
       <c r="N6" t="n">
-        <v>3.722146145019817</v>
+        <v>3.402264468111067</v>
       </c>
       <c r="O6" t="n">
-        <v>3.728825297662981</v>
+        <v>3.35082038237397</v>
       </c>
       <c r="P6" t="n">
-        <v>4.015207299599897</v>
+        <v>3.706587365511464</v>
       </c>
       <c r="Q6" t="n">
-        <v>4.029768159847084</v>
+        <v>3.719106584747751</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.761628071082385</v>
+        <v>2.381023626868306</v>
       </c>
       <c r="B7" t="n">
-        <v>2.728773529665765</v>
+        <v>2.354811061390258</v>
       </c>
       <c r="C7" t="n">
-        <v>2.726841418289381</v>
+        <v>2.347858535879612</v>
       </c>
       <c r="D7" t="n">
-        <v>2.737753055122587</v>
+        <v>2.398792070505246</v>
       </c>
       <c r="E7" t="n">
-        <v>2.732870288016237</v>
+        <v>2.389645545586496</v>
       </c>
       <c r="F7" t="n">
-        <v>2.920229119630557</v>
+        <v>2.646084862695395</v>
       </c>
       <c r="G7" t="n">
-        <v>2.918632839623585</v>
+        <v>2.621615655331266</v>
       </c>
       <c r="H7" t="n">
-        <v>3.174129165597175</v>
+        <v>2.930599395964977</v>
       </c>
       <c r="I7" t="n">
-        <v>3.181361551175788</v>
+        <v>2.862247916486769</v>
       </c>
       <c r="J7" t="n">
-        <v>3.387270381607011</v>
+        <v>3.141578757208614</v>
       </c>
       <c r="K7" t="n">
-        <v>3.405618353112271</v>
+        <v>2.917338243712961</v>
       </c>
       <c r="L7" t="n">
-        <v>3.393678563016486</v>
+        <v>3.120637728585161</v>
       </c>
       <c r="M7" t="n">
-        <v>3.397439730220271</v>
+        <v>3.095484389759216</v>
       </c>
       <c r="N7" t="n">
-        <v>3.720352161710251</v>
+        <v>3.423329884273032</v>
       </c>
       <c r="O7" t="n">
-        <v>3.727023627226219</v>
+        <v>3.353003840465251</v>
       </c>
       <c r="P7" t="n">
-        <v>4.014110923083446</v>
+        <v>3.698666971427849</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.028476001809838</v>
+        <v>3.723961563899223</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.765727712105556</v>
+        <v>2.360259165301639</v>
       </c>
       <c r="B8" t="n">
-        <v>2.732655528900175</v>
+        <v>2.335589497229259</v>
       </c>
       <c r="C8" t="n">
-        <v>2.731529845211286</v>
+        <v>2.327559122073456</v>
       </c>
       <c r="D8" t="n">
-        <v>2.740899972818799</v>
+        <v>2.389952122217433</v>
       </c>
       <c r="E8" t="n">
-        <v>2.737853227998872</v>
+        <v>2.374012421360678</v>
       </c>
       <c r="F8" t="n">
-        <v>2.920339862306736</v>
+        <v>2.641534878977338</v>
       </c>
       <c r="G8" t="n">
-        <v>2.92023416430778</v>
+        <v>2.61595988747847</v>
       </c>
       <c r="H8" t="n">
-        <v>3.170189032463339</v>
+        <v>2.926697176165696</v>
       </c>
       <c r="I8" t="n">
-        <v>3.177935014227792</v>
+        <v>2.849417552715588</v>
       </c>
       <c r="J8" t="n">
-        <v>3.38855437207161</v>
+        <v>3.127828312167394</v>
       </c>
       <c r="K8" t="n">
-        <v>3.407696760128121</v>
+        <v>2.892606381871325</v>
       </c>
       <c r="L8" t="n">
-        <v>3.389201532092495</v>
+        <v>3.117760300469695</v>
       </c>
       <c r="M8" t="n">
-        <v>3.393678322793761</v>
+        <v>3.094284085150298</v>
       </c>
       <c r="N8" t="n">
-        <v>3.717467327006908</v>
+        <v>3.431380990685253</v>
       </c>
       <c r="O8" t="n">
-        <v>3.724364121438833</v>
+        <v>3.357157470670762</v>
       </c>
       <c r="P8" t="n">
-        <v>4.013167568442757</v>
+        <v>3.688909928576429</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.029186580630097</v>
+        <v>3.719287192642653</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.767273545340298</v>
+        <v>2.359505636837405</v>
       </c>
       <c r="B9" t="n">
-        <v>2.733994770591502</v>
+        <v>2.331471004746491</v>
       </c>
       <c r="C9" t="n">
-        <v>2.733104745395741</v>
+        <v>2.325381286017813</v>
       </c>
       <c r="D9" t="n">
-        <v>2.74026098037056</v>
+        <v>2.376340998246891</v>
       </c>
       <c r="E9" t="n">
-        <v>2.737878211162261</v>
+        <v>2.366551980067775</v>
       </c>
       <c r="F9" t="n">
-        <v>2.921421585236968</v>
+        <v>2.618147210719254</v>
       </c>
       <c r="G9" t="n">
-        <v>2.921372579801088</v>
+        <v>2.611777795717537</v>
       </c>
       <c r="H9" t="n">
-        <v>3.172560991649017</v>
+        <v>2.904670743286696</v>
       </c>
       <c r="I9" t="n">
-        <v>3.180630793646638</v>
+        <v>2.845111951859212</v>
       </c>
       <c r="J9" t="n">
-        <v>3.38555062711944</v>
+        <v>3.120727329778157</v>
       </c>
       <c r="K9" t="n">
-        <v>3.41071275643926</v>
+        <v>2.900958794256072</v>
       </c>
       <c r="L9" t="n">
-        <v>3.396585738433246</v>
+        <v>3.102617698853377</v>
       </c>
       <c r="M9" t="n">
-        <v>3.40130010940944</v>
+        <v>3.089497624558176</v>
       </c>
       <c r="N9" t="n">
-        <v>3.72110045549832</v>
+        <v>3.381309384398517</v>
       </c>
       <c r="O9" t="n">
-        <v>3.727782250591458</v>
+        <v>3.353089576508746</v>
       </c>
       <c r="P9" t="n">
-        <v>4.012444257818078</v>
+        <v>3.683847988237999</v>
       </c>
       <c r="Q9" t="n">
-        <v>4.028410661228665</v>
+        <v>3.708010091905349</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.773486665897153</v>
+        <v>2.359289012776691</v>
       </c>
       <c r="B10" t="n">
-        <v>2.740080573104159</v>
+        <v>2.333027430175415</v>
       </c>
       <c r="C10" t="n">
-        <v>2.73969933963974</v>
+        <v>2.326139206697391</v>
       </c>
       <c r="D10" t="n">
-        <v>2.747505617308144</v>
+        <v>2.379657296519424</v>
       </c>
       <c r="E10" t="n">
-        <v>2.746401553664496</v>
+        <v>2.3674898058878</v>
       </c>
       <c r="F10" t="n">
-        <v>2.926691351153135</v>
+        <v>2.616803368512929</v>
       </c>
       <c r="G10" t="n">
-        <v>2.930307423831079</v>
+        <v>2.606262227378488</v>
       </c>
       <c r="H10" t="n">
-        <v>3.174321343777097</v>
+        <v>2.900035726279599</v>
       </c>
       <c r="I10" t="n">
-        <v>3.18893889658736</v>
+        <v>2.846206667611286</v>
       </c>
       <c r="J10" t="n">
-        <v>3.391094727387444</v>
+        <v>3.108285413531906</v>
       </c>
       <c r="K10" t="n">
-        <v>3.418915641826476</v>
+        <v>2.887847855768784</v>
       </c>
       <c r="L10" t="n">
-        <v>3.397522607060362</v>
+        <v>3.10754365620479</v>
       </c>
       <c r="M10" t="n">
-        <v>3.403713146681077</v>
+        <v>3.090310008708006</v>
       </c>
       <c r="N10" t="n">
-        <v>3.722537227615956</v>
+        <v>3.405870652596234</v>
       </c>
       <c r="O10" t="n">
-        <v>3.730873436615493</v>
+        <v>3.357875334346412</v>
       </c>
       <c r="P10" t="n">
-        <v>4.011750975034013</v>
+        <v>3.67773086208558</v>
       </c>
       <c r="Q10" t="n">
-        <v>4.029504395295142</v>
+        <v>3.704856129911891</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.776144970570915</v>
+        <v>2.381549638577776</v>
       </c>
       <c r="B11" t="n">
-        <v>2.743089602956277</v>
+        <v>2.352691905331596</v>
       </c>
       <c r="C11" t="n">
-        <v>2.743626500746432</v>
+        <v>2.349467667892651</v>
       </c>
       <c r="D11" t="n">
-        <v>2.75184860395164</v>
+        <v>2.388578061569548</v>
       </c>
       <c r="E11" t="n">
-        <v>2.753273845378481</v>
+        <v>2.389523090622734</v>
       </c>
       <c r="F11" t="n">
-        <v>2.928841824986455</v>
+        <v>2.627006133377349</v>
       </c>
       <c r="G11" t="n">
-        <v>2.935367475308407</v>
+        <v>2.612871457337929</v>
       </c>
       <c r="H11" t="n">
-        <v>3.173326341250554</v>
+        <v>2.902346382927213</v>
       </c>
       <c r="I11" t="n">
-        <v>3.190745611701345</v>
+        <v>2.840102191039055</v>
       </c>
       <c r="J11" t="n">
-        <v>3.395584490115856</v>
+        <v>3.116776444232876</v>
       </c>
       <c r="K11" t="n">
-        <v>3.42380153182825</v>
+        <v>2.850844671324816</v>
       </c>
       <c r="L11" t="n">
-        <v>3.391794496185083</v>
+        <v>3.115254980838082</v>
       </c>
       <c r="M11" t="n">
-        <v>3.398772966343475</v>
+        <v>3.090152943087343</v>
       </c>
       <c r="N11" t="n">
-        <v>3.715869845886312</v>
+        <v>3.438657661688208</v>
       </c>
       <c r="O11" t="n">
-        <v>3.72519024738977</v>
+        <v>3.358692286400199</v>
       </c>
       <c r="P11" t="n">
-        <v>4.005020414727719</v>
+        <v>3.700253790986946</v>
       </c>
       <c r="Q11" t="n">
-        <v>4.023873814846173</v>
+        <v>3.714529544983181</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.775932373459376</v>
+        <v>2.371224418749594</v>
       </c>
       <c r="B12" t="n">
-        <v>2.742310320436696</v>
+        <v>2.345765557424394</v>
       </c>
       <c r="C12" t="n">
-        <v>2.74313140171041</v>
+        <v>2.339094660761538</v>
       </c>
       <c r="D12" t="n">
-        <v>2.749671225173131</v>
+        <v>2.391577768960162</v>
       </c>
       <c r="E12" t="n">
-        <v>2.751641772185499</v>
+        <v>2.384157384671186</v>
       </c>
       <c r="F12" t="n">
-        <v>2.924571625828603</v>
+        <v>2.64020842994377</v>
       </c>
       <c r="G12" t="n">
-        <v>2.933428157250276</v>
+        <v>2.611851233558071</v>
       </c>
       <c r="H12" t="n">
-        <v>3.166340183964965</v>
+        <v>2.935792048632014</v>
       </c>
       <c r="I12" t="n">
-        <v>3.19011118348488</v>
+        <v>2.843498076253602</v>
       </c>
       <c r="J12" t="n">
-        <v>3.390270282995582</v>
+        <v>3.153805279214447</v>
       </c>
       <c r="K12" t="n">
-        <v>3.425312052322431</v>
+        <v>2.869242431576093</v>
       </c>
       <c r="L12" t="n">
-        <v>3.391600876668812</v>
+        <v>3.11632387036394</v>
       </c>
       <c r="M12" t="n">
-        <v>3.400253218774319</v>
+        <v>3.084153879683342</v>
       </c>
       <c r="N12" t="n">
-        <v>3.711339005071943</v>
+        <v>3.429101606610881</v>
       </c>
       <c r="O12" t="n">
-        <v>3.722742137600298</v>
+        <v>3.350213202524962</v>
       </c>
       <c r="P12" t="n">
-        <v>4.00003723452236</v>
+        <v>3.705493176825231</v>
       </c>
       <c r="Q12" t="n">
-        <v>4.021545576196426</v>
+        <v>3.700300172780967</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.774612349586042</v>
+        <v>2.411612244336831</v>
       </c>
       <c r="B13" t="n">
-        <v>2.741000385917808</v>
+        <v>2.384900898884439</v>
       </c>
       <c r="C13" t="n">
-        <v>2.7420566452392</v>
+        <v>2.378343145688817</v>
       </c>
       <c r="D13" t="n">
-        <v>2.74836849733599</v>
+        <v>2.420936214755437</v>
       </c>
       <c r="E13" t="n">
-        <v>2.750536747650952</v>
+        <v>2.412306917115471</v>
       </c>
       <c r="F13" t="n">
-        <v>2.924010465543233</v>
+        <v>2.671376819837564</v>
       </c>
       <c r="G13" t="n">
-        <v>2.933720027861032</v>
+        <v>2.631516938534548</v>
       </c>
       <c r="H13" t="n">
-        <v>3.166049514467834</v>
+        <v>2.987234904548815</v>
       </c>
       <c r="I13" t="n">
-        <v>3.193221827549631</v>
+        <v>2.873675230988801</v>
       </c>
       <c r="J13" t="n">
-        <v>3.387916820959721</v>
+        <v>3.208777895069448</v>
       </c>
       <c r="K13" t="n">
-        <v>3.433596132990663</v>
+        <v>2.952639005490006</v>
       </c>
       <c r="L13" t="n">
-        <v>3.392818085215889</v>
+        <v>3.137817615366148</v>
       </c>
       <c r="M13" t="n">
-        <v>3.402011649120599</v>
+        <v>3.100046671680234</v>
       </c>
       <c r="N13" t="n">
-        <v>3.709181324556876</v>
+        <v>3.444576259707125</v>
       </c>
       <c r="O13" t="n">
-        <v>3.721200628374604</v>
+        <v>3.352230107810439</v>
       </c>
       <c r="P13" t="n">
-        <v>3.999539012590914</v>
+        <v>3.709887149054308</v>
       </c>
       <c r="Q13" t="n">
-        <v>4.021546056641876</v>
+        <v>3.705019168945421</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.758715610765678</v>
+        <v>2.415504801262358</v>
       </c>
       <c r="B14" t="n">
-        <v>2.724220107915255</v>
+        <v>2.388612496537836</v>
       </c>
       <c r="C14" t="n">
-        <v>2.727040803151049</v>
+        <v>2.381475322294174</v>
       </c>
       <c r="D14" t="n">
-        <v>2.733292599566614</v>
+        <v>2.433438040818965</v>
       </c>
       <c r="E14" t="n">
-        <v>2.740770252547352</v>
+        <v>2.420551632380009</v>
       </c>
       <c r="F14" t="n">
-        <v>2.909821950519644</v>
+        <v>2.686767142399223</v>
       </c>
       <c r="G14" t="n">
-        <v>2.929259572305059</v>
+        <v>2.652449358415928</v>
       </c>
       <c r="H14" t="n">
-        <v>3.147961704173642</v>
+        <v>3.013071672082122</v>
       </c>
       <c r="I14" t="n">
-        <v>3.190187574311399</v>
+        <v>2.904473796350719</v>
       </c>
       <c r="J14" t="n">
-        <v>3.377926198053788</v>
+        <v>3.234990987613338</v>
       </c>
       <c r="K14" t="n">
-        <v>3.430998364443577</v>
+        <v>2.992703739716616</v>
       </c>
       <c r="L14" t="n">
-        <v>3.381831498892513</v>
+        <v>3.141820856118316</v>
       </c>
       <c r="M14" t="n">
-        <v>3.394229874170136</v>
+        <v>3.111370856966014</v>
       </c>
       <c r="N14" t="n">
-        <v>3.708421740300737</v>
+        <v>3.423956741246776</v>
       </c>
       <c r="O14" t="n">
-        <v>3.723697503377231</v>
+        <v>3.352267353796547</v>
       </c>
       <c r="P14" t="n">
-        <v>3.999337946170171</v>
+        <v>3.709541745239739</v>
       </c>
       <c r="Q14" t="n">
-        <v>4.023987920640501</v>
+        <v>3.707569113484918</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.774950823405429</v>
+        <v>2.441160785212149</v>
       </c>
       <c r="B15" t="n">
-        <v>2.739938841696467</v>
+        <v>2.413886182064178</v>
       </c>
       <c r="C15" t="n">
-        <v>2.741993226439826</v>
+        <v>2.407738661781586</v>
       </c>
       <c r="D15" t="n">
-        <v>2.745360428374772</v>
+        <v>2.457534085567558</v>
       </c>
       <c r="E15" t="n">
-        <v>2.751633124167403</v>
+        <v>2.446917398329219</v>
       </c>
       <c r="F15" t="n">
-        <v>2.915388871946514</v>
+        <v>2.704481825320366</v>
       </c>
       <c r="G15" t="n">
-        <v>2.932460299891647</v>
+        <v>2.679895785028115</v>
       </c>
       <c r="H15" t="n">
-        <v>3.144750166564432</v>
+        <v>3.011697435745623</v>
       </c>
       <c r="I15" t="n">
-        <v>3.187200644949972</v>
+        <v>2.933021790570915</v>
       </c>
       <c r="J15" t="n">
-        <v>3.360416844081158</v>
+        <v>3.222257076891088</v>
       </c>
       <c r="K15" t="n">
-        <v>3.425886665080396</v>
+        <v>3.045358320002228</v>
       </c>
       <c r="L15" t="n">
-        <v>3.388969717162965</v>
+        <v>3.143448084058569</v>
       </c>
       <c r="M15" t="n">
-        <v>3.399412679459888</v>
+        <v>3.119680928394855</v>
       </c>
       <c r="N15" t="n">
-        <v>3.714249783829576</v>
+        <v>3.427386182986543</v>
       </c>
       <c r="O15" t="n">
-        <v>3.725995714186365</v>
+        <v>3.360368707152292</v>
       </c>
       <c r="P15" t="n">
-        <v>4.004596661840992</v>
+        <v>3.708856911023468</v>
       </c>
       <c r="Q15" t="n">
-        <v>4.024053501444399</v>
+        <v>3.71793122792198</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.778696856577545</v>
+        <v>2.492245587734194</v>
       </c>
       <c r="B16" t="n">
-        <v>2.74466978804068</v>
+        <v>2.464437066889135</v>
       </c>
       <c r="C16" t="n">
-        <v>2.746151722030598</v>
+        <v>2.45709135026099</v>
       </c>
       <c r="D16" t="n">
-        <v>2.752217586057089</v>
+        <v>2.502578713549993</v>
       </c>
       <c r="E16" t="n">
-        <v>2.757264425284547</v>
+        <v>2.491371712569563</v>
       </c>
       <c r="F16" t="n">
-        <v>2.922927061053927</v>
+        <v>2.752867347981254</v>
       </c>
       <c r="G16" t="n">
-        <v>2.93755830655951</v>
+        <v>2.711504977653726</v>
       </c>
       <c r="H16" t="n">
-        <v>3.153503402214397</v>
+        <v>3.085351373274441</v>
       </c>
       <c r="I16" t="n">
-        <v>3.188824310347582</v>
+        <v>2.952199783955712</v>
       </c>
       <c r="J16" t="n">
-        <v>3.375800707383858</v>
+        <v>3.280335164682161</v>
       </c>
       <c r="K16" t="n">
-        <v>3.42239791044665</v>
+        <v>3.047693924432989</v>
       </c>
       <c r="L16" t="n">
-        <v>3.390728868177419</v>
+        <v>3.176256527161416</v>
       </c>
       <c r="M16" t="n">
-        <v>3.400450441631463</v>
+        <v>3.144074238277858</v>
       </c>
       <c r="N16" t="n">
-        <v>3.710410544240198</v>
+        <v>3.425565346193974</v>
       </c>
       <c r="O16" t="n">
-        <v>3.721645761083847</v>
+        <v>3.361167387590252</v>
       </c>
       <c r="P16" t="n">
-        <v>3.997658068654934</v>
+        <v>3.720141742059775</v>
       </c>
       <c r="Q16" t="n">
-        <v>4.016131676645318</v>
+        <v>3.713324672470306</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2.779047821978626</v>
+        <v>2.502695195100888</v>
       </c>
       <c r="B17" t="n">
-        <v>2.744770201139689</v>
+        <v>2.478866548422373</v>
       </c>
       <c r="C17" t="n">
-        <v>2.74652574881327</v>
+        <v>2.471225147857341</v>
       </c>
       <c r="D17" t="n">
-        <v>2.752850813159929</v>
+        <v>2.521451360124149</v>
       </c>
       <c r="E17" t="n">
-        <v>2.758520309690332</v>
+        <v>2.508299310501251</v>
       </c>
       <c r="F17" t="n">
-        <v>2.925066244419176</v>
+        <v>2.750487118642609</v>
       </c>
       <c r="G17" t="n">
-        <v>2.939836819105202</v>
+        <v>2.719679768850005</v>
       </c>
       <c r="H17" t="n">
-        <v>3.159345859106729</v>
+        <v>3.05192977690972</v>
       </c>
       <c r="I17" t="n">
-        <v>3.193401033702408</v>
+        <v>2.958755780265196</v>
       </c>
       <c r="J17" t="n">
-        <v>3.379316847408243</v>
+        <v>3.254271758837159</v>
       </c>
       <c r="K17" t="n">
-        <v>3.423499812085773</v>
+        <v>3.066253318208886</v>
       </c>
       <c r="L17" t="n">
-        <v>3.388000418467987</v>
+        <v>3.164023328988261</v>
       </c>
       <c r="M17" t="n">
-        <v>3.397682355172422</v>
+        <v>3.137294766051725</v>
       </c>
       <c r="N17" t="n">
-        <v>3.703507984462874</v>
+        <v>3.427522868728015</v>
       </c>
       <c r="O17" t="n">
-        <v>3.714697799211517</v>
+        <v>3.360310729909766</v>
       </c>
       <c r="P17" t="n">
-        <v>3.994943551863546</v>
+        <v>3.713786030769928</v>
       </c>
       <c r="Q17" t="n">
-        <v>4.013765963250488</v>
+        <v>3.714657446293967</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2.777287229627822</v>
+        <v>2.643359053853567</v>
       </c>
       <c r="B18" t="n">
-        <v>2.743533534551895</v>
+        <v>2.61395088818061</v>
       </c>
       <c r="C18" t="n">
-        <v>2.745239836566872</v>
+        <v>2.608429522117308</v>
       </c>
       <c r="D18" t="n">
-        <v>2.752732143133828</v>
+        <v>2.599536691556765</v>
       </c>
       <c r="E18" t="n">
-        <v>2.758281768524505</v>
+        <v>2.590926016909854</v>
       </c>
       <c r="F18" t="n">
-        <v>2.926596703399524</v>
+        <v>2.766499027519601</v>
       </c>
       <c r="G18" t="n">
-        <v>2.940349454400142</v>
+        <v>2.732785085301654</v>
       </c>
       <c r="H18" t="n">
-        <v>3.163721996486262</v>
+        <v>3.042039562089103</v>
       </c>
       <c r="I18" t="n">
-        <v>3.192762521699619</v>
+        <v>2.974283842700011</v>
       </c>
       <c r="J18" t="n">
-        <v>3.381310215579477</v>
+        <v>3.21132713685449</v>
       </c>
       <c r="K18" t="n">
-        <v>3.413936305184715</v>
+        <v>3.075303741455933</v>
       </c>
       <c r="L18" t="n">
-        <v>3.386712344217064</v>
+        <v>3.177983546234259</v>
       </c>
       <c r="M18" t="n">
-        <v>3.395907589680848</v>
+        <v>3.153184747030797</v>
       </c>
       <c r="N18" t="n">
-        <v>3.704238261546576</v>
+        <v>3.454558886738558</v>
       </c>
       <c r="O18" t="n">
-        <v>3.71531397050089</v>
+        <v>3.368563526850535</v>
       </c>
       <c r="P18" t="n">
-        <v>3.993254305662038</v>
+        <v>3.713538661201814</v>
       </c>
       <c r="Q18" t="n">
-        <v>4.009864746198085</v>
+        <v>3.71690098989114</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2.777031632648526</v>
+        <v>2.49757527751993</v>
       </c>
       <c r="B19" t="n">
-        <v>2.744313057294201</v>
+        <v>2.469531158243876</v>
       </c>
       <c r="C19" t="n">
-        <v>2.745948974050781</v>
+        <v>2.464790728068549</v>
       </c>
       <c r="D19" t="n">
-        <v>2.756085892596179</v>
+        <v>2.505504456034232</v>
       </c>
       <c r="E19" t="n">
-        <v>2.761323708889934</v>
+        <v>2.500430920247296</v>
       </c>
       <c r="F19" t="n">
-        <v>2.931522470373632</v>
+        <v>2.734825884238597</v>
       </c>
       <c r="G19" t="n">
-        <v>2.944459184777759</v>
+        <v>2.723127306516985</v>
       </c>
       <c r="H19" t="n">
-        <v>3.164999741160014</v>
+        <v>2.987498788846619</v>
       </c>
       <c r="I19" t="n">
-        <v>3.194729465371113</v>
+        <v>2.964301918423033</v>
       </c>
       <c r="J19" t="n">
-        <v>3.37473435870802</v>
+        <v>3.162375018414363</v>
       </c>
       <c r="K19" t="n">
-        <v>3.413492613811822</v>
+        <v>3.080207210664791</v>
       </c>
       <c r="L19" t="n">
-        <v>3.390167948114774</v>
+        <v>3.15980258573231</v>
       </c>
       <c r="M19" t="n">
-        <v>3.399113121721936</v>
+        <v>3.145502235330154</v>
       </c>
       <c r="N19" t="n">
-        <v>3.701293371162007</v>
+        <v>3.457495697605461</v>
       </c>
       <c r="O19" t="n">
-        <v>3.711719277645462</v>
+        <v>3.372473652637433</v>
       </c>
       <c r="P19" t="n">
-        <v>3.989656730133911</v>
+        <v>3.710005211802726</v>
       </c>
       <c r="Q19" t="n">
-        <v>4.004911593833339</v>
+        <v>3.729320417994836</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2.772185859841811</v>
+        <v>2.510492607154901</v>
       </c>
       <c r="B20" t="n">
-        <v>2.740361633692294</v>
+        <v>2.485837521237459</v>
       </c>
       <c r="C20" t="n">
-        <v>2.741212022138446</v>
+        <v>2.477901315178609</v>
       </c>
       <c r="D20" t="n">
-        <v>2.745900929505801</v>
+        <v>2.517640322715387</v>
       </c>
       <c r="E20" t="n">
-        <v>2.749024785820421</v>
+        <v>2.506665582082291</v>
       </c>
       <c r="F20" t="n">
-        <v>2.9138365526982</v>
+        <v>2.729845112039703</v>
       </c>
       <c r="G20" t="n">
-        <v>2.931485235851272</v>
+        <v>2.716330265429479</v>
       </c>
       <c r="H20" t="n">
-        <v>3.154821504305932</v>
+        <v>2.978773740912177</v>
       </c>
       <c r="I20" t="n">
-        <v>3.201498701536116</v>
+        <v>2.965778756909943</v>
       </c>
       <c r="J20" t="n">
-        <v>3.361790197399421</v>
+        <v>3.117856226452785</v>
       </c>
       <c r="K20" t="n">
-        <v>3.412137517420652</v>
+        <v>3.10312824996484</v>
       </c>
       <c r="L20" t="n">
-        <v>3.3828394734462</v>
+        <v>3.174518264017294</v>
       </c>
       <c r="M20" t="n">
-        <v>3.395479993230524</v>
+        <v>3.159973355064844</v>
       </c>
       <c r="N20" t="n">
-        <v>3.699961576375152</v>
+        <v>3.472167805114243</v>
       </c>
       <c r="O20" t="n">
-        <v>3.715135244793563</v>
+        <v>3.389525286730406</v>
       </c>
       <c r="P20" t="n">
-        <v>3.999024455514175</v>
+        <v>3.707257090506956</v>
       </c>
       <c r="Q20" t="n">
-        <v>4.020216423859545</v>
+        <v>3.742166418052637</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2.776303757792074</v>
+        <v>2.473072513630581</v>
       </c>
       <c r="B21" t="n">
-        <v>2.7427888441047</v>
+        <v>2.443697026039776</v>
       </c>
       <c r="C21" t="n">
-        <v>2.741722255206137</v>
+        <v>2.438553917561808</v>
       </c>
       <c r="D21" t="n">
-        <v>2.741565149544051</v>
+        <v>2.473497504387164</v>
       </c>
       <c r="E21" t="n">
-        <v>2.740079852435985</v>
+        <v>2.469865845053008</v>
       </c>
       <c r="F21" t="n">
-        <v>2.911958010989469</v>
+        <v>2.695517489494041</v>
       </c>
       <c r="G21" t="n">
-        <v>2.931117695082172</v>
+        <v>2.69073155596776</v>
       </c>
       <c r="H21" t="n">
-        <v>3.147233589094465</v>
+        <v>2.957266292198099</v>
       </c>
       <c r="I21" t="n">
-        <v>3.211690871308242</v>
+        <v>2.958461326148606</v>
       </c>
       <c r="J21" t="n">
-        <v>3.336283588692092</v>
+        <v>3.09150820505356</v>
       </c>
       <c r="K21" t="n">
-        <v>3.442218207032833</v>
+        <v>3.082083565059294</v>
       </c>
       <c r="L21" t="n">
-        <v>3.404636803058323</v>
+        <v>3.157434654596625</v>
       </c>
       <c r="M21" t="n">
-        <v>3.420473726420188</v>
+        <v>3.144209869887648</v>
       </c>
       <c r="N21" t="n">
-        <v>3.69651125737739</v>
+        <v>3.464110373911927</v>
       </c>
       <c r="O21" t="n">
-        <v>3.713702796684974</v>
+        <v>3.382621778342988</v>
       </c>
       <c r="P21" t="n">
-        <v>3.996917461994062</v>
+        <v>3.704574325375488</v>
       </c>
       <c r="Q21" t="n">
-        <v>4.014900054734748</v>
+        <v>3.737642084872183</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2.779876830602261</v>
+        <v>2.551081420516231</v>
       </c>
       <c r="B22" t="n">
-        <v>2.748226285482848</v>
+        <v>2.519324649455097</v>
       </c>
       <c r="C22" t="n">
-        <v>2.747754968496591</v>
+        <v>2.51638766289958</v>
       </c>
       <c r="D22" t="n">
-        <v>2.761703741240729</v>
+        <v>2.509407905653809</v>
       </c>
       <c r="E22" t="n">
-        <v>2.761718875272397</v>
+        <v>2.513902371769932</v>
       </c>
       <c r="F22" t="n">
-        <v>2.938582376035765</v>
+        <v>2.687979569522488</v>
       </c>
       <c r="G22" t="n">
-        <v>2.947951062306928</v>
+        <v>2.673734736722267</v>
       </c>
       <c r="H22" t="n">
-        <v>3.178971815508467</v>
+        <v>2.947961471838389</v>
       </c>
       <c r="I22" t="n">
-        <v>3.210895974311543</v>
+        <v>2.938695127285083</v>
       </c>
       <c r="J22" t="n">
-        <v>3.373912796988856</v>
+        <v>3.105561185887601</v>
       </c>
       <c r="K22" t="n">
-        <v>3.418517112325864</v>
+        <v>3.096345615343659</v>
       </c>
       <c r="L22" t="n">
-        <v>3.40174115833236</v>
+        <v>3.158706991537167</v>
       </c>
       <c r="M22" t="n">
-        <v>3.411109844603522</v>
+        <v>3.139538309648898</v>
       </c>
       <c r="N22" t="n">
-        <v>3.717108674478629</v>
+        <v>3.503203198727452</v>
       </c>
       <c r="O22" t="n">
-        <v>3.728722242113998</v>
+        <v>3.390207661306085</v>
       </c>
       <c r="P22" t="n">
-        <v>4.008495716888871</v>
+        <v>3.635610571078474</v>
       </c>
       <c r="Q22" t="n">
-        <v>4.023962457031661</v>
+        <v>3.722159350099708</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2.777908445594417</v>
+        <v>2.586946142743309</v>
       </c>
       <c r="B23" t="n">
-        <v>2.745990052136739</v>
+        <v>2.553840961571893</v>
       </c>
       <c r="C23" t="n">
-        <v>2.746721049888615</v>
+        <v>2.554580083569803</v>
       </c>
       <c r="D23" t="n">
-        <v>2.757494078209553</v>
+        <v>2.517767872648946</v>
       </c>
       <c r="E23" t="n">
-        <v>2.760609766951527</v>
+        <v>2.525769610560713</v>
       </c>
       <c r="F23" t="n">
-        <v>2.931277683416957</v>
+        <v>2.683023393729515</v>
       </c>
       <c r="G23" t="n">
-        <v>2.944257637911566</v>
+        <v>2.650111821410416</v>
       </c>
       <c r="H23" t="n">
-        <v>3.166912154272956</v>
+        <v>2.943014783230557</v>
       </c>
       <c r="I23" t="n">
-        <v>3.203426248680727</v>
+        <v>2.931583427890409</v>
       </c>
       <c r="J23" t="n">
-        <v>3.365302734082932</v>
+        <v>3.10266935130581</v>
       </c>
       <c r="K23" t="n">
-        <v>3.418568039543543</v>
+        <v>3.090890132510502</v>
       </c>
       <c r="L23" t="n">
-        <v>3.395980377166494</v>
+        <v>3.171516448363316</v>
       </c>
       <c r="M23" t="n">
-        <v>3.4065871713618</v>
+        <v>3.139039002608712</v>
       </c>
       <c r="N23" t="n">
-        <v>3.717332802280963</v>
+        <v>3.556900666624092</v>
       </c>
       <c r="O23" t="n">
-        <v>3.730138835522743</v>
+        <v>3.375515173918112</v>
       </c>
       <c r="P23" t="n">
-        <v>4.017610487739812</v>
+        <v>3.618020978450298</v>
       </c>
       <c r="Q23" t="n">
-        <v>4.0338190356571</v>
+        <v>3.689229681853396</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2.772822690285525</v>
+        <v>2.400840775429807</v>
       </c>
       <c r="B24" t="n">
-        <v>2.742327616472889</v>
+        <v>2.373790175264326</v>
       </c>
       <c r="C24" t="n">
-        <v>2.742814067490815</v>
+        <v>2.366072701529554</v>
       </c>
       <c r="D24" t="n">
-        <v>2.759176357952039</v>
+        <v>2.415255674808106</v>
       </c>
       <c r="E24" t="n">
-        <v>2.761468803415775</v>
+        <v>2.407353728028931</v>
       </c>
       <c r="F24" t="n">
-        <v>2.934844990881746</v>
+        <v>2.646224710831915</v>
       </c>
       <c r="G24" t="n">
-        <v>2.947994782842861</v>
+        <v>2.638602811703005</v>
       </c>
       <c r="H24" t="n">
-        <v>3.162475240544023</v>
+        <v>2.898695222156934</v>
       </c>
       <c r="I24" t="n">
-        <v>3.201718985774851</v>
+        <v>2.925955067461353</v>
       </c>
       <c r="J24" t="n">
-        <v>3.356072656324038</v>
+        <v>3.128952719295186</v>
       </c>
       <c r="K24" t="n">
-        <v>3.413494775816346</v>
+        <v>3.113017059276548</v>
       </c>
       <c r="L24" t="n">
-        <v>3.391886741711445</v>
+        <v>3.149303434176548</v>
       </c>
       <c r="M24" t="n">
-        <v>3.401918682926062</v>
+        <v>3.127016982149246</v>
       </c>
       <c r="N24" t="n">
-        <v>3.710810755299884</v>
+        <v>3.504601328715417</v>
       </c>
       <c r="O24" t="n">
-        <v>3.722928790657546</v>
+        <v>3.382414114401573</v>
       </c>
       <c r="P24" t="n">
-        <v>4.012467078976944</v>
+        <v>3.629499066961695</v>
       </c>
       <c r="Q24" t="n">
-        <v>4.026915755211602</v>
+        <v>3.663520815630875</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2.775974172213509</v>
+        <v>2.580702696477628</v>
       </c>
       <c r="B25" t="n">
-        <v>2.744172527000134</v>
+        <v>2.544137855124885</v>
       </c>
       <c r="C25" t="n">
-        <v>2.743678388855011</v>
+        <v>2.533922792057504</v>
       </c>
       <c r="D25" t="n">
-        <v>2.745418562274198</v>
+        <v>2.508021195425736</v>
       </c>
       <c r="E25" t="n">
-        <v>2.744880463370419</v>
+        <v>2.489763107622365</v>
       </c>
       <c r="F25" t="n">
-        <v>2.91234621091291</v>
+        <v>2.688009963652661</v>
       </c>
       <c r="G25" t="n">
-        <v>2.929237952259817</v>
+        <v>2.638933281985408</v>
       </c>
       <c r="H25" t="n">
-        <v>3.143838761546155</v>
+        <v>2.978564671461853</v>
       </c>
       <c r="I25" t="n">
-        <v>3.202863647059007</v>
+        <v>2.909328072747736</v>
       </c>
       <c r="J25" t="n">
-        <v>3.329916725591299</v>
+        <v>3.223970392252062</v>
       </c>
       <c r="K25" t="n">
-        <v>3.44378782231734</v>
+        <v>3.095456630958249</v>
       </c>
       <c r="L25" t="n">
-        <v>3.405611867098699</v>
+        <v>3.15176904818146</v>
       </c>
       <c r="M25" t="n">
-        <v>3.418445525953843</v>
+        <v>3.11286877808657</v>
       </c>
       <c r="N25" t="n">
-        <v>3.716592435842816</v>
+        <v>3.493443696235441</v>
       </c>
       <c r="O25" t="n">
-        <v>3.7292682683677</v>
+        <v>3.382209612855206</v>
       </c>
       <c r="P25" t="n">
-        <v>4.005999802777143</v>
+        <v>3.674620119491097</v>
       </c>
       <c r="Q25" t="n">
-        <v>4.01970498967823</v>
+        <v>3.645116730589505</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2.774932326255611</v>
+        <v>2.514376028272514</v>
       </c>
       <c r="B26" t="n">
-        <v>2.744573218505269</v>
+        <v>2.482447433747165</v>
       </c>
       <c r="C26" t="n">
-        <v>2.744982798251227</v>
+        <v>2.475593996614656</v>
       </c>
       <c r="D26" t="n">
-        <v>2.746822664101248</v>
+        <v>2.48537159503388</v>
       </c>
       <c r="E26" t="n">
-        <v>2.746804647396881</v>
+        <v>2.471041201878779</v>
       </c>
       <c r="F26" t="n">
-        <v>2.911198186510605</v>
+        <v>2.688176516458465</v>
       </c>
       <c r="G26" t="n">
-        <v>2.931671648685795</v>
+        <v>2.641255182704299</v>
       </c>
       <c r="H26" t="n">
-        <v>3.131315470451584</v>
+        <v>3.001729566557743</v>
       </c>
       <c r="I26" t="n">
-        <v>3.198080332160766</v>
+        <v>2.876934781839103</v>
       </c>
       <c r="J26" t="n">
-        <v>3.314060344188718</v>
+        <v>3.254355386617289</v>
       </c>
       <c r="K26" t="n">
-        <v>3.432427449434017</v>
+        <v>3.024742315314153</v>
       </c>
       <c r="L26" t="n">
-        <v>3.391338313230495</v>
+        <v>3.149793956786048</v>
       </c>
       <c r="M26" t="n">
-        <v>3.406963119926271</v>
+        <v>3.106328242375092</v>
       </c>
       <c r="N26" t="n">
-        <v>3.70329995158311</v>
+        <v>3.48663365419052</v>
       </c>
       <c r="O26" t="n">
-        <v>3.72092797558184</v>
+        <v>3.358147651697675</v>
       </c>
       <c r="P26" t="n">
-        <v>3.988759978701853</v>
+        <v>3.719902102790664</v>
       </c>
       <c r="Q26" t="n">
-        <v>4.010114337609258</v>
+        <v>3.542846631658368</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2.771810872168239</v>
+        <v>2.486309420853904</v>
       </c>
       <c r="B27" t="n">
-        <v>2.741485155376659</v>
+        <v>2.456488738315938</v>
       </c>
       <c r="C27" t="n">
-        <v>2.74088579967803</v>
+        <v>2.447023865629132</v>
       </c>
       <c r="D27" t="n">
-        <v>2.746004465500233</v>
+        <v>2.480681763179303</v>
       </c>
       <c r="E27" t="n">
-        <v>2.74382732694445</v>
+        <v>2.462572483631751</v>
       </c>
       <c r="F27" t="n">
-        <v>2.912410350380459</v>
+        <v>2.712295049349614</v>
       </c>
       <c r="G27" t="n">
-        <v>2.930309585835603</v>
+        <v>2.660447582555421</v>
       </c>
       <c r="H27" t="n">
-        <v>3.129520286028394</v>
+        <v>3.004785845681973</v>
       </c>
       <c r="I27" t="n">
-        <v>3.194491404650736</v>
+        <v>2.904212371693507</v>
       </c>
       <c r="J27" t="n">
-        <v>3.299266708121102</v>
+        <v>3.261490452597587</v>
       </c>
       <c r="K27" t="n">
-        <v>3.42333742152374</v>
+        <v>3.056181089984458</v>
       </c>
       <c r="L27" t="n">
-        <v>3.389240688396654</v>
+        <v>3.150317860232153</v>
       </c>
       <c r="M27" t="n">
-        <v>3.402003721770677</v>
+        <v>3.094522318910499</v>
       </c>
       <c r="N27" t="n">
-        <v>3.688486617252051</v>
+        <v>3.510874817734044</v>
       </c>
       <c r="O27" t="n">
-        <v>3.703136840352902</v>
+        <v>3.311908165453346</v>
       </c>
       <c r="P27" t="n">
-        <v>3.941710436248072</v>
+        <v>3.760613019738528</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.958418407210429</v>
+        <v>3.530396633735886</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2.773600291246032</v>
+        <v>2.47678604385873</v>
       </c>
       <c r="B28" t="n">
-        <v>2.742189968851521</v>
+        <v>2.451036944943668</v>
       </c>
       <c r="C28" t="n">
-        <v>2.740552610758591</v>
+        <v>2.444363764328834</v>
       </c>
       <c r="D28" t="n">
-        <v>2.744605648573131</v>
+        <v>2.49672459325231</v>
       </c>
       <c r="E28" t="n">
-        <v>2.740600895526296</v>
+        <v>2.482581308470818</v>
       </c>
       <c r="F28" t="n">
-        <v>2.908883640556178</v>
+        <v>2.731237619992029</v>
       </c>
       <c r="G28" t="n">
-        <v>2.927768750074319</v>
+        <v>2.683469994185586</v>
       </c>
       <c r="H28" t="n">
-        <v>3.110790840835989</v>
+        <v>2.972124278260194</v>
       </c>
       <c r="I28" t="n">
-        <v>3.192421165207534</v>
+        <v>2.9144237453</v>
       </c>
       <c r="J28" t="n">
-        <v>3.249139191893156</v>
+        <v>3.174404417795605</v>
       </c>
       <c r="K28" t="n">
-        <v>3.42588786619402</v>
+        <v>3.008643264884757</v>
       </c>
       <c r="L28" t="n">
-        <v>3.387362627133373</v>
+        <v>3.155276144288491</v>
       </c>
       <c r="M28" t="n">
-        <v>3.398719396675822</v>
+        <v>3.100937061574555</v>
       </c>
       <c r="N28" t="n">
-        <v>3.682669143523109</v>
+        <v>3.500871108068965</v>
       </c>
       <c r="O28" t="n">
-        <v>3.694544313705896</v>
+        <v>3.277194906400573</v>
       </c>
       <c r="P28" t="n">
-        <v>3.855281662946618</v>
+        <v>3.794370884109905</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.870604509677192</v>
+        <v>3.636391331277835</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3.091734932960444</v>
+        <v>2.506042590258049</v>
       </c>
       <c r="B29" t="n">
-        <v>3.068688685401557</v>
+        <v>2.478091234570038</v>
       </c>
       <c r="C29" t="n">
-        <v>3.066612440390232</v>
+        <v>2.473606431327669</v>
       </c>
       <c r="D29" t="n">
-        <v>3.083256271885041</v>
+        <v>2.514843711362231</v>
       </c>
       <c r="E29" t="n">
-        <v>3.081371724608188</v>
+        <v>2.504606687218135</v>
       </c>
       <c r="F29" t="n">
-        <v>3.23341685477107</v>
+        <v>2.753075011922669</v>
       </c>
       <c r="G29" t="n">
-        <v>3.234234092481185</v>
+        <v>2.689717129912155</v>
       </c>
       <c r="H29" t="n">
-        <v>3.434445320323191</v>
+        <v>3.005486843250706</v>
       </c>
       <c r="I29" t="n">
-        <v>3.449773211730989</v>
+        <v>2.85219079748312</v>
       </c>
       <c r="J29" t="n">
-        <v>3.549178576408903</v>
+        <v>3.129522301780859</v>
       </c>
       <c r="K29" t="n">
-        <v>3.6015629851373</v>
+        <v>2.956924753533032</v>
       </c>
       <c r="L29" t="n">
-        <v>3.668579600262179</v>
+        <v>3.177007420296444</v>
       </c>
       <c r="M29" t="n">
-        <v>3.675722142541679</v>
+        <v>3.121693617153604</v>
       </c>
       <c r="N29" t="n">
-        <v>3.549210045585865</v>
+        <v>3.505661433810589</v>
       </c>
       <c r="O29" t="n">
-        <v>3.553382233871957</v>
+        <v>3.307319178863044</v>
       </c>
       <c r="P29" t="n">
-        <v>3.783688804912363</v>
+        <v>3.76890517092877</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.782235457426708</v>
+        <v>3.583239552215403</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3.434364605487624</v>
+        <v>2.511689573680159</v>
       </c>
       <c r="B30" t="n">
-        <v>3.398053018836945</v>
+        <v>2.485134415405362</v>
       </c>
       <c r="C30" t="n">
-        <v>3.394969760162832</v>
+        <v>2.482876816719091</v>
       </c>
       <c r="D30" t="n">
-        <v>3.443792866994563</v>
+        <v>2.518616800030429</v>
       </c>
       <c r="E30" t="n">
-        <v>3.441022138085547</v>
+        <v>2.516574419895962</v>
       </c>
       <c r="F30" t="n">
-        <v>3.758618921118904</v>
+        <v>2.748862350342948</v>
       </c>
       <c r="G30" t="n">
-        <v>3.683386448579665</v>
+        <v>2.69388042299142</v>
       </c>
       <c r="H30" t="n">
-        <v>4.016050241141577</v>
+        <v>2.937126052275971</v>
       </c>
       <c r="I30" t="n">
-        <v>3.853539807968356</v>
+        <v>2.818315924495007</v>
       </c>
       <c r="J30" t="n">
-        <v>4.145111821876771</v>
+        <v>3.031539356401658</v>
       </c>
       <c r="K30" t="n">
-        <v>3.970836961196943</v>
+        <v>2.904123824632194</v>
       </c>
       <c r="L30" t="n">
-        <v>4.361076375572376</v>
+        <v>3.189438092471418</v>
       </c>
       <c r="M30" t="n">
-        <v>4.284506823346334</v>
+        <v>3.133475295589504</v>
       </c>
       <c r="N30" t="n">
-        <v>4.792070055672817</v>
+        <v>3.504553541412486</v>
       </c>
       <c r="O30" t="n">
-        <v>4.526082963080049</v>
+        <v>3.310238420868575</v>
       </c>
       <c r="P30" t="n">
-        <v>5.181662310027365</v>
+        <v>3.789601992379155</v>
       </c>
       <c r="Q30" t="n">
-        <v>4.906734127613758</v>
+        <v>3.588651112895132</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3.542213078277656</v>
+        <v>2.590508932140888</v>
       </c>
       <c r="B31" t="n">
-        <v>3.503809391915809</v>
+        <v>2.562430377896545</v>
       </c>
       <c r="C31" t="n">
-        <v>3.491582055218316</v>
+        <v>2.553492219673664</v>
       </c>
       <c r="D31" t="n">
-        <v>3.489370084367422</v>
+        <v>2.551909440952682</v>
       </c>
       <c r="E31" t="n">
-        <v>3.467576598318897</v>
+        <v>2.53597975434691</v>
       </c>
       <c r="F31" t="n">
-        <v>3.731716618379897</v>
+        <v>2.729119166687823</v>
       </c>
       <c r="G31" t="n">
-        <v>3.639518656117206</v>
+        <v>2.661725190154375</v>
       </c>
       <c r="H31" t="n">
-        <v>3.942557942021525</v>
+        <v>2.883299980314091</v>
       </c>
       <c r="I31" t="n">
-        <v>3.76376953656352</v>
+        <v>2.752601355420086</v>
       </c>
       <c r="J31" t="n">
-        <v>4.115949263519164</v>
+        <v>3.01012642816176</v>
       </c>
       <c r="K31" t="n">
-        <v>3.891163491142448</v>
+        <v>2.845542740340047</v>
       </c>
       <c r="L31" t="n">
-        <v>4.377584481227615</v>
+        <v>3.2014948992764</v>
       </c>
       <c r="M31" t="n">
-        <v>4.306451649711547</v>
+        <v>3.149486853089269</v>
       </c>
       <c r="N31" t="n">
-        <v>4.807383773939846</v>
+        <v>3.515891430410135</v>
       </c>
       <c r="O31" t="n">
-        <v>4.576225132894214</v>
+        <v>3.346854036230682</v>
       </c>
       <c r="P31" t="n">
-        <v>5.1714427548646</v>
+        <v>3.782179499826815</v>
       </c>
       <c r="Q31" t="n">
-        <v>4.965545455124173</v>
+        <v>3.631577814639201</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3.358360057110551</v>
+        <v>2.456316036408654</v>
       </c>
       <c r="B32" t="n">
-        <v>3.320304933922535</v>
+        <v>2.428479581074015</v>
       </c>
       <c r="C32" t="n">
-        <v>3.309554006092288</v>
+        <v>2.420621556448268</v>
       </c>
       <c r="D32" t="n">
-        <v>3.36773787184526</v>
+        <v>2.463136444081784</v>
       </c>
       <c r="E32" t="n">
-        <v>3.352995162995323</v>
+        <v>2.452358826073279</v>
       </c>
       <c r="F32" t="n">
-        <v>3.687646077937621</v>
+        <v>2.697035439116561</v>
       </c>
       <c r="G32" t="n">
-        <v>3.646871633503719</v>
+        <v>2.66726465214489</v>
       </c>
       <c r="H32" t="n">
-        <v>3.981671006090006</v>
+        <v>2.912034555842055</v>
       </c>
       <c r="I32" t="n">
-        <v>3.972287666232624</v>
+        <v>2.905161968650651</v>
       </c>
       <c r="J32" t="n">
-        <v>4.255746397830213</v>
+        <v>3.112415852840406</v>
       </c>
       <c r="K32" t="n">
-        <v>4.125910819475385</v>
+        <v>3.017392909225119</v>
       </c>
       <c r="L32" t="n">
-        <v>4.306847536762184</v>
+        <v>3.149789037504863</v>
       </c>
       <c r="M32" t="n">
-        <v>4.263893791767976</v>
+        <v>3.118415267621634</v>
       </c>
       <c r="N32" t="n">
-        <v>4.747364126123176</v>
+        <v>3.471869134470923</v>
       </c>
       <c r="O32" t="n">
-        <v>4.518727823689011</v>
+        <v>3.304826860188846</v>
       </c>
       <c r="P32" t="n">
-        <v>5.093709563759135</v>
+        <v>3.725258145868458</v>
       </c>
       <c r="Q32" t="n">
-        <v>5.030580472991339</v>
+        <v>3.679101936027032</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3.296953123057574</v>
+        <v>2.411407742790464</v>
       </c>
       <c r="B33" t="n">
-        <v>3.262415341007569</v>
+        <v>2.386151099059653</v>
       </c>
       <c r="C33" t="n">
-        <v>3.252978671705258</v>
+        <v>2.379253915462328</v>
       </c>
       <c r="D33" t="n">
-        <v>3.320706346095846</v>
+        <v>2.428772629681695</v>
       </c>
       <c r="E33" t="n">
-        <v>3.306080385490211</v>
+        <v>2.418084612866187</v>
       </c>
       <c r="F33" t="n">
-        <v>3.626462070573353</v>
+        <v>2.652355540696203</v>
       </c>
       <c r="G33" t="n">
-        <v>3.611139223842778</v>
+        <v>2.641150120913296</v>
       </c>
       <c r="H33" t="n">
-        <v>3.923384084788052</v>
+        <v>2.869428661506634</v>
       </c>
       <c r="I33" t="n">
-        <v>3.977369337755193</v>
+        <v>2.908972303304957</v>
       </c>
       <c r="J33" t="n">
-        <v>4.227401557628171</v>
+        <v>3.091706381809833</v>
       </c>
       <c r="K33" t="n">
-        <v>4.173118908927601</v>
+        <v>3.05202008085717</v>
       </c>
       <c r="L33" t="n">
-        <v>4.273422466373924</v>
+        <v>3.125493761868315</v>
       </c>
       <c r="M33" t="n">
-        <v>4.244872475964815</v>
+        <v>3.104604385697296</v>
       </c>
       <c r="N33" t="n">
-        <v>4.700069556489995</v>
+        <v>3.437475628695116</v>
       </c>
       <c r="O33" t="n">
-        <v>4.519622413116545</v>
+        <v>3.3054154170448</v>
       </c>
       <c r="P33" t="n">
-        <v>5.0736504857844</v>
+        <v>3.710579362192355</v>
       </c>
       <c r="Q33" t="n">
-        <v>5.030686651435746</v>
+        <v>3.679142344408187</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3.284896344494762</v>
+        <v>2.402357143854803</v>
       </c>
       <c r="B34" t="n">
-        <v>3.241687963412157</v>
+        <v>2.37075164069008</v>
       </c>
       <c r="C34" t="n">
-        <v>3.237796355268751</v>
+        <v>2.367899687423603</v>
       </c>
       <c r="D34" t="n">
-        <v>3.247585191085767</v>
+        <v>2.375073229210305</v>
       </c>
       <c r="E34" t="n">
-        <v>3.251941870424583</v>
+        <v>2.378250030723546</v>
       </c>
       <c r="F34" t="n">
-        <v>3.50917836981736</v>
+        <v>2.566464891221956</v>
       </c>
       <c r="G34" t="n">
-        <v>3.532842230001969</v>
+        <v>2.583781112367187</v>
       </c>
       <c r="H34" t="n">
-        <v>3.791369686318367</v>
+        <v>2.772919040842068</v>
       </c>
       <c r="I34" t="n">
-        <v>3.924535472308506</v>
+        <v>2.87032783583164</v>
       </c>
       <c r="J34" t="n">
-        <v>4.093566270903731</v>
+        <v>2.993858716663195</v>
       </c>
       <c r="K34" t="n">
-        <v>4.173734359548799</v>
+        <v>3.052460356523147</v>
       </c>
       <c r="L34" t="n">
-        <v>4.197054701236799</v>
+        <v>3.069633567136812</v>
       </c>
       <c r="M34" t="n">
-        <v>4.186043371972758</v>
+        <v>3.061588434137457</v>
       </c>
       <c r="N34" t="n">
-        <v>4.625687472396907</v>
+        <v>3.382984751018928</v>
       </c>
       <c r="O34" t="n">
-        <v>4.502994676544305</v>
+        <v>3.293283064135919</v>
       </c>
       <c r="P34" t="n">
-        <v>5.038101846508009</v>
+        <v>3.684573582212652</v>
       </c>
       <c r="Q34" t="n">
-        <v>5.025759683348013</v>
+        <v>3.675565324232898</v>
       </c>
     </row>
   </sheetData>
